--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" firstSheet="14" activeTab="21" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" tabRatio="779" firstSheet="6" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -1453,7 +1453,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1528,7 +1528,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1669,7 +1669,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1744,7 +1744,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1885,7 +1885,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2027,7 +2027,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2269,7 +2269,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2421,7 +2421,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2573,7 +2573,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2725,7 +2725,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2954,7 +2954,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3106,7 +3106,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3335,7 +3335,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3487,7 +3487,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3639,7 +3639,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3781,7 +3781,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3847,7 +3847,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3967,7 +3967,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4196,7 +4196,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4271,7 +4271,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4413,7 +4413,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4490,7 +4490,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4600,7 +4600,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4752,7 +4752,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4904,7 +4904,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5056,7 +5056,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5208,7 +5208,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5360,7 +5360,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5512,7 +5512,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5664,7 +5664,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5739,7 +5739,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5891,7 +5891,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6582,7 +6582,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499069185460982"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10512,22 +10512,22 @@
       <selection activeCell="J16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.28515625" customWidth="1" min="1" max="1"/>
-    <col width="6.85546875" customWidth="1" min="2" max="2"/>
-    <col width="16.28515625" customWidth="1" min="3" max="3"/>
-    <col width="14.42578125" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="37.28515625" customWidth="1" min="6" max="6"/>
-    <col width="48.5703125" customWidth="1" min="7" max="7"/>
-    <col width="55.140625" customWidth="1" min="8" max="8"/>
-    <col width="39.42578125" customWidth="1" min="9" max="9"/>
+    <col width="3.26953125" customWidth="1" min="1" max="1"/>
+    <col width="6.81640625" customWidth="1" min="2" max="2"/>
+    <col width="16.26953125" customWidth="1" min="3" max="3"/>
+    <col width="14.453125" customWidth="1" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="37.26953125" customWidth="1" min="6" max="6"/>
+    <col width="48.54296875" customWidth="1" min="7" max="7"/>
+    <col width="55.1796875" customWidth="1" min="8" max="8"/>
+    <col width="39.453125" customWidth="1" min="9" max="9"/>
     <col width="47" customWidth="1" min="10" max="10"/>
-    <col width="14.5703125" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="13.28515625" customWidth="1" min="14" max="14"/>
+    <col width="14.54296875" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="13.26953125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -11433,24 +11433,24 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="56.42578125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="54.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="56.453125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="54.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="17.54296875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -12566,26 +12566,26 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="2.85546875" customWidth="1" min="1" max="1"/>
-    <col width="6.140625" customWidth="1" style="12" min="2" max="2"/>
+    <col width="2.81640625" customWidth="1" min="1" max="1"/>
+    <col width="6.1796875" customWidth="1" style="12" min="2" max="2"/>
     <col width="19" customWidth="1" style="12" min="3" max="3"/>
-    <col width="24.85546875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
-    <col width="34.140625" customWidth="1" min="6" max="6"/>
-    <col width="46.140625" customWidth="1" min="7" max="7"/>
-    <col width="39.7109375" customWidth="1" min="8" max="8"/>
-    <col width="58.140625" customWidth="1" style="12" min="9" max="9"/>
-    <col width="61.28515625" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="17.7109375" customWidth="1" min="14" max="14"/>
+    <col width="24.81640625" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="34.1796875" customWidth="1" min="6" max="6"/>
+    <col width="46.1796875" customWidth="1" min="7" max="7"/>
+    <col width="39.7265625" customWidth="1" min="8" max="8"/>
+    <col width="58.1796875" customWidth="1" style="12" min="9" max="9"/>
+    <col width="61.26953125" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="17.7265625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -13494,26 +13494,26 @@
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
-    <col width="7.140625" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
-    <col width="22.42578125" customWidth="1" style="12" min="3" max="3"/>
-    <col width="9.85546875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
-    <col width="52.140625" customWidth="1" min="6" max="6"/>
-    <col width="41.85546875" customWidth="1" min="7" max="7"/>
-    <col width="45.85546875" customWidth="1" min="8" max="8"/>
-    <col width="53.140625" customWidth="1" style="12" min="9" max="9"/>
-    <col width="47.140625" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="15.42578125" customWidth="1" min="14" max="14"/>
+    <col width="7.1796875" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="22.453125" customWidth="1" style="12" min="3" max="3"/>
+    <col width="9.81640625" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="52.1796875" customWidth="1" min="6" max="6"/>
+    <col width="41.81640625" customWidth="1" min="7" max="7"/>
+    <col width="45.81640625" customWidth="1" min="8" max="8"/>
+    <col width="53.1796875" customWidth="1" style="12" min="9" max="9"/>
+    <col width="47.1796875" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="15.453125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -15346,28 +15346,28 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="6.140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="21.85546875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="18.42578125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="68.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="43.7109375" customWidth="1" style="2" min="7" max="7"/>
-    <col width="50.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.85546875" customWidth="1" style="1" min="9" max="9"/>
-    <col width="53.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="2.453125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="6.1796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="21.81640625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="18.453125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="68.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="43.7265625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="50.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.81640625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="53.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="16.81640625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -16322,28 +16322,28 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.140625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.1796875" customWidth="1" style="2" min="8" max="8"/>
     <col width="63" customWidth="1" style="1" min="9" max="9"/>
-    <col width="49.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="49.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.81640625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -17189,20 +17189,20 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="2.85546875" customWidth="1" min="1" max="1"/>
+    <col width="2.81640625" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="42.85546875" customWidth="1" min="6" max="6"/>
-    <col width="47.5703125" customWidth="1" min="7" max="7"/>
-    <col width="38.85546875" customWidth="1" min="8" max="8"/>
-    <col width="37.42578125" customWidth="1" min="9" max="9"/>
-    <col width="50.85546875" customWidth="1" min="10" max="10"/>
-    <col width="17.5703125" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="18.140625" customWidth="1" min="14" max="14"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="42.81640625" customWidth="1" min="6" max="6"/>
+    <col width="47.54296875" customWidth="1" min="7" max="7"/>
+    <col width="38.81640625" customWidth="1" min="8" max="8"/>
+    <col width="37.453125" customWidth="1" min="9" max="9"/>
+    <col width="50.81640625" customWidth="1" min="10" max="10"/>
+    <col width="17.54296875" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="18.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -17801,24 +17801,24 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="56.42578125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="45.7109375" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="56.453125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="45.7265625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="20.453125" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18233,28 +18233,28 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="80" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="43" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="43" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="44" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
-    <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="43" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="43" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="43" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="80" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="43" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="43" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="44" min="9" max="9"/>
+    <col width="47.81640625" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
+    <col width="16.54296875" customWidth="1" style="43" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="43" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="43" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18717,27 +18717,27 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.7109375" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.7265625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.1796875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -19798,25 +19798,25 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.28515625" customWidth="1" min="1" max="1"/>
-    <col width="6.5703125" customWidth="1" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" min="3" max="3"/>
-    <col width="13.28515625" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="47.7109375" customWidth="1" min="6" max="6"/>
-    <col width="44.28515625" customWidth="1" min="7" max="7"/>
-    <col width="49.140625" customWidth="1" min="8" max="8"/>
-    <col width="47.140625" customWidth="1" min="9" max="10"/>
-    <col width="16.85546875" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="15.85546875" customWidth="1" min="14" max="14"/>
+    <col width="3.26953125" customWidth="1" min="1" max="1"/>
+    <col width="6.54296875" customWidth="1" min="2" max="2"/>
+    <col width="9.1796875" customWidth="1" min="3" max="3"/>
+    <col width="13.26953125" customWidth="1" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="47.7265625" customWidth="1" min="6" max="6"/>
+    <col width="44.26953125" customWidth="1" min="7" max="7"/>
+    <col width="49.1796875" customWidth="1" min="8" max="8"/>
+    <col width="47.1796875" customWidth="1" min="9" max="10"/>
+    <col width="16.81640625" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="15.81640625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -20511,28 +20511,28 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="D42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
     <col width="19" customWidth="1" style="80" min="3" max="3"/>
-    <col width="18.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="43" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="43" min="7" max="7"/>
-    <col width="78.28515625" customWidth="1" style="43" min="8" max="8"/>
-    <col width="52.28515625" customWidth="1" style="44" min="9" max="9"/>
-    <col width="43.5703125" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
-    <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="46" min="17" max="16384"/>
+    <col width="18.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="43" min="7" max="7"/>
+    <col width="78.26953125" customWidth="1" style="43" min="8" max="8"/>
+    <col width="52.26953125" customWidth="1" style="44" min="9" max="9"/>
+    <col width="43.54296875" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
+    <col width="18.7265625" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="46" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -23334,21 +23334,21 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="42.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.42578125" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="42.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.453125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -23711,21 +23711,21 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
     <col width="47" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.85546875" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.81640625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -24018,24 +24018,24 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="2" customWidth="1" min="1" max="1"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.140625" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.1796875" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
     <col width="44" customWidth="1" style="12" min="6" max="6"/>
-    <col width="51.85546875" customWidth="1" style="12" min="7" max="7"/>
-    <col width="41.5703125" customWidth="1" style="12" min="8" max="8"/>
+    <col width="51.81640625" customWidth="1" style="12" min="7" max="7"/>
+    <col width="41.54296875" customWidth="1" style="12" min="8" max="8"/>
     <col width="45" customWidth="1" style="12" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="12" min="10" max="10"/>
+    <col width="47.81640625" customWidth="1" style="12" min="10" max="10"/>
     <col width="14" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -24697,28 +24697,28 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="57.7109375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="54.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.140625" customWidth="1" style="2" min="8" max="8"/>
-    <col width="60.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="48.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="57.7265625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="54.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.1796875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="60.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="48.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.453125" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -25616,25 +25616,25 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="67.85546875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="67.81640625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
     <col width="46" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.140625" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -26203,25 +26203,25 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="40.7109375" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.28515625" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="40.7265625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.26953125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -26926,26 +26926,26 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.28515625" customWidth="1" min="1" max="1"/>
-    <col width="6.85546875" customWidth="1" min="2" max="2"/>
-    <col width="20.5703125" customWidth="1" min="3" max="3"/>
-    <col width="13.42578125" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="37.28515625" customWidth="1" min="6" max="6"/>
-    <col width="48.5703125" customWidth="1" min="7" max="7"/>
-    <col width="55.140625" customWidth="1" min="8" max="8"/>
-    <col width="36.7109375" customWidth="1" min="9" max="9"/>
-    <col width="50.28515625" customWidth="1" min="10" max="10"/>
-    <col width="14.5703125" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="17.7109375" customWidth="1" min="14" max="14"/>
+    <col width="3.26953125" customWidth="1" min="1" max="1"/>
+    <col width="6.81640625" customWidth="1" min="2" max="2"/>
+    <col width="20.54296875" customWidth="1" min="3" max="3"/>
+    <col width="13.453125" customWidth="1" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="37.26953125" customWidth="1" min="6" max="6"/>
+    <col width="48.54296875" customWidth="1" min="7" max="7"/>
+    <col width="55.1796875" customWidth="1" min="8" max="8"/>
+    <col width="36.7265625" customWidth="1" min="9" max="9"/>
+    <col width="50.26953125" customWidth="1" min="10" max="10"/>
+    <col width="14.54296875" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="17.7265625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -28136,24 +28136,24 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="80" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="43" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="43" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="44" min="9" max="9"/>
-    <col width="42.28515625" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="80" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="43" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="43" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="44" min="9" max="9"/>
+    <col width="42.26953125" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="46" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="46" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -28445,25 +28445,25 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="90.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.28515625" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="90.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.81640625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.26953125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -29039,25 +29039,25 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="D55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="28.5703125" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="40.42578125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.85546875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="28.54296875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="40.453125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.81640625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
     <col width="41" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.140625" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -32733,25 +32733,25 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F7" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="78.28515625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="78.26953125" customWidth="1" style="2" min="8" max="8"/>
     <col width="57" customWidth="1" style="1" min="9" max="9"/>
     <col width="45" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.140625" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -33838,25 +33838,25 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="11.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="15.5703125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="15.54296875" customWidth="1" style="36" min="5" max="5"/>
     <col width="86" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
     <col width="65" customWidth="1" style="2" min="8" max="8"/>
-    <col width="58.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="49.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="17.42578125" customWidth="1" min="14" max="14"/>
+    <col width="58.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="49.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="17.453125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -38104,28 +38104,28 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
     <col width="19" customWidth="1" style="80" min="3" max="3"/>
-    <col width="18.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="43" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="43" min="7" max="7"/>
-    <col width="85.5703125" customWidth="1" style="43" min="8" max="8"/>
+    <col width="18.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="43" min="7" max="7"/>
+    <col width="85.54296875" customWidth="1" style="43" min="8" max="8"/>
     <col width="63" customWidth="1" style="44" min="9" max="9"/>
-    <col width="38.140625" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
-    <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="46" min="17" max="16384"/>
+    <col width="38.1796875" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
+    <col width="15.54296875" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="46" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -38792,25 +38792,25 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="12" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="15.42578125" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
-    <col width="52.7109375" customWidth="1" min="6" max="6"/>
-    <col width="51.140625" customWidth="1" min="7" max="7"/>
-    <col width="55.85546875" customWidth="1" min="8" max="8"/>
-    <col width="58.140625" customWidth="1" style="12" min="9" max="9"/>
-    <col width="45.140625" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="17.85546875" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="12" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="12" min="3" max="3"/>
+    <col width="15.453125" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="52.7265625" customWidth="1" min="6" max="6"/>
+    <col width="51.1796875" customWidth="1" min="7" max="7"/>
+    <col width="55.81640625" customWidth="1" min="8" max="8"/>
+    <col width="58.1796875" customWidth="1" style="12" min="9" max="9"/>
+    <col width="45.1796875" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="17.81640625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -39384,27 +39384,27 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="65" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="65" min="3" max="3"/>
-    <col width="15.42578125" customWidth="1" style="65" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="66" min="5" max="5"/>
-    <col width="52.7109375" customWidth="1" style="46" min="6" max="6"/>
-    <col width="51.140625" customWidth="1" style="46" min="7" max="7"/>
-    <col width="55.85546875" customWidth="1" style="46" min="8" max="8"/>
-    <col width="58.140625" customWidth="1" style="65" min="9" max="9"/>
-    <col width="43.42578125" customWidth="1" style="65" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="65" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
-    <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="46" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="65" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="65" min="3" max="3"/>
+    <col width="15.453125" customWidth="1" style="65" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="66" min="5" max="5"/>
+    <col width="52.7265625" customWidth="1" style="46" min="6" max="6"/>
+    <col width="51.1796875" customWidth="1" style="46" min="7" max="7"/>
+    <col width="55.81640625" customWidth="1" style="46" min="8" max="8"/>
+    <col width="58.1796875" customWidth="1" style="65" min="9" max="9"/>
+    <col width="43.453125" customWidth="1" style="65" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="65" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="46" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="46" min="13" max="13"/>
+    <col width="14.81640625" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="46" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -39535,7 +39535,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="89.45" customHeight="1">
+    <row r="5" ht="89.5" customHeight="1">
       <c r="A5" s="43" t="n"/>
       <c r="B5" s="127" t="n">
         <v>1</v>
@@ -40134,24 +40134,24 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="25.42578125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="61.42578125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="25.453125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="61.453125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.81640625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.81640625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -40959,28 +40959,28 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.1796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
     <col width="24" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="69.85546875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="36.85546875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="61.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="66.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="48.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="69.81640625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="36.81640625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="61.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="66.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="48.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="14.7265625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -42845,28 +42845,28 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="17.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="65.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="40.28515625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="53.85546875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="66.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="46.28515625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="16"/>
-    <col width="8.7109375" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.1796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="17.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="65.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="40.26953125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="53.81640625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="66.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="46.26953125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="11.26953125" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="14.1796875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="18"/>
+    <col width="8.7265625" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -43059,7 +43059,8 @@
       <c r="H6" s="53" t="inlineStr">
         <is>
           <t>• All Doors are closed
-• Vehicle is locked</t>
+• Vehicle is locked
+Ignition is Off</t>
         </is>
       </c>
       <c r="I6" s="53" t="inlineStr">
@@ -43111,7 +43112,8 @@
       <c r="H7" s="53" t="inlineStr">
         <is>
           <t>• All Doors are closed
-• Vehicle is unlocked</t>
+• Vehicle is unlocked
+Ignition is Off</t>
         </is>
       </c>
       <c r="I7" s="53" t="inlineStr">

--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" firstSheet="19" activeTab="29" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="22500" windowHeight="15585" tabRatio="779" firstSheet="14" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="OCat">#REF!</definedName>
     <definedName name="Passed">[1]Dashboard!$E$17:INDEX([1]Dashboard!$E$17:$E$49,COUNT([1]Dashboard!$E$17:$E$49,"&lt;=0"))</definedName>
     <definedName name="Priority">[1]ChartBox!#REF!</definedName>
-    <definedName name="Service">OFFSET([2]Dashboard!$C$15,0,0,COUNTA([2]Dashboard!$C$15:$C$100)-1,1)</definedName>
+    <definedName name="Service">OFFSET([3]Dashboard!$C$15,0,0,COUNTA([3]Dashboard!$C$15:$C$100)-1,1)</definedName>
     <definedName name="Service_Name">[1]Dashboard!$C$17:INDEX([1]Dashboard!$C$17:$C$49,COUNTIF([1]Dashboard!$C$17:$C$49,"?*"))</definedName>
     <definedName name="Status">[1]ChartBox!#REF!</definedName>
     <definedName name="TCIncomplete">[1]Dashboard!$J$17:INDEX([1]Dashboard!$J$17:$J$49,COUNTIF([1]Dashboard!$J$17:$J$49,"?*"))</definedName>
@@ -73,14 +73,14 @@
     <definedName name="Failed" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="NA" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Passed" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Priority" localSheetId="29">[3]ChartBox!#REF!</definedName>
+    <definedName name="Priority" localSheetId="29">[2]ChartBox!#REF!</definedName>
     <definedName name="Service" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Service_Name" localSheetId="29">[3]Dashboard!$C$17:INDEX([3]Dashboard!$C$17:$C$49,COUNTIF([3]Dashboard!$C$17:$C$49,"?*"))</definedName>
-    <definedName name="Status" localSheetId="29">[3]ChartBox!#REF!</definedName>
-    <definedName name="TCIncomplete" localSheetId="29">[3]Dashboard!$J$17:INDEX([3]Dashboard!$J$17:$J$49,COUNTIF([3]Dashboard!$J$17:$J$49,"?*"))</definedName>
-    <definedName name="TComplete" localSheetId="29">[3]Dashboard!$I$17:INDEX([3]Dashboard!$I$17:$I$49,COUNTIF([3]Dashboard!$I$17:$I$49,"?*"))</definedName>
-    <definedName name="TestType" localSheetId="29">[3]ChartBox!#REF!</definedName>
-    <definedName name="TIPercentage" localSheetId="29">(1-(SUM([3]Dashboard!$E$17:$E$49,[3]Dashboard!$F$17:$F$49, [3]Dashboard!$G$17:$G$49, [3]Dashboard!$H$17:$H$49))/SUM([3]Dashboard!$D$17:$D$49))*100</definedName>
+    <definedName name="Service_Name" localSheetId="29">[2]Dashboard!$C$17:INDEX([2]Dashboard!$C$17:$C$49,COUNTIF([2]Dashboard!$C$17:$C$49,"?*"))</definedName>
+    <definedName name="Status" localSheetId="29">[2]ChartBox!#REF!</definedName>
+    <definedName name="TCIncomplete" localSheetId="29">[2]Dashboard!$J$17:INDEX([2]Dashboard!$J$17:$J$49,COUNTIF([2]Dashboard!$J$17:$J$49,"?*"))</definedName>
+    <definedName name="TComplete" localSheetId="29">[2]Dashboard!$I$17:INDEX([2]Dashboard!$I$17:$I$49,COUNTIF([2]Dashboard!$I$17:$I$49,"?*"))</definedName>
+    <definedName name="TestType" localSheetId="29">[2]ChartBox!#REF!</definedName>
+    <definedName name="TIPercentage" localSheetId="29">(1-(SUM([2]Dashboard!$E$17:$E$49,[2]Dashboard!$F$17:$F$49, [2]Dashboard!$G$17:$G$49, [2]Dashboard!$H$17:$H$49))/SUM([2]Dashboard!$D$17:$D$49))*100</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -9363,211 +9363,6 @@
       <sheetName val="ChartBox"/>
       <sheetName val="Change_History"/>
       <sheetName val="DemoMode"/>
-      <sheetName val="Customer_Enrollment"/>
-      <sheetName val="App_Registration_Pages-IDK"/>
-      <sheetName val="Add_VIN"/>
-      <sheetName val="MyBentleyAppLogin"/>
-      <sheetName val="Nickname"/>
-      <sheetName val="License(App)"/>
-      <sheetName val="VehicleStatusReport"/>
-      <sheetName val="RemoteLockUnlock"/>
-      <sheetName val="SingleServiceActivation"/>
-      <sheetName val="PHEV-MyCarStatistics"/>
-      <sheetName val="PHEV-MyCabinComfort"/>
-      <sheetName val="PHEV-MyBatteryCharge"/>
-      <sheetName val="RoadsideAssistanceCall(App)"/>
-      <sheetName val="DataServices"/>
-      <sheetName val="TheftAlarm"/>
-      <sheetName val="Audials(App)"/>
-      <sheetName val="CarFinder"/>
-      <sheetName val="NavCompanion"/>
-      <sheetName val="Notifications"/>
-      <sheetName val="PushNotifications"/>
-      <sheetName val="Profiles"/>
-      <sheetName val="TextStrings"/>
-      <sheetName val="PrivacyMode(App)"/>
-      <sheetName val="RemoteParkAssist"/>
-      <sheetName val="VehicleTrackingSystem"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>DemoMode</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>Customer_Enrollment</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>App_Registration_Pages-IDK</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Add_VIN</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>MyBentleyAppLogin</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Nickname</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>License(App)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>VehicleStatusReport</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>RemoteLockUnlock</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>SingleServiceActivation</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>PHEV-MyCarStatistics</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>PHEV-MyCabinComfort</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>PHEV-MyBatteryCharge</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>RoadsideAssistanceCall(App)</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>DataServices</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>TheftAlarm</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Audials(App)</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>CarFinder</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>NavCompanion</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Notifications</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>PushNotifications</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Profiles</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>TextStrings</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>PrivacyMode(App)</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>RemoteParkAssist</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>VehicleTrackingSystem</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Total Count</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="ChartBox"/>
-      <sheetName val="Change_History"/>
-      <sheetName val="DemoMode"/>
       <sheetName val="App_Registration_Pages-IDK"/>
       <sheetName val="Add_VIN"/>
       <sheetName val="MyBentleyAppLogin"/>
@@ -10431,6 +10226,211 @@
       <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="ChartBox"/>
+      <sheetName val="Change_History"/>
+      <sheetName val="DemoMode"/>
+      <sheetName val="Customer_Enrollment"/>
+      <sheetName val="App_Registration_Pages-IDK"/>
+      <sheetName val="Add_VIN"/>
+      <sheetName val="MyBentleyAppLogin"/>
+      <sheetName val="Nickname"/>
+      <sheetName val="License(App)"/>
+      <sheetName val="VehicleStatusReport"/>
+      <sheetName val="RemoteLockUnlock"/>
+      <sheetName val="SingleServiceActivation"/>
+      <sheetName val="PHEV-MyCarStatistics"/>
+      <sheetName val="PHEV-MyCabinComfort"/>
+      <sheetName val="PHEV-MyBatteryCharge"/>
+      <sheetName val="RoadsideAssistanceCall(App)"/>
+      <sheetName val="DataServices"/>
+      <sheetName val="TheftAlarm"/>
+      <sheetName val="Audials(App)"/>
+      <sheetName val="CarFinder"/>
+      <sheetName val="NavCompanion"/>
+      <sheetName val="Notifications"/>
+      <sheetName val="PushNotifications"/>
+      <sheetName val="Profiles"/>
+      <sheetName val="TextStrings"/>
+      <sheetName val="PrivacyMode(App)"/>
+      <sheetName val="RemoteParkAssist"/>
+      <sheetName val="VehicleTrackingSystem"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>DemoMode</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Customer_Enrollment</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>App_Registration_Pages-IDK</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Add_VIN</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>MyBentleyAppLogin</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Nickname</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>License(App)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>VehicleStatusReport</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>RemoteLockUnlock</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>SingleServiceActivation</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>PHEV-MyCarStatistics</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>PHEV-MyCabinComfort</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>PHEV-MyBatteryCharge</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>RoadsideAssistanceCall(App)</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>DataServices</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>TheftAlarm</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>Audials(App)</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>CarFinder</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>NavCompanion</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>Notifications</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>PushNotifications</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>Profiles</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>TextStrings</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>PrivacyMode(App)</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>RemoteParkAssist</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>VehicleTrackingSystem</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>Total Count</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10729,8 +10729,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -11670,8 +11670,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -13729,8 +13729,8 @@
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -15581,8 +15581,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -15601,8 +15601,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="F11" s="53" t="inlineStr">
         <is>
-          <t>Setting timer from vehicle</t>
+          <t>Setting timer from vehicle (Set first of two timers always)</t>
         </is>
       </c>
       <c r="G11" s="53" t="inlineStr">
@@ -16577,8 +16577,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -17489,7 +17489,7 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -18121,8 +18121,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18557,8 +18557,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="43" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="43" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="43" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="43" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -19040,8 +19040,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -20832,8 +20832,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="46" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -25018,8 +25018,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -28452,8 +28452,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="46" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -34111,7 +34111,7 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -38397,8 +38397,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="46" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -39632,8 +39632,8 @@
     <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
     <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="46" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -40393,8 +40393,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -41222,8 +41222,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -43108,8 +43108,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="29"/>
-    <col width="8.7109375" customWidth="1" style="2" min="30" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
+    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>

--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="22500" windowHeight="15585" tabRatio="779" firstSheet="14" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" firstSheet="19" activeTab="29" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="OCat">#REF!</definedName>
     <definedName name="Passed">[1]Dashboard!$E$17:INDEX([1]Dashboard!$E$17:$E$49,COUNT([1]Dashboard!$E$17:$E$49,"&lt;=0"))</definedName>
     <definedName name="Priority">[1]ChartBox!#REF!</definedName>
-    <definedName name="Service">OFFSET([3]Dashboard!$C$15,0,0,COUNTA([3]Dashboard!$C$15:$C$100)-1,1)</definedName>
+    <definedName name="Service">OFFSET([2]Dashboard!$C$15,0,0,COUNTA([2]Dashboard!$C$15:$C$100)-1,1)</definedName>
     <definedName name="Service_Name">[1]Dashboard!$C$17:INDEX([1]Dashboard!$C$17:$C$49,COUNTIF([1]Dashboard!$C$17:$C$49,"?*"))</definedName>
     <definedName name="Status">[1]ChartBox!#REF!</definedName>
     <definedName name="TCIncomplete">[1]Dashboard!$J$17:INDEX([1]Dashboard!$J$17:$J$49,COUNTIF([1]Dashboard!$J$17:$J$49,"?*"))</definedName>
@@ -73,14 +73,14 @@
     <definedName name="Failed" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="NA" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Passed" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Priority" localSheetId="29">[2]ChartBox!#REF!</definedName>
+    <definedName name="Priority" localSheetId="29">[3]ChartBox!#REF!</definedName>
     <definedName name="Service" localSheetId="29">OFFSET(#REF!,0,0,COUNTA(#REF!)-1,1)</definedName>
-    <definedName name="Service_Name" localSheetId="29">[2]Dashboard!$C$17:INDEX([2]Dashboard!$C$17:$C$49,COUNTIF([2]Dashboard!$C$17:$C$49,"?*"))</definedName>
-    <definedName name="Status" localSheetId="29">[2]ChartBox!#REF!</definedName>
-    <definedName name="TCIncomplete" localSheetId="29">[2]Dashboard!$J$17:INDEX([2]Dashboard!$J$17:$J$49,COUNTIF([2]Dashboard!$J$17:$J$49,"?*"))</definedName>
-    <definedName name="TComplete" localSheetId="29">[2]Dashboard!$I$17:INDEX([2]Dashboard!$I$17:$I$49,COUNTIF([2]Dashboard!$I$17:$I$49,"?*"))</definedName>
-    <definedName name="TestType" localSheetId="29">[2]ChartBox!#REF!</definedName>
-    <definedName name="TIPercentage" localSheetId="29">(1-(SUM([2]Dashboard!$E$17:$E$49,[2]Dashboard!$F$17:$F$49, [2]Dashboard!$G$17:$G$49, [2]Dashboard!$H$17:$H$49))/SUM([2]Dashboard!$D$17:$D$49))*100</definedName>
+    <definedName name="Service_Name" localSheetId="29">[3]Dashboard!$C$17:INDEX([3]Dashboard!$C$17:$C$49,COUNTIF([3]Dashboard!$C$17:$C$49,"?*"))</definedName>
+    <definedName name="Status" localSheetId="29">[3]ChartBox!#REF!</definedName>
+    <definedName name="TCIncomplete" localSheetId="29">[3]Dashboard!$J$17:INDEX([3]Dashboard!$J$17:$J$49,COUNTIF([3]Dashboard!$J$17:$J$49,"?*"))</definedName>
+    <definedName name="TComplete" localSheetId="29">[3]Dashboard!$I$17:INDEX([3]Dashboard!$I$17:$I$49,COUNTIF([3]Dashboard!$I$17:$I$49,"?*"))</definedName>
+    <definedName name="TestType" localSheetId="29">[3]ChartBox!#REF!</definedName>
+    <definedName name="TIPercentage" localSheetId="29">(1-(SUM([3]Dashboard!$E$17:$E$49,[3]Dashboard!$F$17:$F$49, [3]Dashboard!$G$17:$G$49, [3]Dashboard!$H$17:$H$49))/SUM([3]Dashboard!$D$17:$D$49))*100</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -9363,6 +9363,211 @@
       <sheetName val="ChartBox"/>
       <sheetName val="Change_History"/>
       <sheetName val="DemoMode"/>
+      <sheetName val="Customer_Enrollment"/>
+      <sheetName val="App_Registration_Pages-IDK"/>
+      <sheetName val="Add_VIN"/>
+      <sheetName val="MyBentleyAppLogin"/>
+      <sheetName val="Nickname"/>
+      <sheetName val="License(App)"/>
+      <sheetName val="VehicleStatusReport"/>
+      <sheetName val="RemoteLockUnlock"/>
+      <sheetName val="SingleServiceActivation"/>
+      <sheetName val="PHEV-MyCarStatistics"/>
+      <sheetName val="PHEV-MyCabinComfort"/>
+      <sheetName val="PHEV-MyBatteryCharge"/>
+      <sheetName val="RoadsideAssistanceCall(App)"/>
+      <sheetName val="DataServices"/>
+      <sheetName val="TheftAlarm"/>
+      <sheetName val="Audials(App)"/>
+      <sheetName val="CarFinder"/>
+      <sheetName val="NavCompanion"/>
+      <sheetName val="Notifications"/>
+      <sheetName val="PushNotifications"/>
+      <sheetName val="Profiles"/>
+      <sheetName val="TextStrings"/>
+      <sheetName val="PrivacyMode(App)"/>
+      <sheetName val="RemoteParkAssist"/>
+      <sheetName val="VehicleTrackingSystem"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>DemoMode</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Customer_Enrollment</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>App_Registration_Pages-IDK</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Add_VIN</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>MyBentleyAppLogin</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Nickname</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>License(App)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>VehicleStatusReport</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>RemoteLockUnlock</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>SingleServiceActivation</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>PHEV-MyCarStatistics</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>PHEV-MyCabinComfort</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>PHEV-MyBatteryCharge</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>RoadsideAssistanceCall(App)</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>DataServices</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>TheftAlarm</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>Audials(App)</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>CarFinder</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>NavCompanion</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>Notifications</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>PushNotifications</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>Profiles</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>TextStrings</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>PrivacyMode(App)</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>RemoteParkAssist</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>VehicleTrackingSystem</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>Total Count</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="ChartBox"/>
+      <sheetName val="Change_History"/>
+      <sheetName val="DemoMode"/>
       <sheetName val="App_Registration_Pages-IDK"/>
       <sheetName val="Add_VIN"/>
       <sheetName val="MyBentleyAppLogin"/>
@@ -10226,211 +10431,6 @@
       <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="ChartBox"/>
-      <sheetName val="Change_History"/>
-      <sheetName val="DemoMode"/>
-      <sheetName val="Customer_Enrollment"/>
-      <sheetName val="App_Registration_Pages-IDK"/>
-      <sheetName val="Add_VIN"/>
-      <sheetName val="MyBentleyAppLogin"/>
-      <sheetName val="Nickname"/>
-      <sheetName val="License(App)"/>
-      <sheetName val="VehicleStatusReport"/>
-      <sheetName val="RemoteLockUnlock"/>
-      <sheetName val="SingleServiceActivation"/>
-      <sheetName val="PHEV-MyCarStatistics"/>
-      <sheetName val="PHEV-MyCabinComfort"/>
-      <sheetName val="PHEV-MyBatteryCharge"/>
-      <sheetName val="RoadsideAssistanceCall(App)"/>
-      <sheetName val="DataServices"/>
-      <sheetName val="TheftAlarm"/>
-      <sheetName val="Audials(App)"/>
-      <sheetName val="CarFinder"/>
-      <sheetName val="NavCompanion"/>
-      <sheetName val="Notifications"/>
-      <sheetName val="PushNotifications"/>
-      <sheetName val="Profiles"/>
-      <sheetName val="TextStrings"/>
-      <sheetName val="PrivacyMode(App)"/>
-      <sheetName val="RemoteParkAssist"/>
-      <sheetName val="VehicleTrackingSystem"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>DemoMode</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>Customer_Enrollment</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>App_Registration_Pages-IDK</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Add_VIN</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>MyBentleyAppLogin</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Nickname</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>License(App)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>VehicleStatusReport</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>RemoteLockUnlock</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>SingleServiceActivation</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>PHEV-MyCarStatistics</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>PHEV-MyCabinComfort</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>PHEV-MyBatteryCharge</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>RoadsideAssistanceCall(App)</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>DataServices</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>TheftAlarm</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Audials(App)</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>CarFinder</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>NavCompanion</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Notifications</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>PushNotifications</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Profiles</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>TextStrings</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>PrivacyMode(App)</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>RemoteParkAssist</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>VehicleTrackingSystem</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Total Count</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10729,7 +10729,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -11650,8 +11650,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -11670,8 +11670,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -12797,7 +12797,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -13729,7 +13729,7 @@
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -15581,7 +15581,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -15601,8 +15601,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -16557,7 +16557,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -16577,8 +16577,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18121,8 +18121,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18557,8 +18557,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="43" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="43" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="43" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="43" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -19020,7 +19020,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
@@ -19040,8 +19040,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -20102,7 +20102,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -20812,8 +20812,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -20832,8 +20832,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -23631,7 +23631,7 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -24319,7 +24319,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -24998,7 +24998,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -25018,8 +25018,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -25913,7 +25913,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -26503,7 +26503,7 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
@@ -27226,8 +27226,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -28452,8 +28452,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -28745,7 +28745,7 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:J5"/>
     </sheetView>
   </sheetViews>
@@ -29339,7 +29339,7 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
@@ -33033,7 +33033,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -34111,7 +34111,7 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -38377,7 +38377,7 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -38397,8 +38397,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -39612,7 +39612,7 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -39632,8 +39632,8 @@
     <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
     <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="46" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -40373,7 +40373,7 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -40393,8 +40393,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -41202,8 +41202,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -41222,8 +41222,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -41687,9 +41687,7 @@
       <c r="H11" s="53" t="inlineStr">
         <is>
           <t>• Ensure vehicle has some fuel in the tank.
-• Ignition off
-• Note the fuel gauge level in kombi. 
-• Note the range value in the kombi</t>
+• Ignition off</t>
         </is>
       </c>
       <c r="I11" s="53" t="inlineStr">
@@ -41740,9 +41738,7 @@
       <c r="H12" s="53" t="inlineStr">
         <is>
           <t>• Ensure vehicle has some fuel in the tank some charge in the PHEV/BEV traction battery.
-• Ignition off
-• Note the fuel level in the gauge in the kombi. 
-• Note the range value in the kombi</t>
+• Ignition off</t>
         </is>
       </c>
       <c r="I12" s="53" t="inlineStr">
@@ -41792,8 +41788,7 @@
       </c>
       <c r="H13" s="53" t="inlineStr">
         <is>
-          <t>• Ignition off
-• Note the mileage value in the kombi</t>
+          <t>• Ignition off</t>
         </is>
       </c>
       <c r="I13" s="53" t="inlineStr">
@@ -42804,8 +42799,7 @@
       <c r="H31" s="53" t="inlineStr">
         <is>
           <t>• Ignition is Off
-* Dashboard Lights Section status : 
-• Lights: On</t>
+* Dashboard Lights Section status : Lights: On</t>
         </is>
       </c>
       <c r="I31" s="53" t="inlineStr">
@@ -43108,8 +43102,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="30"/>
-    <col width="8.7109375" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
+    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>

--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" firstSheet="19" activeTab="29" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="779" firstSheet="19" activeTab="22" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -10733,22 +10733,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.28515625" customWidth="1" min="1" max="1"/>
-    <col width="6.85546875" customWidth="1" min="2" max="2"/>
-    <col width="16.28515625" customWidth="1" min="3" max="3"/>
-    <col width="14.42578125" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="37.28515625" customWidth="1" min="6" max="6"/>
-    <col width="48.5703125" customWidth="1" min="7" max="7"/>
-    <col width="55.140625" customWidth="1" min="8" max="8"/>
-    <col width="39.42578125" customWidth="1" min="9" max="9"/>
+    <col width="3.26953125" customWidth="1" min="1" max="1"/>
+    <col width="6.81640625" customWidth="1" min="2" max="2"/>
+    <col width="16.26953125" customWidth="1" min="3" max="3"/>
+    <col width="14.453125" customWidth="1" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="37.26953125" customWidth="1" min="6" max="6"/>
+    <col width="48.54296875" customWidth="1" min="7" max="7"/>
+    <col width="55.1796875" customWidth="1" min="8" max="8"/>
+    <col width="39.453125" customWidth="1" min="9" max="9"/>
     <col width="47" customWidth="1" min="10" max="10"/>
-    <col width="14.5703125" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="13.28515625" customWidth="1" min="14" max="14"/>
+    <col width="14.54296875" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="13.26953125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -11654,24 +11654,24 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="56.42578125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="54.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="56.453125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="54.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="17.54296875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -12801,22 +12801,22 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="2.85546875" customWidth="1" min="1" max="1"/>
-    <col width="6.140625" customWidth="1" style="12" min="2" max="2"/>
+    <col width="2.81640625" customWidth="1" min="1" max="1"/>
+    <col width="6.1796875" customWidth="1" style="12" min="2" max="2"/>
     <col width="19" customWidth="1" style="12" min="3" max="3"/>
-    <col width="24.85546875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
-    <col width="34.140625" customWidth="1" min="6" max="6"/>
-    <col width="46.140625" customWidth="1" min="7" max="7"/>
-    <col width="39.7109375" customWidth="1" min="8" max="8"/>
-    <col width="58.140625" customWidth="1" style="12" min="9" max="9"/>
-    <col width="61.28515625" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="17.7109375" customWidth="1" min="14" max="14"/>
+    <col width="24.81640625" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="34.1796875" customWidth="1" min="6" max="6"/>
+    <col width="46.1796875" customWidth="1" min="7" max="7"/>
+    <col width="39.7265625" customWidth="1" min="8" max="8"/>
+    <col width="58.1796875" customWidth="1" style="12" min="9" max="9"/>
+    <col width="61.26953125" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="17.7265625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -13733,22 +13733,22 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
-    <col width="7.140625" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
-    <col width="22.42578125" customWidth="1" style="12" min="3" max="3"/>
-    <col width="9.85546875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
-    <col width="52.140625" customWidth="1" min="6" max="6"/>
-    <col width="41.85546875" customWidth="1" min="7" max="7"/>
-    <col width="45.85546875" customWidth="1" min="8" max="8"/>
-    <col width="53.140625" customWidth="1" style="12" min="9" max="9"/>
-    <col width="47.140625" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="15.42578125" customWidth="1" min="14" max="14"/>
+    <col width="7.1796875" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="22.453125" customWidth="1" style="12" min="3" max="3"/>
+    <col width="9.81640625" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="52.1796875" customWidth="1" min="6" max="6"/>
+    <col width="41.81640625" customWidth="1" min="7" max="7"/>
+    <col width="45.81640625" customWidth="1" min="8" max="8"/>
+    <col width="53.1796875" customWidth="1" style="12" min="9" max="9"/>
+    <col width="47.1796875" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="15.453125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -15585,24 +15585,24 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="6.140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="21.85546875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="18.42578125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="68.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="43.7109375" customWidth="1" style="2" min="7" max="7"/>
-    <col width="50.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.85546875" customWidth="1" style="1" min="9" max="9"/>
-    <col width="53.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="2.453125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="6.1796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="21.81640625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="18.453125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="68.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="43.7265625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="50.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.81640625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="53.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="16.81640625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -16561,24 +16561,24 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.140625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.1796875" customWidth="1" style="2" min="8" max="8"/>
     <col width="63" customWidth="1" style="1" min="9" max="9"/>
-    <col width="49.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="49.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.81640625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -17493,20 +17493,20 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="2.85546875" customWidth="1" min="1" max="1"/>
+    <col width="2.81640625" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="42.85546875" customWidth="1" min="6" max="6"/>
-    <col width="47.5703125" customWidth="1" min="7" max="7"/>
-    <col width="38.85546875" customWidth="1" min="8" max="8"/>
-    <col width="37.42578125" customWidth="1" min="9" max="9"/>
-    <col width="50.85546875" customWidth="1" min="10" max="10"/>
-    <col width="17.5703125" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="18.140625" customWidth="1" min="14" max="14"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="42.81640625" customWidth="1" min="6" max="6"/>
+    <col width="47.54296875" customWidth="1" min="7" max="7"/>
+    <col width="38.81640625" customWidth="1" min="8" max="8"/>
+    <col width="37.453125" customWidth="1" min="9" max="9"/>
+    <col width="50.81640625" customWidth="1" min="10" max="10"/>
+    <col width="17.54296875" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="18.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -18105,24 +18105,24 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="56.42578125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="45.7109375" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="56.453125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="45.7265625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="20.453125" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18541,24 +18541,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="80" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="43" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="43" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="44" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
-    <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="43" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="43" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="43" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="80" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="43" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="43" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="44" min="9" max="9"/>
+    <col width="47.81640625" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
+    <col width="16.54296875" customWidth="1" style="43" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="43" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="43" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -19024,24 +19024,24 @@
       <selection activeCell="J5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.7109375" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.7265625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.1796875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -20106,21 +20106,21 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.28515625" customWidth="1" min="1" max="1"/>
-    <col width="6.5703125" customWidth="1" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" min="3" max="3"/>
-    <col width="13.28515625" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="47.7109375" customWidth="1" min="6" max="6"/>
-    <col width="44.28515625" customWidth="1" min="7" max="7"/>
-    <col width="49.140625" customWidth="1" min="8" max="8"/>
-    <col width="47.140625" customWidth="1" min="9" max="10"/>
-    <col width="16.85546875" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="15.85546875" customWidth="1" min="14" max="14"/>
+    <col width="3.26953125" customWidth="1" min="1" max="1"/>
+    <col width="6.54296875" customWidth="1" min="2" max="2"/>
+    <col width="9.1796875" customWidth="1" min="3" max="3"/>
+    <col width="13.26953125" customWidth="1" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="47.7265625" customWidth="1" min="6" max="6"/>
+    <col width="44.26953125" customWidth="1" min="7" max="7"/>
+    <col width="49.1796875" customWidth="1" min="8" max="8"/>
+    <col width="47.1796875" customWidth="1" min="9" max="10"/>
+    <col width="16.81640625" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="15.81640625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -20816,24 +20816,24 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
     <col width="19" customWidth="1" style="80" min="3" max="3"/>
-    <col width="18.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="43" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="43" min="7" max="7"/>
-    <col width="78.28515625" customWidth="1" style="43" min="8" max="8"/>
-    <col width="52.28515625" customWidth="1" style="44" min="9" max="9"/>
-    <col width="43.5703125" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
-    <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
+    <col width="18.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="43" min="7" max="7"/>
+    <col width="78.26953125" customWidth="1" style="43" min="8" max="8"/>
+    <col width="52.26953125" customWidth="1" style="44" min="9" max="9"/>
+    <col width="43.54296875" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
+    <col width="18.7265625" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -23635,21 +23635,21 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="42.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.42578125" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="42.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.453125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -24012,21 +24012,21 @@
       <selection activeCell="E16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
     <col width="47" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.85546875" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.81640625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -24323,20 +24323,20 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="2" customWidth="1" min="1" max="1"/>
-    <col width="16.140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.140625" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
+    <col width="16.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.1796875" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
     <col width="44" customWidth="1" style="12" min="6" max="6"/>
-    <col width="51.85546875" customWidth="1" style="12" min="7" max="7"/>
-    <col width="41.5703125" customWidth="1" style="12" min="8" max="8"/>
+    <col width="51.81640625" customWidth="1" style="12" min="7" max="7"/>
+    <col width="41.54296875" customWidth="1" style="12" min="8" max="8"/>
     <col width="45" customWidth="1" style="12" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="12" min="10" max="10"/>
+    <col width="47.81640625" customWidth="1" style="12" min="10" max="10"/>
     <col width="14" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -24998,28 +24998,28 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="57.7109375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="54.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.140625" customWidth="1" style="2" min="8" max="8"/>
-    <col width="60.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="48.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="57.7265625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="54.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.1796875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="60.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="48.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.453125" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -25917,21 +25917,21 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="67.85546875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="67.81640625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
     <col width="46" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.140625" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -26507,21 +26507,21 @@
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="40.7109375" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.28515625" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="40.7265625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.26953125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -27230,22 +27230,22 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="3.28515625" customWidth="1" min="1" max="1"/>
-    <col width="6.85546875" customWidth="1" min="2" max="2"/>
-    <col width="20.5703125" customWidth="1" min="3" max="3"/>
-    <col width="13.42578125" customWidth="1" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
-    <col width="37.28515625" customWidth="1" min="6" max="6"/>
-    <col width="48.5703125" customWidth="1" min="7" max="7"/>
-    <col width="55.140625" customWidth="1" min="8" max="8"/>
-    <col width="36.7109375" customWidth="1" min="9" max="9"/>
-    <col width="50.28515625" customWidth="1" min="10" max="10"/>
-    <col width="14.5703125" customWidth="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="17.7109375" customWidth="1" min="14" max="14"/>
+    <col width="3.26953125" customWidth="1" min="1" max="1"/>
+    <col width="6.81640625" customWidth="1" min="2" max="2"/>
+    <col width="20.54296875" customWidth="1" min="3" max="3"/>
+    <col width="13.453125" customWidth="1" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
+    <col width="37.26953125" customWidth="1" min="6" max="6"/>
+    <col width="48.54296875" customWidth="1" min="7" max="7"/>
+    <col width="55.1796875" customWidth="1" min="8" max="8"/>
+    <col width="36.7265625" customWidth="1" min="9" max="9"/>
+    <col width="50.26953125" customWidth="1" min="10" max="10"/>
+    <col width="14.54296875" customWidth="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="17.7265625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -28436,24 +28436,24 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="80" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="43" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="43" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="44" min="9" max="9"/>
-    <col width="42.28515625" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="80" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="43" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="43" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="44" min="9" max="9"/>
+    <col width="42.26953125" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -28749,21 +28749,21 @@
       <selection activeCell="F5" sqref="F5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="90.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.28515625" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="90.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.81640625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.26953125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -29343,21 +29343,21 @@
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="28.5703125" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="40.42578125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.85546875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="28.54296875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="40.453125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.81640625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
     <col width="41" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.140625" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -33037,21 +33037,21 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="78.28515625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="78.26953125" customWidth="1" style="2" min="8" max="8"/>
     <col width="57" customWidth="1" style="1" min="9" max="9"/>
     <col width="45" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.140625" customWidth="1" min="14" max="14"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.1796875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -34111,25 +34111,25 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="11.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="15.5703125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="15.54296875" customWidth="1" style="36" min="5" max="5"/>
     <col width="86" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
     <col width="65" customWidth="1" style="2" min="8" max="8"/>
-    <col width="58.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="49.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="17.42578125" customWidth="1" min="14" max="14"/>
+    <col width="58.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="49.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="17.453125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -38381,24 +38381,24 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
     <col width="19" customWidth="1" style="80" min="3" max="3"/>
-    <col width="18.5703125" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
-    <col width="60.140625" customWidth="1" style="43" min="6" max="6"/>
-    <col width="48.85546875" customWidth="1" style="43" min="7" max="7"/>
-    <col width="85.5703125" customWidth="1" style="43" min="8" max="8"/>
+    <col width="18.54296875" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
+    <col width="60.1796875" customWidth="1" style="43" min="6" max="6"/>
+    <col width="48.81640625" customWidth="1" style="43" min="7" max="7"/>
+    <col width="85.54296875" customWidth="1" style="43" min="8" max="8"/>
     <col width="63" customWidth="1" style="44" min="9" max="9"/>
-    <col width="38.140625" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
-    <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
+    <col width="38.1796875" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
+    <col width="15.54296875" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -39029,21 +39029,21 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="10.28515625" customWidth="1" style="12" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="12" min="3" max="3"/>
-    <col width="15.42578125" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
-    <col width="52.7109375" customWidth="1" min="6" max="6"/>
-    <col width="51.140625" customWidth="1" min="7" max="7"/>
-    <col width="55.85546875" customWidth="1" min="8" max="8"/>
-    <col width="58.140625" customWidth="1" style="12" min="9" max="9"/>
-    <col width="45.140625" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" min="13" max="13"/>
-    <col width="17.85546875" customWidth="1" min="14" max="14"/>
+    <col width="10.26953125" customWidth="1" style="12" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="12" min="3" max="3"/>
+    <col width="15.453125" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="52.7265625" customWidth="1" min="6" max="6"/>
+    <col width="51.1796875" customWidth="1" min="7" max="7"/>
+    <col width="55.81640625" customWidth="1" min="8" max="8"/>
+    <col width="58.1796875" customWidth="1" style="12" min="9" max="9"/>
+    <col width="45.1796875" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="17.81640625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -39616,24 +39616,24 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="65" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="65" min="3" max="3"/>
-    <col width="15.42578125" customWidth="1" style="65" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="66" min="5" max="5"/>
-    <col width="52.7109375" customWidth="1" style="46" min="6" max="6"/>
-    <col width="51.140625" customWidth="1" style="46" min="7" max="7"/>
-    <col width="55.85546875" customWidth="1" style="46" min="8" max="8"/>
-    <col width="58.140625" customWidth="1" style="65" min="9" max="9"/>
-    <col width="43.42578125" customWidth="1" style="65" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="65" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
-    <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="46" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="65" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="65" min="3" max="3"/>
+    <col width="15.453125" customWidth="1" style="65" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="66" min="5" max="5"/>
+    <col width="52.7265625" customWidth="1" style="46" min="6" max="6"/>
+    <col width="51.1796875" customWidth="1" style="46" min="7" max="7"/>
+    <col width="55.81640625" customWidth="1" style="46" min="8" max="8"/>
+    <col width="58.1796875" customWidth="1" style="65" min="9" max="9"/>
+    <col width="43.453125" customWidth="1" style="65" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="65" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="46" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="46" min="13" max="13"/>
+    <col width="14.81640625" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -39764,7 +39764,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="89.45" customHeight="1">
+    <row r="5" ht="89.5" customHeight="1">
       <c r="A5" s="43" t="n"/>
       <c r="B5" s="127" t="n">
         <v>1</v>
@@ -40377,24 +40377,24 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="25.42578125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="61.42578125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.85546875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="25.453125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="61.453125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.81640625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.81640625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -41206,24 +41206,24 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.1796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
     <col width="24" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="69.85546875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="36.85546875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="61.5703125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="66.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="48.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="11.140625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="69.81640625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="36.81640625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="61.54296875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="66.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="48.1796875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="14.7265625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -43086,24 +43086,24 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="17.5703125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
-    <col width="65.5703125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="40.28515625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="53.85546875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="66.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="46.28515625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
-    <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="32"/>
-    <col width="8.7109375" customWidth="1" style="2" min="33" max="16384"/>
+    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.1796875" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="17.54296875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
+    <col width="65.54296875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="40.26953125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="53.81640625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="66.453125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="46.26953125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="11.26953125" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
+    <col width="14.1796875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
+    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>

--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="779" firstSheet="19" activeTab="22" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="0" windowWidth="22470" windowHeight="15585" tabRatio="779" firstSheet="19" activeTab="22" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -10733,22 +10733,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="3.26953125" customWidth="1" min="1" max="1"/>
-    <col width="6.81640625" customWidth="1" min="2" max="2"/>
-    <col width="16.26953125" customWidth="1" min="3" max="3"/>
-    <col width="14.453125" customWidth="1" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="37.26953125" customWidth="1" min="6" max="6"/>
-    <col width="48.54296875" customWidth="1" min="7" max="7"/>
-    <col width="55.1796875" customWidth="1" min="8" max="8"/>
-    <col width="39.453125" customWidth="1" min="9" max="9"/>
+    <col width="3.28515625" customWidth="1" min="1" max="1"/>
+    <col width="6.85546875" customWidth="1" min="2" max="2"/>
+    <col width="16.28515625" customWidth="1" min="3" max="3"/>
+    <col width="14.42578125" customWidth="1" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
+    <col width="37.28515625" customWidth="1" min="6" max="6"/>
+    <col width="48.5703125" customWidth="1" min="7" max="7"/>
+    <col width="55.140625" customWidth="1" min="8" max="8"/>
+    <col width="39.42578125" customWidth="1" min="9" max="9"/>
     <col width="47" customWidth="1" min="10" max="10"/>
-    <col width="14.54296875" customWidth="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="13.26953125" customWidth="1" min="14" max="14"/>
+    <col width="14.5703125" customWidth="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="13.28515625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -11654,24 +11654,24 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="56.453125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="54.1796875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="17.54296875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="56.42578125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="54.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -12801,22 +12801,22 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="2.81640625" customWidth="1" min="1" max="1"/>
-    <col width="6.1796875" customWidth="1" style="12" min="2" max="2"/>
+    <col width="2.85546875" customWidth="1" min="1" max="1"/>
+    <col width="6.140625" customWidth="1" style="12" min="2" max="2"/>
     <col width="19" customWidth="1" style="12" min="3" max="3"/>
-    <col width="24.81640625" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
-    <col width="34.1796875" customWidth="1" min="6" max="6"/>
-    <col width="46.1796875" customWidth="1" min="7" max="7"/>
-    <col width="39.7265625" customWidth="1" min="8" max="8"/>
-    <col width="58.1796875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="61.26953125" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="17.7265625" customWidth="1" min="14" max="14"/>
+    <col width="24.85546875" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
+    <col width="34.140625" customWidth="1" min="6" max="6"/>
+    <col width="46.140625" customWidth="1" min="7" max="7"/>
+    <col width="39.7109375" customWidth="1" min="8" max="8"/>
+    <col width="58.140625" customWidth="1" style="12" min="9" max="9"/>
+    <col width="61.28515625" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="17.7109375" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -13733,22 +13733,22 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
-    <col width="7.1796875" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
-    <col width="22.453125" customWidth="1" style="12" min="3" max="3"/>
-    <col width="9.81640625" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
-    <col width="52.1796875" customWidth="1" min="6" max="6"/>
-    <col width="41.81640625" customWidth="1" min="7" max="7"/>
-    <col width="45.81640625" customWidth="1" min="8" max="8"/>
-    <col width="53.1796875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="47.1796875" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="15.453125" customWidth="1" min="14" max="14"/>
+    <col width="7.140625" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="22.42578125" customWidth="1" style="12" min="3" max="3"/>
+    <col width="9.85546875" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
+    <col width="52.140625" customWidth="1" min="6" max="6"/>
+    <col width="41.85546875" customWidth="1" min="7" max="7"/>
+    <col width="45.85546875" customWidth="1" min="8" max="8"/>
+    <col width="53.140625" customWidth="1" style="12" min="9" max="9"/>
+    <col width="47.140625" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="15.42578125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -15581,28 +15581,28 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="2.453125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="6.1796875" customWidth="1" style="2" min="2" max="2"/>
-    <col width="21.81640625" customWidth="1" style="8" min="3" max="3"/>
-    <col width="18.453125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="68.1796875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="43.7265625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="50.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.81640625" customWidth="1" style="1" min="9" max="9"/>
-    <col width="53.1796875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="16.81640625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="6.140625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="21.85546875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="18.42578125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="68.140625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="43.7109375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="50.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.85546875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="53.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -16561,24 +16561,24 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="60.1796875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="48.81640625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.1796875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="60.140625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="48.85546875" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.140625" customWidth="1" style="2" min="8" max="8"/>
     <col width="63" customWidth="1" style="1" min="9" max="9"/>
-    <col width="49.1796875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.81640625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="49.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -17489,24 +17489,24 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="2.81640625" customWidth="1" min="1" max="1"/>
+    <col width="2.85546875" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="42.81640625" customWidth="1" min="6" max="6"/>
-    <col width="47.54296875" customWidth="1" min="7" max="7"/>
-    <col width="38.81640625" customWidth="1" min="8" max="8"/>
-    <col width="37.453125" customWidth="1" min="9" max="9"/>
-    <col width="50.81640625" customWidth="1" min="10" max="10"/>
-    <col width="17.54296875" customWidth="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="18.1796875" customWidth="1" min="14" max="14"/>
+    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
+    <col width="42.85546875" customWidth="1" min="6" max="6"/>
+    <col width="47.5703125" customWidth="1" min="7" max="7"/>
+    <col width="38.85546875" customWidth="1" min="8" max="8"/>
+    <col width="37.42578125" customWidth="1" min="9" max="9"/>
+    <col width="50.85546875" customWidth="1" min="10" max="10"/>
+    <col width="17.5703125" customWidth="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="18.140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -18105,24 +18105,24 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="56.453125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="45.7265625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="20.453125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="56.42578125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="45.7109375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18541,24 +18541,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="43" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="80" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="43" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="44" min="9" max="9"/>
-    <col width="47.81640625" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
-    <col width="16.54296875" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="43" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="43" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="43" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="80" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="43" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="43" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="43" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="44" min="9" max="9"/>
+    <col width="47.85546875" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
+    <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="43" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="43" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -19024,24 +19024,24 @@
       <selection activeCell="J5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.7265625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.1796875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.7109375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -20106,21 +20106,21 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="3.26953125" customWidth="1" min="1" max="1"/>
-    <col width="6.54296875" customWidth="1" min="2" max="2"/>
-    <col width="9.1796875" customWidth="1" min="3" max="3"/>
-    <col width="13.26953125" customWidth="1" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="47.7265625" customWidth="1" min="6" max="6"/>
-    <col width="44.26953125" customWidth="1" min="7" max="7"/>
-    <col width="49.1796875" customWidth="1" min="8" max="8"/>
-    <col width="47.1796875" customWidth="1" min="9" max="10"/>
-    <col width="16.81640625" customWidth="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="15.81640625" customWidth="1" min="14" max="14"/>
+    <col width="3.28515625" customWidth="1" min="1" max="1"/>
+    <col width="6.5703125" customWidth="1" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" min="3" max="3"/>
+    <col width="13.28515625" customWidth="1" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
+    <col width="47.7109375" customWidth="1" min="6" max="6"/>
+    <col width="44.28515625" customWidth="1" min="7" max="7"/>
+    <col width="49.140625" customWidth="1" min="8" max="8"/>
+    <col width="47.140625" customWidth="1" min="9" max="10"/>
+    <col width="16.85546875" customWidth="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="15.85546875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -20816,24 +20816,24 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
+    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
     <col width="19" customWidth="1" style="80" min="3" max="3"/>
-    <col width="18.54296875" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
-    <col width="60.1796875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="48.81640625" customWidth="1" style="43" min="7" max="7"/>
-    <col width="78.26953125" customWidth="1" style="43" min="8" max="8"/>
-    <col width="52.26953125" customWidth="1" style="44" min="9" max="9"/>
-    <col width="43.54296875" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
-    <col width="18.7265625" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
+    <col width="18.5703125" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
+    <col width="60.140625" customWidth="1" style="43" min="6" max="6"/>
+    <col width="48.85546875" customWidth="1" style="43" min="7" max="7"/>
+    <col width="78.28515625" customWidth="1" style="43" min="8" max="8"/>
+    <col width="52.28515625" customWidth="1" style="44" min="9" max="9"/>
+    <col width="43.5703125" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
+    <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="46" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -23635,21 +23635,21 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="42.1796875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.453125" customWidth="1" min="14" max="14"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="42.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.42578125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -24012,21 +24012,21 @@
       <selection activeCell="E16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
     <col width="47" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.81640625" customWidth="1" min="14" max="14"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.85546875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -24323,20 +24323,20 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col width="2" customWidth="1" min="1" max="1"/>
-    <col width="16.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.1796875" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
+    <col width="16.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.140625" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
     <col width="44" customWidth="1" style="12" min="6" max="6"/>
-    <col width="51.81640625" customWidth="1" style="12" min="7" max="7"/>
-    <col width="41.54296875" customWidth="1" style="12" min="8" max="8"/>
+    <col width="51.85546875" customWidth="1" style="12" min="7" max="7"/>
+    <col width="41.5703125" customWidth="1" style="12" min="8" max="8"/>
     <col width="45" customWidth="1" style="12" min="9" max="9"/>
-    <col width="47.81640625" customWidth="1" style="12" min="10" max="10"/>
+    <col width="47.85546875" customWidth="1" style="12" min="10" max="10"/>
     <col width="14" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
     <col width="16" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -24998,28 +24998,28 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="57.7265625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="54.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.1796875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="60.453125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="48.1796875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.453125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="57.7109375" customWidth="1" style="2" min="6" max="6"/>
+    <col width="54.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.140625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="60.42578125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="48.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -25917,21 +25917,21 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="67.81640625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="67.85546875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
     <col width="46" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.1796875" customWidth="1" min="14" max="14"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -26503,25 +26503,25 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="40.7265625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.26953125" customWidth="1" min="14" max="14"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="40.7109375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.28515625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -27226,26 +27226,26 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="3.26953125" customWidth="1" min="1" max="1"/>
-    <col width="6.81640625" customWidth="1" min="2" max="2"/>
-    <col width="20.54296875" customWidth="1" min="3" max="3"/>
-    <col width="13.453125" customWidth="1" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="32" min="5" max="5"/>
-    <col width="37.26953125" customWidth="1" min="6" max="6"/>
-    <col width="48.54296875" customWidth="1" min="7" max="7"/>
-    <col width="55.1796875" customWidth="1" min="8" max="8"/>
-    <col width="36.7265625" customWidth="1" min="9" max="9"/>
-    <col width="50.26953125" customWidth="1" min="10" max="10"/>
-    <col width="14.54296875" customWidth="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="17.7265625" customWidth="1" min="14" max="14"/>
+    <col width="3.28515625" customWidth="1" min="1" max="1"/>
+    <col width="6.85546875" customWidth="1" min="2" max="2"/>
+    <col width="20.5703125" customWidth="1" min="3" max="3"/>
+    <col width="13.42578125" customWidth="1" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="32" min="5" max="5"/>
+    <col width="37.28515625" customWidth="1" min="6" max="6"/>
+    <col width="48.5703125" customWidth="1" min="7" max="7"/>
+    <col width="55.140625" customWidth="1" min="8" max="8"/>
+    <col width="36.7109375" customWidth="1" min="9" max="9"/>
+    <col width="50.28515625" customWidth="1" min="10" max="10"/>
+    <col width="14.5703125" customWidth="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="17.7109375" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
@@ -28436,24 +28436,24 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="80" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="43" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="44" min="9" max="9"/>
-    <col width="42.26953125" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
+    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="80" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="43" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="43" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="43" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="44" min="9" max="9"/>
+    <col width="42.28515625" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="46" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -28749,21 +28749,21 @@
       <selection activeCell="F5" sqref="F5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="90.1796875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="58.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.81640625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.26953125" customWidth="1" min="14" max="14"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="90.140625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="58.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.85546875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.28515625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -29343,21 +29343,21 @@
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="28.54296875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="40.453125" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="60.81640625" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="28.5703125" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="40.42578125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="60.85546875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
     <col width="41" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.1796875" customWidth="1" min="14" max="14"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -33037,21 +33037,21 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="60.1796875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="48.81640625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="78.26953125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="60.140625" customWidth="1" style="2" min="6" max="6"/>
+    <col width="48.85546875" customWidth="1" style="2" min="7" max="7"/>
+    <col width="78.28515625" customWidth="1" style="2" min="8" max="8"/>
     <col width="57" customWidth="1" style="1" min="9" max="9"/>
     <col width="45" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="16.1796875" customWidth="1" min="14" max="14"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="16.140625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -34115,21 +34115,21 @@
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="11.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="14.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="15.54296875" customWidth="1" style="36" min="5" max="5"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="11.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="15.5703125" customWidth="1" style="36" min="5" max="5"/>
     <col width="86" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
     <col width="65" customWidth="1" style="2" min="8" max="8"/>
-    <col width="58.453125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="49.1796875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="17.453125" customWidth="1" min="14" max="14"/>
+    <col width="58.42578125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="49.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="17.42578125" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -38381,24 +38381,24 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="43" min="2" max="2"/>
+    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="43" min="2" max="2"/>
     <col width="19" customWidth="1" style="80" min="3" max="3"/>
-    <col width="18.54296875" customWidth="1" style="43" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="81" min="5" max="5"/>
-    <col width="60.1796875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="48.81640625" customWidth="1" style="43" min="7" max="7"/>
-    <col width="85.54296875" customWidth="1" style="43" min="8" max="8"/>
+    <col width="18.5703125" customWidth="1" style="43" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="81" min="5" max="5"/>
+    <col width="60.140625" customWidth="1" style="43" min="6" max="6"/>
+    <col width="48.85546875" customWidth="1" style="43" min="7" max="7"/>
+    <col width="85.5703125" customWidth="1" style="43" min="8" max="8"/>
     <col width="63" customWidth="1" style="44" min="9" max="9"/>
-    <col width="38.1796875" customWidth="1" style="44" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="44" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="43" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="43" min="13" max="13"/>
-    <col width="15.54296875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
+    <col width="38.140625" customWidth="1" style="44" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="44" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
+    <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="46" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -39029,21 +39029,21 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="10.26953125" customWidth="1" style="12" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="12" min="3" max="3"/>
-    <col width="15.453125" customWidth="1" style="12" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="39" min="5" max="5"/>
-    <col width="52.7265625" customWidth="1" min="6" max="6"/>
-    <col width="51.1796875" customWidth="1" min="7" max="7"/>
-    <col width="55.81640625" customWidth="1" min="8" max="8"/>
-    <col width="58.1796875" customWidth="1" style="12" min="9" max="9"/>
-    <col width="45.1796875" customWidth="1" style="12" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="12" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" min="13" max="13"/>
-    <col width="17.81640625" customWidth="1" min="14" max="14"/>
+    <col width="10.28515625" customWidth="1" style="12" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="12" min="3" max="3"/>
+    <col width="15.42578125" customWidth="1" style="12" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="39" min="5" max="5"/>
+    <col width="52.7109375" customWidth="1" min="6" max="6"/>
+    <col width="51.140625" customWidth="1" min="7" max="7"/>
+    <col width="55.85546875" customWidth="1" min="8" max="8"/>
+    <col width="58.140625" customWidth="1" style="12" min="9" max="9"/>
+    <col width="45.140625" customWidth="1" style="12" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="12" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" min="13" max="13"/>
+    <col width="17.85546875" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -39616,24 +39616,24 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="46" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="65" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="65" min="3" max="3"/>
-    <col width="15.453125" customWidth="1" style="65" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="66" min="5" max="5"/>
-    <col width="52.7265625" customWidth="1" style="46" min="6" max="6"/>
-    <col width="51.1796875" customWidth="1" style="46" min="7" max="7"/>
-    <col width="55.81640625" customWidth="1" style="46" min="8" max="8"/>
-    <col width="58.1796875" customWidth="1" style="65" min="9" max="9"/>
-    <col width="43.453125" customWidth="1" style="65" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="65" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="46" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="46" min="13" max="13"/>
-    <col width="14.81640625" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="46" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="46" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="65" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="65" min="3" max="3"/>
+    <col width="15.42578125" customWidth="1" style="65" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="66" min="5" max="5"/>
+    <col width="52.7109375" customWidth="1" style="46" min="6" max="6"/>
+    <col width="51.140625" customWidth="1" style="46" min="7" max="7"/>
+    <col width="55.85546875" customWidth="1" style="46" min="8" max="8"/>
+    <col width="58.140625" customWidth="1" style="65" min="9" max="9"/>
+    <col width="43.42578125" customWidth="1" style="65" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="65" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
+    <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="46" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -39764,7 +39764,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="89.5" customHeight="1">
+    <row r="5" ht="89.45" customHeight="1">
       <c r="A5" s="43" t="n"/>
       <c r="B5" s="127" t="n">
         <v>1</v>
@@ -40377,24 +40377,24 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="10.26953125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="25.453125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="55.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="50.453125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="61.453125" customWidth="1" style="2" min="8" max="8"/>
-    <col width="56.26953125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="47.81640625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13.1796875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="15.81640625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="10.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="25.42578125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="55.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="50.42578125" customWidth="1" style="2" min="7" max="7"/>
+    <col width="61.42578125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
+    <col width="47.85546875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -41206,24 +41206,24 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.1796875" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
     <col width="24" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="69.81640625" customWidth="1" style="2" min="6" max="6"/>
-    <col width="36.81640625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="61.54296875" customWidth="1" style="2" min="8" max="8"/>
-    <col width="66.453125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="48.1796875" customWidth="1" style="1" min="10" max="10"/>
-    <col width="11.1796875" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="14.7265625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="69.85546875" customWidth="1" style="2" min="6" max="6"/>
+    <col width="36.85546875" customWidth="1" style="2" min="7" max="7"/>
+    <col width="61.5703125" customWidth="1" style="2" min="8" max="8"/>
+    <col width="66.42578125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="48.140625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -43086,24 +43086,24 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="9.1796875" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="17.54296875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.26953125" customWidth="1" style="36" min="5" max="5"/>
-    <col width="65.54296875" customWidth="1" style="2" min="6" max="6"/>
-    <col width="40.26953125" customWidth="1" style="2" min="7" max="7"/>
-    <col width="53.81640625" customWidth="1" style="2" min="8" max="8"/>
-    <col width="66.453125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="46.26953125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="11.26953125" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.453125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.81640625" customWidth="1" style="2" min="13" max="13"/>
-    <col width="14.1796875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7265625" customWidth="1" style="2" min="15" max="33"/>
-    <col width="8.7265625" customWidth="1" style="2" min="34" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="8" min="3" max="3"/>
+    <col width="17.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="36" min="5" max="5"/>
+    <col width="65.5703125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="40.28515625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="53.85546875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="66.42578125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="46.28515625" customWidth="1" style="1" min="10" max="10"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="36"/>
+    <col width="8.7109375" customWidth="1" style="2" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>

--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" firstSheet="9" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -12071,8 +12071,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -14015,8 +14015,8 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -14351,14 +14351,11 @@
       <c r="G8" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT )</t>
-        </is>
-      </c>
-      <c r="H8" s="53" t="inlineStr">
-        <is>
-          <t>• The vehicle should support rear seat heating</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT )
+• The vehicle should support rear seat heating</t>
+        </is>
+      </c>
+      <c r="H8" s="53" t="n"/>
       <c r="I8" s="53" t="inlineStr">
         <is>
           <t>In 'MY CABIN COMFORT', Go to 'Quick start' tab and enable 'Interior surface heating' option</t>
@@ -14379,7 +14376,7 @@
       <c r="M8" s="53" t="n"/>
       <c r="N8" s="72" t="n"/>
     </row>
-    <row r="9" ht="141.75" customHeight="1">
+    <row r="9" ht="160.5" customHeight="1">
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="50" t="n">
         <v>5</v>
@@ -14407,14 +14404,11 @@
       <c r="G9" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Quick start" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )</t>
-        </is>
-      </c>
-      <c r="H9" s="53" t="inlineStr">
-        <is>
-          <t>• The vehicle should support rear seat heating</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
+• The vehicle should support rear seat heating</t>
+        </is>
+      </c>
+      <c r="H9" s="53" t="n"/>
       <c r="I9" s="53" t="inlineStr">
         <is>
           <t>1. Try to set the Target Temperature Bar to some desired value in the range between 16degC to 26degC with 1degC increments / decrements</t>
@@ -14459,14 +14453,14 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Quick start" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
+• The vehicle should support rear seat heating
+• Make sure at least 30% of Fuel to be present in Fuel Tank
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
       <c r="H10" s="53" t="inlineStr">
         <is>
-          <t>• The vehicle should support rear seat heating
-• Make sure at least 30% of Fuel to be present in Fuel Tank
-• Vehicle Ignition = Off</t>
+          <t>• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="I10" s="53" t="inlineStr">
@@ -14531,14 +14525,14 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Quick start" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start ) 
+• The vehicle should support rear seat heating
+• Make sure at least 30% of Fuel to be present in Fuel Tank
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
       <c r="H11" s="53" t="inlineStr">
         <is>
-          <t>• The vehicle should support rear seat heating
-• Make sure at least 30% of Fuel to be present in Fuel Tank
-• Vehicle Ignition = Off</t>
+          <t>• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="I11" s="53" t="inlineStr">
@@ -14610,14 +14604,14 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Quick start" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
+• The vehicle should support rear seat heating
+• Make sure at least 30% of Fuel to be present in Fuel Tank
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
       <c r="H12" s="53" t="inlineStr">
         <is>
-          <t>• The vehicle should support rear seat heating
-• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="I12" s="53" t="inlineStr">
@@ -14689,14 +14683,14 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Quick start" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
+• The vehicle should support rear seat heating
+• Make sure at least 30% of Fuel to be present in Fuel Tank
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
       <c r="H13" s="53" t="inlineStr">
         <is>
-          <t>• The vehicle should support rear seat heating
-• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="I13" s="53" t="inlineStr">
@@ -14768,14 +14762,14 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Quick start" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
+• The vehicle should support rear seat heating
+• Make sure at least 30% of Fuel to be present in Fuel Tank
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
       <c r="H14" s="53" t="inlineStr">
         <is>
-          <t>• The vehicle should support rear seat heating
-• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="I14" s="53" t="inlineStr">
@@ -14846,15 +14840,15 @@
       <c r="G15" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Quick start" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start ) 
+• The vehicle should support rear seat heating
+• Make sure at least 30% of Fuel to be present in Fuel Tank
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
       <c r="H15" s="53" t="inlineStr">
         <is>
-          <t>• The vehicle should support rear seat heating
-• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="I15" s="53" t="inlineStr">
@@ -14904,7 +14898,7 @@
       <c r="M15" s="53" t="n"/>
       <c r="N15" s="72" t="n"/>
     </row>
-    <row r="16" ht="189" customHeight="1">
+    <row r="16" ht="212.25" customHeight="1">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="50" t="n">
         <v>12</v>
@@ -14933,14 +14927,14 @@
         <is>
           <t>• "MY CABIN COMFORT" is active
 • The screen focus is in "MY CABIN COMFORT - Quick start" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
+• The vehicle should support rear seat heating
+• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="H16" s="53" t="inlineStr">
         <is>
-          <t>• The vehicle should support rear seat heating
-• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank
+          <t>• Vehicle Ignition = Off
 • Interior surface heating = On
 • 'Front Driver Seat Heating' = Active
 • 'Front Passenger Seat Heating' = Active
@@ -15046,14 +15040,11 @@
       <c r="G18" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )</t>
-        </is>
-      </c>
-      <c r="H18" s="53" t="inlineStr">
-        <is>
-          <t>• The vehicle should support rear seat heating</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
+• The vehicle should support rear seat heating</t>
+        </is>
+      </c>
+      <c r="H18" s="53" t="n"/>
       <c r="I18" s="53" t="inlineStr">
         <is>
           <t>In 'MY CABIN COMFORT - Set timer' tab , Click on 'SETTINGS' &amp; Observe</t>
@@ -15106,13 +15097,13 @@
       <c r="G19" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
+• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="H19" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Ignition = Off</t>
         </is>
       </c>
       <c r="I19" s="53" t="inlineStr">
@@ -15176,13 +15167,13 @@
       <c r="G20" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
+• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="H20" s="53" t="inlineStr">
         <is>
           <t>• Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank
 • Make sure particular Seat Heating / Cooling is selected(Ex : Front Driver Seat , Front Passenger Seat , Rear Passenger Seats ....etc.)</t>
         </is>
       </c>
@@ -15523,7 +15514,7 @@
       <c r="M25" s="53" t="n"/>
       <c r="N25" s="134" t="n"/>
     </row>
-    <row r="26" ht="141.75" customHeight="1">
+    <row r="26" ht="165.75" customHeight="1">
       <c r="B26" s="50" t="n">
         <v>22</v>
       </c>
@@ -15550,13 +15541,13 @@
       <c r="G26" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
+• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="H26" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Ignition = Off</t>
         </is>
       </c>
       <c r="I26" s="53" t="inlineStr">
@@ -15610,13 +15601,13 @@
       <c r="G27" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
+• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="H27" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Ignition = Off</t>
         </is>
       </c>
       <c r="I27" s="53" t="inlineStr">
@@ -15836,8 +15827,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -16743,8 +16734,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18287,8 +18278,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -18723,8 +18714,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="43" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="43" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="43" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="43" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -19206,8 +19197,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -20978,7 +20969,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -20998,8 +20989,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="46" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -25071,8 +25062,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -28505,8 +28496,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="46" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -38844,8 +38835,8 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="46" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -40074,8 +40065,8 @@
     <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
     <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="46" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -40835,8 +40826,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -41652,8 +41643,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
@@ -43546,8 +43537,8 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="44"/>
-    <col width="8.7109375" customWidth="1" style="2" min="45" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
+    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>

--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" firstSheet="19" activeTab="29" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -621,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1235,9 +1235,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1274,11 +1271,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1336,7 +1333,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="542">
+  <dxfs count="533">
     <dxf>
       <font>
         <b val="1"/>
@@ -1794,49 +1791,6 @@
     <dxf>
       <font>
         <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
         <strike val="0"/>
         <color theme="1"/>
       </font>
@@ -1849,6 +1803,104 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <strike val="0"/>
         <color theme="1"/>
       </font>
@@ -1861,11 +1913,128 @@
     <dxf>
       <font>
         <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color theme="2" tint="-0.749961851863155"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1876,7 +2045,93 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1888,60 +2143,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1993,6 +2194,17 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -2003,6 +2215,40 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -2012,249 +2258,33 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2273,6 +2303,38 @@
     <dxf>
       <font>
         <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -2289,81 +2351,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2393,60 +2380,6 @@
     <dxf>
       <font>
         <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -2470,11 +2403,162 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2493,28 +2577,6 @@
     <dxf>
       <font>
         <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -3003,81 +3065,6 @@
     <dxf>
       <font>
         <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -3155,6 +3142,81 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -3384,81 +3446,6 @@
     <dxf>
       <font>
         <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -3536,6 +3523,81 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.3499862666707358"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -3672,168 +3734,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.3499862666707358"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11131,7 +11031,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -11154,45 +11054,45 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Demo Mode</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • My Bentley App must be installed in the mobile phone successfully.</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -12051,7 +11951,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -12071,39 +11971,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Remote Honk &amp; Flash</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -12114,13 +12014,13 @@
 • Ignition = OFF &amp; Engine = OFF</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -13198,7 +13098,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -13236,34 +13136,34 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n"/>
-      <c r="B2" s="232" t="inlineStr">
+      <c r="B2" s="231" t="inlineStr">
         <is>
           <t>My Car Statistics</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="233" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="232" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n"/>
-      <c r="B3" s="234" t="inlineStr">
+      <c r="B3" s="233" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="226" t="n"/>
-      <c r="D3" s="234" t="n"/>
+      <c r="C3" s="225" t="n"/>
+      <c r="D3" s="233" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • This service applicable for only on PHEV models
@@ -13276,13 +13176,13 @@
 </t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="inlineStr"/>
@@ -13976,7 +13876,7 @@
     <cfRule type="cellIs" priority="44" operator="equal" dxfId="9">
       <formula>"Not Applicable"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="45" operator="equal" dxfId="257">
+    <cfRule type="cellIs" priority="45" operator="equal" dxfId="248">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14015,8 +13915,8 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="E15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -14053,34 +13953,34 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n"/>
-      <c r="B2" s="232" t="inlineStr">
+      <c r="B2" s="231" t="inlineStr">
         <is>
           <t>My Cabin Comfort</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="233" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="232" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n"/>
-      <c r="B3" s="234" t="inlineStr">
+      <c r="B3" s="233" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="226" t="n"/>
-      <c r="D3" s="234" t="n"/>
+      <c r="C3" s="225" t="n"/>
+      <c r="D3" s="233" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before starting the testing of this service
 • This service applicable for only on PHEV models
@@ -14099,13 +13999,13 @@
 • Make sure that 'My cabin comfort' is not active </t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="inlineStr"/>
@@ -14455,14 +14355,11 @@
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
 • The vehicle should support rear seat heating
 • Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
-      <c r="H10" s="53" t="inlineStr">
-        <is>
-          <t>• Vehicle Ignition = Off</t>
-        </is>
-      </c>
+      <c r="H10" s="53" t="n"/>
       <c r="I10" s="53" t="inlineStr">
         <is>
           <t>1. Set the Target Temperature Bar to some desired value in the range between 16degC to 26degC with 1degC increments / decrements
@@ -14527,14 +14424,11 @@
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start ) 
 • The vehicle should support rear seat heating
 • Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
-      <c r="H11" s="53" t="inlineStr">
-        <is>
-          <t>• Vehicle Ignition = Off</t>
-        </is>
-      </c>
+      <c r="H11" s="53" t="n"/>
       <c r="I11" s="53" t="inlineStr">
         <is>
           <t>1. Set the Target Temperature Bar to some desired value in the range between 16degC to 24degC
@@ -14606,14 +14500,11 @@
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
 • The vehicle should support rear seat heating
 • Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
-      <c r="H12" s="53" t="inlineStr">
-        <is>
-          <t>• Vehicle Ignition = Off</t>
-        </is>
-      </c>
+      <c r="H12" s="53" t="n"/>
       <c r="I12" s="53" t="inlineStr">
         <is>
           <t>1. Set the Target Temperature Bar to some desired value in the range between 16degC to 24degC
@@ -14685,14 +14576,11 @@
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
 • The vehicle should support rear seat heating
 • Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
-      <c r="H13" s="53" t="inlineStr">
-        <is>
-          <t>• Vehicle Ignition = Off</t>
-        </is>
-      </c>
+      <c r="H13" s="53" t="n"/>
       <c r="I13" s="53" t="inlineStr">
         <is>
           <t>1. Set the Target Temperature Bar to some desired value in the range between 16degC to 24degC
@@ -14764,14 +14652,11 @@
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
 • The vehicle should support rear seat heating
 • Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
-      <c r="H14" s="53" t="inlineStr">
-        <is>
-          <t>• Vehicle Ignition = Off</t>
-        </is>
-      </c>
+      <c r="H14" s="53" t="n"/>
       <c r="I14" s="53" t="inlineStr">
         <is>
           <t>1. Set the Target Temperature Bar to some desired value in the range between 16degC to 24degC
@@ -14843,14 +14728,11 @@
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start ) 
 • The vehicle should support rear seat heating
 • Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF
 Note : "MY CABIN COMFORT" Quick start activates only for 30 mins</t>
         </is>
       </c>
-      <c r="H15" s="53" t="inlineStr">
-        <is>
-          <t>• Vehicle Ignition = Off</t>
-        </is>
-      </c>
+      <c r="H15" s="53" t="n"/>
       <c r="I15" s="53" t="inlineStr">
         <is>
           <t>1. Set the Target Temperature Bar to some desired value in the range between 16degC to 24degC
@@ -14898,7 +14780,7 @@
       <c r="M15" s="53" t="n"/>
       <c r="N15" s="72" t="n"/>
     </row>
-    <row r="16" ht="212.25" customHeight="1">
+    <row r="16" ht="229.5" customHeight="1">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="50" t="n">
         <v>12</v>
@@ -14929,13 +14811,13 @@
 • The screen focus is in "MY CABIN COMFORT - Quick start" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Quick start )
 • The vehicle should support rear seat heating
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H16" s="53" t="inlineStr">
         <is>
-          <t>• Vehicle Ignition = Off
-• Interior surface heating = On
+          <t>• Interior surface heating = On
 • 'Front Driver Seat Heating' = Active
 • 'Front Passenger Seat Heating' = Active
 • 'Rear Left Passenger Seat Heating' = Active
@@ -15098,14 +14980,11 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
-        </is>
-      </c>
-      <c r="H19" s="53" t="inlineStr">
-        <is>
-          <t>• Ignition = Off</t>
-        </is>
-      </c>
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF</t>
+        </is>
+      </c>
+      <c r="H19" s="53" t="n"/>
       <c r="I19" s="53" t="inlineStr">
         <is>
           <t>In 'Set timer' tab --&gt;Select future time(Timer-1 /  Timer-2) --&gt; Toggle Button = Enable --&gt; SYNC TO CAR 
@@ -15168,13 +15047,13 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H20" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• Make sure particular Seat Heating / Cooling is selected(Ex : Front Driver Seat , Front Passenger Seat , Rear Passenger Seats ....etc.)</t>
+          <t>• Make sure particular Seat Heating / Cooling is selected(Ex : Front Driver Seat , Front Passenger Seat , Rear Passenger Seats ....etc.)</t>
         </is>
       </c>
       <c r="I20" s="53" t="inlineStr">
@@ -15427,12 +15306,7 @@
 (HMI --&gt; Climate --&gt; "Climate" screen is launched --&gt; Select "Settings" button --&gt; "Climate - Settings" screen is launched --&gt; Select "Auxiliary Climate" --&gt; "Climate - Auxiliary climate" screen is launched)</t>
         </is>
       </c>
-      <c r="H24" s="53" t="inlineStr">
-        <is>
-          <t>• 'MY CABIN COMFORT' is active under 'Climate - Auxiliary climate' screen
-      i.e. 'Immediate Start' section should display some informative message (Ex : Auxiliary air conditioning active - Time Left(Ex : 30 min remainging))</t>
-        </is>
-      </c>
+      <c r="H24" s="53" t="n"/>
       <c r="I24" s="53" t="inlineStr">
         <is>
           <t>1. Click on 'Temperature - Icon' button under 'Immediate Start' section in 'Climate - Auxiliary Climate' screen
@@ -15481,12 +15355,7 @@
 (HMI --&gt; Climate --&gt; "Climate" screen is launched --&gt; Select "Settings" button --&gt; "Climate - Settings" screen is launched --&gt; Select "Auxiliary Climate" --&gt; "Climate - Auxiliary climate" screen is launched)</t>
         </is>
       </c>
-      <c r="H25" s="53" t="inlineStr">
-        <is>
-          <t>• Target temperature is already set in the range between 16degC to 26degC with 1degC increments / decrements under 'Target Temperature' section(Ex : 22degC)  from 'Climate - Settings' screen
-• The desired seat is already selected for Seat Heating under 'Convenience auxiliary climate' section(Ex : Front Right Seat Zone) from 'Climate - Settings' screen</t>
-        </is>
-      </c>
+      <c r="H25" s="53" t="n"/>
       <c r="I25" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Select either 'Timer-1' / 'Timer-2' under 'Timer Programming' section of 'Climate - Auxiliary climate' screen
@@ -15514,7 +15383,7 @@
       <c r="M25" s="53" t="n"/>
       <c r="N25" s="134" t="n"/>
     </row>
-    <row r="26" ht="165.75" customHeight="1">
+    <row r="26" ht="181.5" customHeight="1">
       <c r="B26" s="50" t="n">
         <v>22</v>
       </c>
@@ -15542,14 +15411,11 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
-        </is>
-      </c>
-      <c r="H26" s="53" t="inlineStr">
-        <is>
-          <t>• Ignition = Off</t>
-        </is>
-      </c>
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF</t>
+        </is>
+      </c>
+      <c r="H26" s="53" t="n"/>
       <c r="I26" s="53" t="inlineStr">
         <is>
           <t>1. In 'Set timer'  tab --&gt;Set future time for Timer-1  
@@ -15602,14 +15468,11 @@
         <is>
           <t>• The screen focus is in "MY CABIN COMFORT - Set timer" page 
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY CABIN COMFORT --&gt; Set timer )
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
-        </is>
-      </c>
-      <c r="H27" s="53" t="inlineStr">
-        <is>
-          <t>• Ignition = Off</t>
-        </is>
-      </c>
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Ignition is OFF</t>
+        </is>
+      </c>
+      <c r="H27" s="53" t="n"/>
       <c r="I27" s="53" t="inlineStr">
         <is>
           <t>1. In 'Set timer'  tab --&gt;Set future time for Timer-1  
@@ -15807,8 +15670,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="F12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -15827,39 +15690,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="240" t="inlineStr">
+      <c r="B2" s="239" t="inlineStr">
         <is>
           <t>My Battery Charge</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="233" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="232" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="241" t="inlineStr">
+      <c r="B3" s="240" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="239" t="inlineStr">
+      <c r="F3" s="238" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • This service applicable for only on PHEV models
@@ -15871,13 +15734,13 @@
 • Battery Charger connected to Mains Voltage</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -16024,13 +15887,13 @@
       <c r="G6" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - CAR REMOTE" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE )
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H6" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• In Port Charger should be connected to AC Mains
+          <t>• In Port Charger should be connected to AC Mains
 • Make sure that RBC is active in the Car
 • Make sure that RBC Timer is scheduled for future time(i.e. 12 Hours  from the current time) and SWITCH TIMER MODE is activated under MY BATTERY CHARGE screen</t>
         </is>
@@ -16086,13 +15949,13 @@
       <c r="G7" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - MY BATTERY CHARGE - Battery charge" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Battery charge Page)</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Battery charge Page)
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H7" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• In Port Charger should be connected to AC Mains
+          <t>• In Port Charger should be connected to AC Mains
 • Make sure that RBC is active in the Car
 • Make sure that RBC Timer is scheduled for future time(i.e. 12 Hours  from the current time) and SWITCH TIMER MODE is activated under MY BATTERY CHARGE screen
 • Make sure Timer scheduled for start of battery charge displayed under 'My Battery Charge' section under CAR REMOTE screen</t>
@@ -16144,13 +16007,13 @@
       <c r="G8" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - MY BATTERY CHARGE - Battery charge" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Battery charge Page)</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Battery charge Page)
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H8" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• Make sure that RBC is active in the Car
+          <t>• Make sure that RBC is active in the Car
 • Make sure that the battery is getting charged and displaying the status as 'Active - xx hrs yy mins')
 • Make sure that RBC Timer is scheduled for future time(i.e. 12 Hours  from the current time)</t>
         </is>
@@ -16265,15 +16128,15 @@
       <c r="G10" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - MY BATTERY CHARGE - Set timer" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Set timer Page)</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Set timer Page) 
+• Ignition is OFF
+• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="H10" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• In Port Charger should be connected to AC Mains
-• Make sure that car there is no RBC Charge Timer scheduled
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• In Port Charger should be connected to AC Mains
+• Make sure that car there is no RBC Charge Timer scheduled</t>
         </is>
       </c>
       <c r="I10" s="53" t="inlineStr">
@@ -16354,7 +16217,7 @@
       <c r="M11" s="3" t="n"/>
       <c r="N11" s="17" t="n"/>
     </row>
-    <row r="12" ht="126" customHeight="1">
+    <row r="12" ht="180" customHeight="1">
       <c r="B12" s="25" t="n">
         <v>8</v>
       </c>
@@ -16381,13 +16244,14 @@
       <c r="G12" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - MY BATTERY CHARGE - Set timer" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Set timer Page)</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; MY BATTERY CHARGE - Set timer Page)
+• Ignition is OFF
+• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="H12" s="53" t="inlineStr">
         <is>
-          <t>• Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
+          <t>• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
       <c r="I12" s="53" t="inlineStr">
@@ -16417,7 +16281,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="141.75" customHeight="1">
+    <row r="13" ht="166.5" customHeight="1">
       <c r="B13" s="25" t="n">
         <v>9</v>
       </c>
@@ -16443,15 +16307,14 @@
         <is>
           <t xml:space="preserve">• The screen focus is in "My Bentley App - DASHBOARD" page
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is OFF
+• Ensure vehicle has some fuel in the tank some charge in the PHEV/BEV traction battery.
 </t>
         </is>
       </c>
       <c r="H13" s="53" t="inlineStr">
         <is>
-          <t>• Ensure vehicle has some fuel in the tank some charge in the PHEV/BEV traction battery.
-• Ignition off
-• Note the fuel level in the gauge in the kombi. 
-• Note the range value in the kombi</t>
+          <t xml:space="preserve">• Note the fuel level and the range value in the kombi. </t>
         </is>
       </c>
       <c r="I13" s="53" t="inlineStr">
@@ -16714,8 +16577,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -16734,39 +16597,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Service Management</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -16778,13 +16641,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -16876,11 +16739,7 @@
           <t>Verify SERVICE MANAGEMENT screen and it's content</t>
         </is>
       </c>
-      <c r="G5" s="120" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
+      <c r="G5" s="120" t="n"/>
       <c r="H5" s="53" t="n"/>
       <c r="I5" s="120" t="inlineStr">
         <is>
@@ -17570,12 +17429,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10">
-    <cfRule type="cellIs" priority="137" operator="equal" dxfId="257">
+    <cfRule type="cellIs" priority="137" operator="equal" dxfId="248">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" priority="106" operator="equal" dxfId="257">
+    <cfRule type="cellIs" priority="106" operator="equal" dxfId="248">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17591,7 +17450,7 @@
     <cfRule type="cellIs" priority="26" operator="equal" dxfId="9">
       <formula>"Not Applicable"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal" dxfId="257">
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="248">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17607,7 +17466,7 @@
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="9">
       <formula>"Not Applicable"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="257">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="248">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17646,8 +17505,8 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -17668,33 +17527,33 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Activate Heating</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • This service applicable for EU Non-PHEV models
@@ -17706,13 +17565,13 @@
 • Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -17997,15 +17856,12 @@
       <c r="G9" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "ACTIVATE HEATING - Quick start" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; ACTIVATE HEATING - Quick start tab )</t>
-        </is>
-      </c>
-      <c r="H9" s="53" t="inlineStr">
-        <is>
-          <t>• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; ACTIVATE HEATING - Quick start tab )
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Vehicle Ignition = Off</t>
+        </is>
+      </c>
+      <c r="H9" s="53" t="n"/>
       <c r="I9" s="53" t="inlineStr">
         <is>
           <t>Under 'ACTIVATE HEATING - Quick start' page :
@@ -18027,7 +17883,7 @@
       <c r="M9" s="71" t="n"/>
       <c r="N9" s="72" t="n"/>
     </row>
-    <row r="10" ht="141.75" customHeight="1">
+    <row r="10" ht="164.25" customHeight="1">
       <c r="B10" s="50" t="n">
         <v>6</v>
       </c>
@@ -18052,14 +17908,14 @@
       <c r="G10" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "ACTIVATE HEATING - Quick start" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; ACTIVATE HEATING - Quick start tab )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; ACTIVATE HEATING - Quick start tab )
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="H10" s="53" t="inlineStr">
         <is>
-          <t>• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank
-• Activate Heating = On</t>
+          <t>• Activate Heating = On</t>
         </is>
       </c>
       <c r="I10" s="53" t="inlineStr">
@@ -18106,14 +17962,14 @@
       <c r="G11" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "ACTIVATE HEATING - Set timer" page 
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; ACTIVATE HEATING - Set timer tab )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; CAR REMOTE --&gt; ACTIVATE HEATING - Set timer tab )
+• Make sure at least 30% of Fuel to be present in Fuel Tank
+• Vehicle Ignition = Off</t>
         </is>
       </c>
       <c r="H11" s="53" t="inlineStr">
         <is>
-          <t>• Vehicle Ignition = Off
-• Make sure at least 30% of Fuel to be present in Fuel Tank
-• Activate Heating = Off</t>
+          <t>• Activate Heating = Off</t>
         </is>
       </c>
       <c r="I11" s="53" t="inlineStr">
@@ -18156,11 +18012,7 @@
           <t>Verify all the screens with Bentley style guide.</t>
         </is>
       </c>
-      <c r="G12" s="73" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
+      <c r="G12" s="73" t="n"/>
       <c r="H12" s="53" t="n"/>
       <c r="I12" s="62" t="inlineStr">
         <is>
@@ -18258,8 +18110,8 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -18278,39 +18130,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="242" t="inlineStr">
+      <c r="B2" s="241" t="inlineStr">
         <is>
           <t>Roadside Assistance</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="241" t="inlineStr">
+      <c r="B3" s="240" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="239" t="inlineStr">
+      <c r="F3" s="238" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Primary registration process is successfully completed. 
@@ -18319,13 +18171,13 @@
 • Mobile in good network reception area</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -18501,110 +18353,46 @@
       <c r="M6" s="3" t="n"/>
       <c r="N6" s="13" t="n"/>
     </row>
-    <row r="7" ht="236.25" customHeight="1">
-      <c r="B7" s="4" t="n">
+    <row r="7" ht="236.25" customHeight="1" thickBot="1">
+      <c r="B7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="51" t="inlineStr">
+      <c r="C7" s="60" t="inlineStr">
         <is>
           <t>EUR, NAR, CHN</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E7" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="79" t="inlineStr">
-        <is>
-          <t>Verify Breakdown Call initiation via My Bentley App when privacy mode is activated</t>
-        </is>
-      </c>
-      <c r="G7" s="53" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - ROADSIDE ASSISTANCE" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" screen --&gt;Click on "CAR REMOTE" tab --&gt; Select "ROADSIDE ASSISTANCE" section )</t>
-        </is>
-      </c>
-      <c r="H7" s="53" t="inlineStr">
-        <is>
-          <t>• Privacy Mode = On
-( Vehicle HMI Home screen -&gt; Settings -&gt; Privacy --&gt; Activating privacy mode = Enabled )</t>
-        </is>
-      </c>
-      <c r="I7" s="53" t="inlineStr">
-        <is>
-          <t>1. In 'ROADSIDE ASSISTANCE' screen, Select 'CALL NOW' button and try to establish call to the region specific BCALL contact number when Privacy mode is activated
-UK : +44 800 316 1333
-EU &amp; Italy : 00800 4886 4886
-NAR &amp; CND : +1 800 323 0100
-CHN : +864000032877
-2. After BCALL established, Check for two way communication establishment between Agent and Customer while BCALL is active
-3. End the ongoing Breakdown CALL</t>
-        </is>
-      </c>
-      <c r="J7" s="53" t="inlineStr">
-        <is>
-          <t>1. Breakdown Call to respective numbers should be successfull when privacy mode is activated 
-UK : +44 800 316 1333
-EU &amp; Ireland : +49 221802471854
-NAR &amp; CND : +1 800 455 5045
-CHN : +864000032877
-2. Two way communication between Agent and Customer should be successfull
-3. Breakdown Call should end without any issues</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="9" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="13" t="n"/>
-    </row>
-    <row r="8" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="60" t="inlineStr">
-        <is>
-          <t>EUR, NAR, CHN</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E8" s="35" t="n">
+      <c r="E7" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>Verify all the screen with Bentley style guide.</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>Observe all the screen's icon, font, colour</t>
         </is>
       </c>
-      <c r="J8" s="62" t="inlineStr">
+      <c r="J7" s="62" t="inlineStr">
         <is>
           <t>All the icon, font, colour should be followed as per Bentley style guide.</t>
         </is>
       </c>
-      <c r="K8" s="6" t="n"/>
-      <c r="L8" s="11" t="n"/>
-      <c r="M8" s="6" t="n"/>
-      <c r="N8" s="14" t="n"/>
-    </row>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="11" t="n"/>
+      <c r="M7" s="6" t="n"/>
+      <c r="N7" s="14" t="n"/>
+    </row>
+    <row r="8" ht="33.75" customHeight="1"/>
     <row r="9">
       <c r="F9" s="40" t="n"/>
       <c r="G9" s="40" t="n"/>
@@ -18621,7 +18409,7 @@
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K7">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="13">
       <formula>"Not Tested"</formula>
     </cfRule>
@@ -18640,11 +18428,13 @@
     <cfRule type="cellIs" priority="13" operator="equal" dxfId="8">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="0">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L6 L7">
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L8">
+  <conditionalFormatting sqref="L5:L7">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="6">
       <formula>"Cancelled"</formula>
     </cfRule>
@@ -18663,12 +18453,9 @@
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="1">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
-      <formula>"Pass"</formula>
-    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="L5:L8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="L5:L6 L7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Pass, Fail, Blocked, NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18695,7 +18482,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -18714,39 +18501,39 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="43" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="43" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="43" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="43" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Data Services</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -18754,13 +18541,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -18834,17 +18621,17 @@
       <c r="B5" s="127" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="220" t="inlineStr">
+      <c r="C5" s="219" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="D5" s="220" t="inlineStr">
+      <c r="D5" s="219" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E5" s="221" t="n">
+      <c r="E5" s="220" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="222" t="inlineStr">
@@ -18852,11 +18639,7 @@
           <t>Verify launching of 'EU-DATA SERVICES' web shop link(bentley.cubictelecom.com) via Bentley Support Web link(support.bentleymotors.com) in My Bentley App</t>
         </is>
       </c>
-      <c r="G5" s="222" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
+      <c r="G5" s="222" t="n"/>
       <c r="H5" s="53" t="n"/>
       <c r="I5" s="222" t="inlineStr">
         <is>
@@ -18939,14 +18722,14 @@
           <t>Verify launching of 'NAR-DATA SERVICES' via Bentley Support Web link(support.bentleymotors.com) in My Bentley App</t>
         </is>
       </c>
-      <c r="G6" s="209" t="inlineStr">
+      <c r="G6" s="79" t="inlineStr">
         <is>
           <t>• The screen focus is in "Bentley Support Centre" web link page
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" screen --&gt;Click on "CAR REMOTE" tab --&gt; Select "DATA SERVICES" section --&gt; Select "VISIT STORE" button --&gt; Bentley Support Centre web link is launched )</t>
         </is>
       </c>
       <c r="H6" s="53" t="n"/>
-      <c r="I6" s="209" t="inlineStr">
+      <c r="I6" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">1. In 'Bentley Support Centre web link(support.bentleymotors.com)', Validate 'DATA SERVICES' page
 * For 25 MY vehicles (For Bentayga 25MY+, Continental gt 25 MY+ and Flying Spur 25MY+) :
@@ -18970,7 +18753,7 @@
 3b. </t>
         </is>
       </c>
-      <c r="J6" s="209" t="inlineStr">
+      <c r="J6" s="79" t="inlineStr">
         <is>
           <t>1. 'DATA SERVICES' page should be launched displaying the below sections
 a. 'For 25 MY vehicles (For Bentayga 25MY+, Continental gt 25 MY+ and Flying Spur 25MY+)' section with pre-requisites and steps for activating data plan along with 'BUY DATA' button
@@ -19177,8 +18960,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J5" sqref="B5:J5"/>
+    <sheetView topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -19197,39 +18980,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>My Alerts</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="244" t="inlineStr">
+      <c r="B3" s="243" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="228" t="n"/>
+      <c r="C3" s="227" t="n"/>
       <c r="D3" s="178" t="n"/>
       <c r="E3" s="179" t="n"/>
-      <c r="F3" s="243" t="inlineStr">
+      <c r="F3" s="242" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -19238,13 +19021,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="228" t="n"/>
-      <c r="H3" s="228" t="n"/>
-      <c r="I3" s="228" t="n"/>
-      <c r="J3" s="228" t="n"/>
-      <c r="K3" s="228" t="n"/>
-      <c r="L3" s="228" t="n"/>
-      <c r="M3" s="233" t="n"/>
+      <c r="G3" s="227" t="n"/>
+      <c r="H3" s="227" t="n"/>
+      <c r="I3" s="227" t="n"/>
+      <c r="J3" s="227" t="n"/>
+      <c r="K3" s="227" t="n"/>
+      <c r="L3" s="227" t="n"/>
+      <c r="M3" s="232" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -20259,7 +20042,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -20282,33 +20065,33 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Theft Alarm</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Theft Alert service is having a valid license and in use
@@ -20318,13 +20101,13 @@
 2. My Bentley mobile app -- &gt; Service Management -- &gt; 'Theft alert' should be enabled</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -20969,8 +20752,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="B41" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -20989,28 +20772,28 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Customer Enrollment</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="30.75" customHeight="1" thickBot="1">
       <c r="B3" s="98" t="inlineStr">
@@ -21021,7 +20804,7 @@
       <c r="C3" s="99" t="n"/>
       <c r="D3" s="100" t="n"/>
       <c r="E3" s="100" t="n"/>
-      <c r="F3" s="231" t="inlineStr">
+      <c r="F3" s="230" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -21033,13 +20816,13 @@
                        3. Set 'Login Method' = 'idk(IDK - Solution)' / 'ping(PING - Solution)'  </t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="30.75" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -21133,13 +20916,13 @@
       </c>
       <c r="G5" s="159" t="inlineStr">
         <is>
-          <t>• Log-In to My Bentley App credentials available</t>
+          <t>• Log-In to My Bentley App credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H5" s="103" t="inlineStr">
         <is>
-          <t>• No user has ever generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+          <t>• No user has ever generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I5" s="159" t="inlineStr">
@@ -21197,14 +20980,14 @@
       <c r="G6" s="103" t="inlineStr">
         <is>
           <t xml:space="preserve">• Log-In to My Bentley App credentials available
+• Privacy Mode is disabed in the vehicle HMI
 </t>
         </is>
       </c>
       <c r="H6" s="103" t="inlineStr">
         <is>
           <t>• User has a VIN linked to their account with no Primary User nominated
-• No user has ever generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• No user has ever generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I6" s="103" t="inlineStr">
@@ -21260,15 +21043,15 @@
       <c r="G7" s="103" t="inlineStr">
         <is>
           <t>• Logged in to My Bentley App with valid credentials
-• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H7" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I7" s="103" t="inlineStr">
@@ -21315,15 +21098,15 @@
       <c r="G8" s="103" t="inlineStr">
         <is>
           <t>• Logged in to My Bentley App with valid credentials
-• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H8" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I8" s="103" t="inlineStr">
@@ -21371,6 +21154,7 @@
         <is>
           <t xml:space="preserve">• Logged in to My Bentley App with valid credentials
 • Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI
 </t>
         </is>
       </c>
@@ -21378,8 +21162,7 @@
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
@@ -21425,15 +21208,15 @@
       <c r="G10" s="103" t="inlineStr">
         <is>
           <t>• Logged in to My Bentley App with valid credentials
-• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H10" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I10" s="103" t="inlineStr">
@@ -21483,6 +21266,7 @@
         <is>
           <t xml:space="preserve">• Logged in to My Bentley App with valid credentials
 • Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI
 </t>
         </is>
       </c>
@@ -21490,8 +21274,7 @@
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
@@ -21542,17 +21325,16 @@
       </c>
       <c r="G12" s="103" t="inlineStr">
         <is>
-          <t xml:space="preserve">• Logged in to My Bentley App with valid credentials
+          <t>• Logged in to My Bentley App with valid credentials
 • Focus is in vehicle "DASHBOARD" screen of My Bentley App
-</t>
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H12" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
@@ -21600,17 +21382,16 @@
       </c>
       <c r="G13" s="103" t="inlineStr">
         <is>
-          <t xml:space="preserve">• Logged in to My Bentley App with valid credentials
+          <t>• Logged in to My Bentley App with valid credentials
 • Focus is in vehicle "DASHBOARD" screen of My Bentley App
-</t>
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H13" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
@@ -21664,8 +21445,7 @@
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
@@ -21718,15 +21498,15 @@
       <c r="G15" s="16" t="inlineStr">
         <is>
           <t>• Logged in to My Bentley App with valid credentials
-• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H15" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
@@ -21780,15 +21560,15 @@
       <c r="G16" s="16" t="inlineStr">
         <is>
           <t>• Logged in to My Bentley App with valid credentials
-• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H16" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has not generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has not generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
@@ -21839,15 +21619,15 @@
       </c>
       <c r="G17" s="16" t="inlineStr">
         <is>
-          <t>• Log in credentials to My Bentley App available</t>
+          <t>• Log in credentials to My Bentley App available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H17" s="103" t="inlineStr">
         <is>
           <t>• Not logged in to My Bentley App
 • Vehicle already added in My Bentley App
-• User has a VIN linked to their account with Primary User nominated
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has a VIN linked to their account with Primary User nominated</t>
         </is>
       </c>
       <c r="I17" s="16" t="inlineStr">
@@ -21898,14 +21678,14 @@
       <c r="G18" s="16" t="inlineStr">
         <is>
           <t>• Logged in to My Bentley App with valid credentials
-• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H18" s="103" t="inlineStr">
         <is>
           <t>• Vehicle already added in My Bentley App
-• User has a VIN linked to their account with Primary User nominated
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has a VIN linked to their account with Primary User nominated</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
@@ -21956,13 +21736,13 @@
       </c>
       <c r="G19" s="106" t="inlineStr">
         <is>
-          <t>• User 1 is logged in to My Bentley account</t>
+          <t>• User 1 is logged in to My Bentley account
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H19" s="103" t="inlineStr">
         <is>
-          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User
-• Privacy Mode is disabed in the vehicle HMI</t>
+          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
@@ -22012,13 +21792,13 @@
       </c>
       <c r="G20" s="106" t="inlineStr">
         <is>
-          <t>• User 1 is logged in to My Bentley account</t>
+          <t>• User 1 is logged in to My Bentley account
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H20" s="103" t="inlineStr">
         <is>
-          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User
-• Privacy Mode is disabed in the vehicle HMI</t>
+          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
@@ -22076,6 +21856,7 @@
         <is>
           <t xml:space="preserve">• Logged in to My Bentley App with valid credentials
 • Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI
 </t>
         </is>
       </c>
@@ -22083,8 +21864,7 @@
         <is>
           <t>• Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
-• User has generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
@@ -22136,13 +21916,13 @@
       </c>
       <c r="G22" s="106" t="inlineStr">
         <is>
-          <t>• User 1 is logged in to My Bentley account</t>
+          <t>• User 1 is logged in to My Bentley account
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H22" s="103" t="inlineStr">
         <is>
-          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User
-• Privacy Mode is disabed in the vehicle HMI</t>
+          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
@@ -22196,13 +21976,13 @@
       </c>
       <c r="G23" s="106" t="inlineStr">
         <is>
-          <t>• User 1 is logged in to My Bentley account</t>
+          <t>• User 1 is logged in to My Bentley account
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H23" s="103" t="inlineStr">
         <is>
-          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User
-• Privacy Mode is disabed in the vehicle HMI</t>
+          <t>• User 1 (the account logged) in has a VIN linked to their account and another user (User 2) is already Primary User</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
@@ -22256,14 +22036,14 @@
       </c>
       <c r="G24" s="106" t="inlineStr">
         <is>
-          <t>• User is logged in to My Bentley account</t>
+          <t>• User is logged in to My Bentley account
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H24" s="103" t="inlineStr">
         <is>
           <t>• User has a VIN linked to their account with no Primary User nominated
-• User has generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has generated a vehicle code for this VIN</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
@@ -22310,7 +22090,8 @@
       </c>
       <c r="G25" s="103" t="inlineStr">
         <is>
-          <t>• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+          <t>• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H25" s="103" t="inlineStr">
@@ -22319,7 +22100,6 @@
 • Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
 • User has generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI
 • Android Mobile Device is available for testing with latest My Bentley App installed in it</t>
         </is>
       </c>
@@ -22374,7 +22154,8 @@
       </c>
       <c r="G26" s="103" t="inlineStr">
         <is>
-          <t>• Focus is in vehicle "DASHBOARD" screen of My Bentley App</t>
+          <t>• Focus is in vehicle "DASHBOARD" screen of My Bentley App
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H26" s="103" t="inlineStr">
@@ -22383,7 +22164,6 @@
 • Vehicle already added in My Bentley App
 • User has a VIN linked to their account with no Primary User nominated
 • User has generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI
 • Android Mobile Device is available for testing with latest My Bentley App installed in it</t>
         </is>
       </c>
@@ -22440,11 +22220,14 @@
           <t>Verify the new Bentley Customer Enrolment Process via vehicle code</t>
         </is>
       </c>
-      <c r="G27" s="103" t="n"/>
+      <c r="G27" s="103" t="inlineStr">
+        <is>
+          <t>• Privacy Mode is disabed in the vehicle HMI</t>
+        </is>
+      </c>
       <c r="H27" s="103" t="inlineStr">
         <is>
           <t xml:space="preserve">• No user has ever generated a vehicle code for this VIN
-• Privacy Mode is disabed in the vehicle HMI
 </t>
         </is>
       </c>
@@ -22525,12 +22308,15 @@
       </c>
       <c r="G28" s="79" t="inlineStr">
         <is>
+          <t>• Privacy Mode is disabed in the vehicle HMI</t>
+        </is>
+      </c>
+      <c r="H28" s="79" t="inlineStr">
+        <is>
           <t>• No Bentley User set up
-• Privacy Mode is disabed in the vehicle HMI
 • RNR check not approved by CCAT</t>
         </is>
       </c>
-      <c r="H28" s="103" t="n"/>
       <c r="I28" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">* [Registering to Bentley ID + Adding VIN] :  
@@ -22573,11 +22359,14 @@
           <t>Verify the Customer Enrolment Process if RNR is successful for a new Bentley Account</t>
         </is>
       </c>
-      <c r="G29" s="79" t="n"/>
+      <c r="G29" s="79" t="inlineStr">
+        <is>
+          <t>• Privacy Mode is disabed in the vehicle HMI</t>
+        </is>
+      </c>
       <c r="H29" s="79" t="inlineStr">
         <is>
           <t>• No Bentley User set up
-• Privacy Mode is disabed in the vehicle HMI
 • RNR check approved by CCAT</t>
         </is>
       </c>
@@ -22643,11 +22432,14 @@
           <t>Verify the Customer Enrolment Process if RNR is unsuccessfull for an existing Bentley Account</t>
         </is>
       </c>
-      <c r="G30" s="79" t="n"/>
+      <c r="G30" s="79" t="inlineStr">
+        <is>
+          <t>• Privacy Mode is disabed in the vehicle HMI</t>
+        </is>
+      </c>
       <c r="H30" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">• My Bentley App Log In credentials available
-• Privacy Mode is disabed in the vehicle HMI
 • RNR check not approved by CCAT
 • Bentley Account has already have other vehicle added to it </t>
         </is>
@@ -22701,13 +22493,13 @@
       </c>
       <c r="G31" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App Log In credentials available</t>
+          <t>• My Bentley App Log In credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H31" s="103" t="inlineStr">
         <is>
-          <t xml:space="preserve">• Privacy Mode is disabed in the vehicle HMI
-• RNR check not approved by CCAT
+          <t xml:space="preserve">• RNR check not approved by CCAT
 • Bentley Account has already have other vehicle added to it </t>
         </is>
       </c>
@@ -22764,13 +22556,13 @@
       </c>
       <c r="G32" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App Log In credentials available</t>
+          <t>• My Bentley App Log In credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H32" s="103" t="inlineStr">
         <is>
-          <t xml:space="preserve">• Privacy Mode is disabed in the vehicle HMI
-• RNR check approved by CCAT
+          <t xml:space="preserve">• RNR check approved by CCAT
 • Bentley Account has already have other vehicle added to it </t>
         </is>
       </c>
@@ -22901,13 +22693,13 @@
       </c>
       <c r="G34" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App Log In credentials available</t>
+          <t>• My Bentley App Log In credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H34" s="103" t="inlineStr">
         <is>
-          <t>• Privacy Mode is disabed in the vehicle HMI
-• RNR check approved by CCAT
+          <t>• RNR check approved by CCAT
 • VIN / Vehicle added to Bentley Account</t>
         </is>
       </c>
@@ -22957,13 +22749,13 @@
       </c>
       <c r="G35" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App Log In credentials available</t>
+          <t>• My Bentley App Log In credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H35" s="103" t="inlineStr">
         <is>
-          <t>• Privacy Mode is disabed in the vehicle HMI
-• RNR check approved by CCAT
+          <t>• RNR check approved by CCAT
 • VIN / Vehicle added to Bentley Account</t>
         </is>
       </c>
@@ -23015,13 +22807,13 @@
       </c>
       <c r="G36" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App Log In credentials available</t>
+          <t>• My Bentley App Log In credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H36" s="103" t="inlineStr">
         <is>
-          <t>• Privacy Mode is disabed in the vehicle HMI
-• RNR check approved by CCAT
+          <t>• RNR check approved by CCAT
 • VIN / Vehicle added to Bentley Account</t>
         </is>
       </c>
@@ -23074,13 +22866,13 @@
       </c>
       <c r="G37" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App Log In credentials available</t>
+          <t>• My Bentley App Log In credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H37" s="103" t="inlineStr">
         <is>
-          <t>• Privacy Mode is disabed in the vehicle HMI
-• RNR check approved by CCAT
+          <t>• RNR check approved by CCAT
 • VIN / Vehicle added to Bentley Account</t>
         </is>
       </c>
@@ -23141,15 +22933,15 @@
       </c>
       <c r="G38" s="53" t="inlineStr">
         <is>
-          <t>• Log in credentials to My Bentley App available</t>
+          <t>• Log in credentials to My Bentley App available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H38" s="103" t="inlineStr">
         <is>
           <t>• RNR check approved by CCAT
 • Vehicle already added in My Bentley App
-• User has a VIN linked to their account with Primary User nominated
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has a VIN linked to their account with Primary User nominated</t>
         </is>
       </c>
       <c r="I38" s="53" t="inlineStr">
@@ -23210,13 +23002,13 @@
       </c>
       <c r="G39" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App Log In credentials available</t>
+          <t>• My Bentley App Log In credentials available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H39" s="103" t="inlineStr">
         <is>
-          <t>• Privacy Mode is disabed in the vehicle HMI
-• RNR check approved by CCAT
+          <t>• RNR check approved by CCAT
 • VIN / Vehicle added to Bentley Account</t>
         </is>
       </c>
@@ -23271,15 +23063,15 @@
       </c>
       <c r="G40" s="53" t="inlineStr">
         <is>
-          <t>• Log in credentials to My Bentley App available</t>
+          <t>• Log in credentials to My Bentley App available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H40" s="103" t="inlineStr">
         <is>
           <t>• RNR check approved by CCAT
 • Vehicle already added in My Bentley App
-• User has a VIN linked to their account with Primary User nominated
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has a VIN linked to their account with Primary User nominated</t>
         </is>
       </c>
       <c r="I40" s="53" t="inlineStr">
@@ -23334,15 +23126,15 @@
       </c>
       <c r="G41" s="53" t="inlineStr">
         <is>
-          <t>• Log in credentials to My Bentley App available</t>
+          <t>• Log in credentials to My Bentley App available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H41" s="103" t="inlineStr">
         <is>
           <t>• RNR check approved by CCAT
 • Vehicle already added in My Bentley App
-• User has a VIN linked to their account with Primary User nominated
-• Privacy Mode is disabed in the vehicle HMI</t>
+• User has a VIN linked to their account with Primary User nominated</t>
         </is>
       </c>
       <c r="I41" s="53" t="inlineStr">
@@ -23421,13 +23213,13 @@
       </c>
       <c r="G42" s="53" t="inlineStr">
         <is>
-          <t>• Log in credentials to My Bentley App available</t>
+          <t>• Log in credentials to My Bentley App available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H42" s="103" t="inlineStr">
         <is>
           <t>• RNR check approved by CCAT
-• Privacy Mode is disabed in the vehicle HMI
 • 'USER-1' has a VIN linked to their account with Primary User nominated
 • 'USER-2' has a no VIN linked to their account</t>
         </is>
@@ -23489,13 +23281,13 @@
       </c>
       <c r="G43" s="53" t="inlineStr">
         <is>
-          <t>• Log in credentials to My Bentley App available</t>
+          <t>• Log in credentials to My Bentley App available
+• Privacy Mode is disabed in the vehicle HMI</t>
         </is>
       </c>
       <c r="H43" s="103" t="inlineStr">
         <is>
           <t>• RNR check approved by CCAT
-• Privacy Mode is disabed in the vehicle HMI
 • 'USER-1' has a VIN linked to their account with Primary User nominated
 • 'USER-2' has VIN linked to their account but not Primary User</t>
         </is>
@@ -23574,11 +23366,7 @@
           <t>Verify all the screen with Bentley style guide.</t>
         </is>
       </c>
-      <c r="G44" s="94" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
+      <c r="G44" s="94" t="n"/>
       <c r="H44" s="103" t="n"/>
       <c r="I44" s="94" t="inlineStr">
         <is>
@@ -23811,33 +23599,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Stolen Vehicle Locator</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -23846,13 +23634,13 @@
 • 'Stolen Vehicle Locator' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -24188,33 +23976,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Audials</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -24222,13 +24010,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -24476,7 +24264,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -24499,33 +24287,33 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Car Finder</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Car Finder service is having a valid license and in use
@@ -24536,13 +24324,13 @@
  The vehicle is in stationary &amp; connected to the network.</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -25042,8 +24830,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="C14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -25062,39 +24850,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="242" t="inlineStr">
+      <c r="B2" s="241" t="inlineStr">
         <is>
           <t>Nav Companion</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="241" t="inlineStr">
+      <c r="B3" s="240" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="239" t="inlineStr">
+      <c r="F3" s="238" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -25104,13 +24892,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -25350,11 +25138,7 @@
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; Click on "Navigation" icon(NAVIGATION) --&gt; Click on ALLOW )</t>
         </is>
       </c>
-      <c r="H8" s="67" t="inlineStr">
-        <is>
-          <t>• Recently added location details found under 'SENT DESTINATIONS' section</t>
-        </is>
-      </c>
+      <c r="H8" s="67" t="n"/>
       <c r="I8" s="53" t="inlineStr">
         <is>
           <t>1. In 'NAVIGATION' screen, Click on Search Window and Select the previously sent location details to destination(Ex : London , Manchester etc.) under 'SENT DESTINATIONS' section
@@ -25957,7 +25741,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -25980,33 +25764,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Notifications</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -26015,13 +25799,13 @@
 • “My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -26547,8 +26331,8 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView topLeftCell="D14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -26570,33 +26354,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Push Notifications</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -26605,13 +26389,13 @@
 • “My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -27270,7 +27054,7 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -27294,46 +27078,46 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Primary user successfully  registered with vehicle
 • My Bentley mobile app should have valid credentials.</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -28496,39 +28280,39 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Localization</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -28538,84 +28322,84 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="210" t="inlineStr">
+      <c r="B4" s="209" t="inlineStr">
         <is>
           <t>TC ID</t>
         </is>
       </c>
-      <c r="C4" s="211" t="inlineStr">
+      <c r="C4" s="210" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="D4" s="211" t="inlineStr">
+      <c r="D4" s="210" t="inlineStr">
         <is>
           <t>Test Priority</t>
         </is>
       </c>
-      <c r="E4" s="212" t="inlineStr">
+      <c r="E4" s="211" t="inlineStr">
         <is>
           <t>Overall Effort (in Mins)</t>
         </is>
       </c>
-      <c r="F4" s="211" t="inlineStr">
+      <c r="F4" s="210" t="inlineStr">
         <is>
           <t>Test Case Title</t>
         </is>
       </c>
-      <c r="G4" s="211" t="inlineStr">
+      <c r="G4" s="210" t="inlineStr">
         <is>
           <t>Pre-Condition</t>
         </is>
       </c>
-      <c r="H4" s="211" t="inlineStr">
+      <c r="H4" s="210" t="inlineStr">
         <is>
           <t>Pre-Condition (Vehicle)</t>
         </is>
       </c>
-      <c r="I4" s="211" t="inlineStr">
+      <c r="I4" s="210" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="J4" s="211" t="inlineStr">
+      <c r="J4" s="210" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="K4" s="211" t="inlineStr">
+      <c r="K4" s="210" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="L4" s="211" t="inlineStr">
+      <c r="L4" s="210" t="inlineStr">
         <is>
           <t>Test Result</t>
         </is>
       </c>
-      <c r="M4" s="211" t="inlineStr">
+      <c r="M4" s="210" t="inlineStr">
         <is>
           <t>No Of Observations</t>
         </is>
       </c>
-      <c r="N4" s="213" t="inlineStr">
+      <c r="N4" s="212" t="inlineStr">
         <is>
           <t>Defect IDs/Comments</t>
         </is>
       </c>
     </row>
     <row r="5" ht="78.75" customHeight="1">
-      <c r="B5" s="214" t="n">
+      <c r="B5" s="213" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="121" t="inlineStr">
@@ -28628,10 +28412,10 @@
           <t>High</t>
         </is>
       </c>
-      <c r="E5" s="215" t="n">
+      <c r="E5" s="214" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="216" t="inlineStr">
+      <c r="F5" s="215" t="inlineStr">
         <is>
           <t>Verify Text String validation in My Bentley App (English Language)</t>
         </is>
@@ -28642,7 +28426,7 @@
         </is>
       </c>
       <c r="H5" s="194" t="n"/>
-      <c r="I5" s="217" t="inlineStr">
+      <c r="I5" s="216" t="inlineStr">
         <is>
           <t>1. Check for text strings for all My Bentley features or services which can be validated via 'My Bentley App'</t>
         </is>
@@ -28787,10 +28571,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:N17"/>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -28805,40 +28589,40 @@
     <col width="56.28515625" customWidth="1" style="1" min="9" max="9"/>
     <col width="47.85546875" customWidth="1" style="1" min="10" max="10"/>
     <col width="13.140625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
-    <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
+    <col width="12.7109375" customWidth="1" style="2" min="12" max="12"/>
+    <col width="12.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.28515625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="242" t="inlineStr">
+      <c r="B2" s="241" t="inlineStr">
         <is>
           <t>Privacy Mode</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="241" t="inlineStr">
+      <c r="B3" s="240" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="239" t="inlineStr">
+      <c r="F3" s="238" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -28846,15 +28630,15 @@
 • “My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1">
       <c r="A4" t="inlineStr"/>
       <c r="B4" s="197" t="inlineStr">
         <is>
@@ -28871,7 +28655,7 @@
           <t>Test Priority</t>
         </is>
       </c>
-      <c r="E4" s="218" t="inlineStr">
+      <c r="E4" s="217" t="inlineStr">
         <is>
           <t>Overall Effort (in Mins)</t>
         </is>
@@ -28923,83 +28707,33 @@
       </c>
     </row>
     <row r="5" ht="173.25" customHeight="1">
-      <c r="B5" s="127" t="n">
+      <c r="B5" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="117" t="inlineStr">
+      <c r="C5" s="51" t="inlineStr">
         <is>
           <t>EUR , NAR , CHN</t>
         </is>
       </c>
-      <c r="D5" s="117" t="inlineStr">
+      <c r="D5" s="51" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E5" s="118" t="n">
+      <c r="E5" s="52" t="n">
         <v>10</v>
       </c>
-      <c r="F5" s="119" t="inlineStr">
-        <is>
-          <t>Verify accessing of My Bentley App Services when max privacy is deactivated</t>
-        </is>
-      </c>
-      <c r="H5" s="120" t="inlineStr">
-        <is>
-          <t>• Privacy Mode is deactivated ( Full Privacy Mode = OFF)
-( HU HMI --&gt; Settings --&gt; Privacy)
-Activating privacy mode = Disabled
-Use personal data = Enabled
-Use vehicle position = Enabled
-Share vehicle position = Enabled
-Data collection requests from My Bentley = Disabled
-Pseudonymised data = Disabled
-Anonymised data = Disabled</t>
-        </is>
-      </c>
-      <c r="I5" s="184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Check the status of all My Bentley App Features (in Dash Board, Car Remote and Navigation tab) : </t>
-        </is>
-      </c>
-      <c r="J5" s="120" t="inlineStr">
-        <is>
-          <t>All My Bentley Mobile App features and subfeatures should  be accessible without any issue</t>
-        </is>
-      </c>
-      <c r="K5" s="22" t="n"/>
-      <c r="L5" s="23" t="n"/>
-      <c r="M5" s="22" t="n"/>
-      <c r="N5" s="24" t="n"/>
-    </row>
-    <row r="6" ht="267.75" customHeight="1">
-      <c r="B6" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="51" t="inlineStr">
-        <is>
-          <t>EUR , NAR , CHN</t>
-        </is>
-      </c>
-      <c r="D6" s="51" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E6" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" s="79" t="inlineStr">
+      <c r="F5" s="79" t="inlineStr">
         <is>
           <t>Verify accessing of My Bentley App Services when max privacy is activated</t>
         </is>
       </c>
-      <c r="G6" s="53" t="inlineStr">
+      <c r="G5" s="53" t="inlineStr">
         <is>
           <t>• Sign In to My Bentley App and check for the below mentioned "My Bentley Mobile App features" when max privacy is enabled ( Launch "My Bentley App" --&gt; Sign In )</t>
         </is>
       </c>
-      <c r="H6" s="53" t="inlineStr">
+      <c r="H5" s="53" t="inlineStr">
         <is>
           <t>• Privacy Mode is activated ( Full Privacy Mode = ON)
 ( HU HMI --&gt; Settings --&gt; Privacy)
@@ -29012,12 +28746,12 @@
 Anonymised data = Disabled</t>
         </is>
       </c>
-      <c r="I6" s="16" t="inlineStr">
+      <c r="I5" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">Check the status of all My Bentley App Features (in Dash Board, Car Remote and Navigation tab) : </t>
         </is>
       </c>
-      <c r="J6" s="53" t="inlineStr">
+      <c r="J5" s="53" t="inlineStr">
         <is>
           <t>The below mentioned My Bentley Mobile App features and subfeatures should not be accessible with relevent inforamtion icon or message 
 My Bentley Mobile App features : 
@@ -29032,10 +28766,59 @@
 Note: Other features (e.g. Bcall, Audials, Data Plan, My ALerts etc. ) are still accessible</t>
         </is>
       </c>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="9" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="13" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="9" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="13" t="n"/>
+    </row>
+    <row r="6" ht="267.75" customHeight="1">
+      <c r="B6" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="51" t="inlineStr">
+        <is>
+          <t>EUR, NAR, CHN</t>
+        </is>
+      </c>
+      <c r="D6" s="51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E6" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Access to Remote Lock/unlock functionalities when Privacy mode is ON </t>
+        </is>
+      </c>
+      <c r="G6" s="53" t="inlineStr">
+        <is>
+          <t>• The screen focus is in "My Bentley App - DASHBOARD" page
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+        </is>
+      </c>
+      <c r="H6" s="53" t="inlineStr">
+        <is>
+          <t>• Privacy Mode is ON in HMI</t>
+        </is>
+      </c>
+      <c r="I6" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scroll up/down and check the status of the Lock and Unlock services. </t>
+        </is>
+      </c>
+      <c r="J6" s="53" t="inlineStr">
+        <is>
+          <t>1. The Remote locking service should be disabled(Greyed out).
+2. Lock and Unlock button should not be accessible.</t>
+        </is>
+      </c>
+      <c r="K6" s="51" t="n"/>
+      <c r="L6" s="54" t="n"/>
+      <c r="M6" s="71" t="n"/>
+      <c r="N6" s="72" t="n"/>
     </row>
     <row r="7" ht="409.5" customHeight="1">
       <c r="B7" s="50" t="n">
@@ -29056,10 +28839,325 @@
       </c>
       <c r="F7" s="79" t="inlineStr">
         <is>
+          <t>Verify accessing of 'MY CABIN COMFORT' Service when max privacy is activated</t>
+        </is>
+      </c>
+      <c r="G7" s="53" t="inlineStr">
+        <is>
+          <t>• Activation of Privacy Mode ( Full Privacy Mode = ON)
+( Vehicle HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = ON :: Online Services : Use Personal Data = OFF  , Use Vehicle Position = OFF &amp; Share Vehicle Position = OFF )</t>
+        </is>
+      </c>
+      <c r="H7" s="53" t="n"/>
+      <c r="I7" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Sign In to My Bentley App and check for 'MY CABIN COMFORT' service in Car Remote Screen when max privacy is enabled
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle 'DASHBOARD' Screen --&gt;  Launch 'CAR REMOTE' screen(i.e. Second Tab present in Footer Screen from left) ) --&gt; MY CABIN COMFORT section )
+</t>
+        </is>
+      </c>
+      <c r="J7" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'MY CABIN COMFORT' service should not be accessible  i.e. Relevant Icons should be greyed out when max privacy is enabled)
+</t>
+        </is>
+      </c>
+      <c r="K7" s="53" t="n"/>
+      <c r="L7" s="54" t="n"/>
+      <c r="M7" s="53" t="n"/>
+      <c r="N7" s="55" t="n"/>
+    </row>
+    <row r="8" ht="409.5" customHeight="1">
+      <c r="B8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="51" t="inlineStr">
+        <is>
+          <t>EUR , NAR , CHN</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E8" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="79" t="inlineStr">
+        <is>
+          <t>Verify accessing of 'MY BATTERY CHARGE' Service when max privacy is activated</t>
+        </is>
+      </c>
+      <c r="G8" s="53" t="n"/>
+      <c r="H8" s="53" t="inlineStr">
+        <is>
+          <t>• Activation of Privacy Mode ( Full Privacy Mode = ON)
+( Vehicle HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = ON :: Online Services : Use Personal Data = OFF  , Use Vehicle Position = OFF &amp; Share Vehicle Position = OFF )</t>
+        </is>
+      </c>
+      <c r="I8" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Sign In to My Bentley App and check for 'MY BATTERY CHARGE' service in Car Remote Screen when max privacy is enabled
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle 'DASHBOARD' Screen --&gt;  Launch 'CAR REMOTE' screen(i.e. Second Tab present in Footer Screen from left) --&gt; MY BATTERY CHARGE section )
+</t>
+        </is>
+      </c>
+      <c r="J8" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'MY BATTERY CHARGE' service should not be accessible  i.e. Relevant Icons should be greyed out when max privacy is enabled)
+</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="13" t="n"/>
+    </row>
+    <row r="9" ht="409.5" customHeight="1">
+      <c r="B9" s="50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="51" t="inlineStr">
+        <is>
+          <t>EUR, NAR, CHN</t>
+        </is>
+      </c>
+      <c r="D9" s="51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E9" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="176" t="inlineStr">
+        <is>
+          <t>Verification of Car Finder when 'Activating Privacy Mode' is enabled under vehicle HMI 'Settings Privacy' screen</t>
+        </is>
+      </c>
+      <c r="G9" s="70" t="inlineStr">
+        <is>
+          <t>• The screen focus is in "My Bentley App - NAVIGATION" page
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; Click on Navigation symbol(NAVIGATION) --&gt; Click on ALLOW )</t>
+        </is>
+      </c>
+      <c r="H9" s="221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• Enable 'Activating Privacy Mode' under vehicle HMI 'Settings Privacy' screen
+(HMI Home screen -&gt; Settings -&gt; Privacy)
+Activating privacy mode = Enabled
+Use personal data = Disabled
+Use vehicle position = Disabled
+Share vehicle position = Disabled
+Data collection requests from My Bentley = Disabled
+Pseudonymised data = Disabled
+Anonymised data = Disabled </t>
+        </is>
+      </c>
+      <c r="I9" s="70" t="inlineStr">
+        <is>
+          <t>Check for 'Car' icon under 'My Bentley App - NAVIGATION' screen when 'Activating Privacy Mode' is enabled in vehicle HMI 'Settings Privacy' screen</t>
+        </is>
+      </c>
+      <c r="J9" s="70" t="inlineStr">
+        <is>
+          <t>• Find My Car : In My Bentley App, The 'Car' icon under 'NAVIGATION' screen should not be displayed when Privacy mode is enabled via vehicle HMI 'Settings Privacy' screen
+(i.e. 'Car' icon and the vehicle pointer icon should not be visible in map view under 'NAVIGATION' screen )</t>
+        </is>
+      </c>
+      <c r="K9" s="53" t="n"/>
+      <c r="L9" s="54" t="n"/>
+      <c r="M9" s="54" t="n"/>
+      <c r="N9" s="72" t="n"/>
+    </row>
+    <row r="10" ht="104.25" customHeight="1">
+      <c r="B10" s="50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="51" t="inlineStr">
+        <is>
+          <t>EUR , NAR , CHN</t>
+        </is>
+      </c>
+      <c r="D10" s="51" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E10" s="52">
+        <f>(10+10+10)/3</f>
+        <v/>
+      </c>
+      <c r="F10" s="79" t="inlineStr">
+        <is>
+          <t>Verify 'Remote Parking' feature in My Bentley App when Privacy Mode is activated</t>
+        </is>
+      </c>
+      <c r="G10" s="53" t="n"/>
+      <c r="H10" s="53" t="inlineStr">
+        <is>
+          <t>• Automatic User Identification is done
+• Bluetooth Connection with Vehicle is already established(i.e.  Bluetooth should be turned 'ON'  + Bluetooth permission must be granted)
+• Location Services should be turned 'ON' / 'Set to Always' + Precise Location permission must be granted
+• Vehicle parked in parking space
+             a) Parallel Parking Space
+             b) Angle Parking Space
+             c) Perpendicular Parking Space 
+• The distance between the GPS position of the sender and receiver must be &lt;4m 
+• One Key(Vehicle Key-1) is next to the vehicle 
+• Privacy Mode is activated ( Full Privacy Mode = ON)
+( HU HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = ON :: Online Services : Use Personal Data = OFF  , Use Vehicle Position = OFF &amp; Share Vehicle Position = OFF )</t>
+        </is>
+      </c>
+      <c r="I10" s="53" t="inlineStr">
+        <is>
+          <t>1. Check for 'REMOTE PARKING' section in 'CAR REMOTE' screen
+( My Bentley App --&gt; SIGN IN --&gt; Vehicle 'DASHBOARD' screen --&gt;Click on 'CAR REMOTE' tab)</t>
+        </is>
+      </c>
+      <c r="J10" s="53" t="inlineStr">
+        <is>
+          <t>1. 'REMOTE PARKING' section should be greyed out and should display the status as 'Function not available ' under 'CAR REMOTE' screen when max privacy mode is activated</t>
+        </is>
+      </c>
+      <c r="K10" s="53" t="n"/>
+      <c r="L10" s="54" t="n"/>
+      <c r="M10" s="53" t="n"/>
+      <c r="N10" s="55" t="n"/>
+    </row>
+    <row r="11" ht="107.25" customHeight="1">
+      <c r="B11" s="50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="51" t="inlineStr">
+        <is>
+          <t>EUR , NAR , CHN</t>
+        </is>
+      </c>
+      <c r="D11" s="51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E11" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="53" t="inlineStr">
+        <is>
+          <t>Verify accessing of  'MY CAR STATISTICS' Service when max privacy is activated</t>
+        </is>
+      </c>
+      <c r="G11" s="53" t="n"/>
+      <c r="H11" s="53" t="inlineStr">
+        <is>
+          <t>Activation of Privacy Mode ( Full Privacy Mode = ON)
+( HU HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = ON :: Online Services : Use Personal Data = OFF  , Use Vehicle Position = OFF &amp; Share Vehicle Position = OFF )</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sign In to My Bentley App and check for 'MY CAR STATISTICS' feature in Car Remote Screen when max privacy is enabled
+( Launch 'My Bentley App' --&gt; Sign In -&gt;  'Car Remote Screen' )
+</t>
+        </is>
+      </c>
+      <c r="J11" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'MY CAR STATISTICS' feature should not be accessible  i.e. Relevant Icons should be greyed out when max privacy is enabled)
+</t>
+        </is>
+      </c>
+      <c r="K11" s="53" t="n"/>
+      <c r="L11" s="53" t="n"/>
+      <c r="M11" s="53" t="n"/>
+      <c r="N11" s="55" t="n"/>
+    </row>
+    <row r="12" ht="149.25" customHeight="1">
+      <c r="B12" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="51" t="inlineStr">
+        <is>
+          <t>EUR, NAR, CHN</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="79" t="inlineStr">
+        <is>
+          <t>Verify Breakdown Call initiation via My Bentley App when privacy mode is activated</t>
+        </is>
+      </c>
+      <c r="G12" s="53" t="inlineStr">
+        <is>
+          <t>• The screen focus is in "My Bentley App - ROADSIDE ASSISTANCE" page
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" screen --&gt;Click on "CAR REMOTE" tab --&gt; Select "ROADSIDE ASSISTANCE" section )</t>
+        </is>
+      </c>
+      <c r="H12" s="53" t="inlineStr">
+        <is>
+          <t>• Privacy Mode = On
+( Vehicle HMI Home screen -&gt; Settings -&gt; Privacy --&gt; Activating privacy mode = Enabled )</t>
+        </is>
+      </c>
+      <c r="I12" s="53" t="inlineStr">
+        <is>
+          <t>1. In 'ROADSIDE ASSISTANCE' screen, Select 'CALL NOW' button and try to establish call to the region specific BCALL contact number when Privacy mode is activated
+UK : +44 800 316 1333
+EU &amp; Italy : 00800 4886 4886
+NAR &amp; CND : +1 800 323 0100
+CHN : +864000032877
+2. After BCALL established, Check for two way communication establishment between Agent and Customer while BCALL is active
+3. End the ongoing Breakdown CALL</t>
+        </is>
+      </c>
+      <c r="J12" s="53" t="inlineStr">
+        <is>
+          <t>1. Breakdown Call to respective numbers should be successfull when privacy mode is activated 
+UK : +44 800 316 1333
+EU &amp; Ireland : +49 221802471854
+NAR &amp; CND : +1 800 455 5045
+CHN : +864000032877
+2. Two way communication between Agent and Customer should be successfull
+3. Breakdown Call should end without any issues</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="9" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="13" t="n"/>
+    </row>
+    <row r="13" ht="143.25" customHeight="1">
+      <c r="B13" s="50" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="51" t="inlineStr">
+        <is>
+          <t>EUR , NAR , CHN</t>
+        </is>
+      </c>
+      <c r="D13" s="51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E13" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="79" t="inlineStr">
+        <is>
           <t xml:space="preserve">Verify accessing of My Bentley App Services when Online Services  -&gt; Use Personal Data = OFF </t>
         </is>
       </c>
-      <c r="H7" s="53" t="inlineStr">
+      <c r="G13" s="53" t="n"/>
+      <c r="H13" s="53" t="inlineStr">
         <is>
           <t>• Focus should be on Privacy screen and Privacy mode is not active (HMI Home screen -&gt; Settings -&gt; Privacy)
 Activating privacy mode = Disabled
@@ -29072,7 +29170,7 @@
 Click uncheck box to disable 'Use Personal Data' Online Services Privacy Settings option</t>
         </is>
       </c>
-      <c r="I7" s="16" t="inlineStr">
+      <c r="I13" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Sign In to My Bentley App and check for the below mentioned 'My Bentley Mobile App features' when max privacy is enabled ( Launch 'My Bentley App' --&gt; Sign In )
 2. Check if  'Use Vehicle Position' and 'Share Vehicle Position'  option can be acivated/.deactivated
@@ -29080,7 +29178,7 @@
 </t>
         </is>
       </c>
-      <c r="J7" s="53" t="inlineStr">
+      <c r="J13" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Notice that disabling 'Use Personal Data' Online Services Privacy Settings option should also disable 'Use Vehicle Position' &amp; 'Share Vehicle Position' Online Services(i.e. Full Privacy is activated) :
 Activating privacy mode = Disabled
@@ -29106,34 +29204,35 @@
 </t>
         </is>
       </c>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="9" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="13" t="n"/>
-    </row>
-    <row r="8" ht="409.5" customHeight="1">
-      <c r="B8" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="51" t="inlineStr">
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="9" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="13" t="n"/>
+    </row>
+    <row r="14" ht="213.75" customHeight="1">
+      <c r="B14" s="50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="51" t="inlineStr">
         <is>
           <t>EUR , NAR , CHN</t>
         </is>
       </c>
-      <c r="D8" s="51" t="inlineStr">
+      <c r="D14" s="51" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E8" s="52" t="n">
+      <c r="E14" s="52" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="79" t="inlineStr">
+      <c r="F14" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">Verify accessing of My Bentley App Services when Online Services  -&gt; Use Vehicle Position  = OFF </t>
         </is>
       </c>
-      <c r="H8" s="53" t="inlineStr">
+      <c r="G14" s="53" t="n"/>
+      <c r="H14" s="53" t="inlineStr">
         <is>
           <t>• Focus should be on Privacy screen and Privacy mode is not active (HMI Home screen -&gt; Settings -&gt; Privacy)
 Activating privacy mode = Disabled
@@ -29146,7 +29245,7 @@
 Click uncheck box to disable 'Use Vehicle Position' Online Services Privacy Settings option</t>
         </is>
       </c>
-      <c r="I8" s="16" t="inlineStr">
+      <c r="I14" s="16" t="inlineStr">
         <is>
           <t>1. Sign In to My Bentley App
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle 'DASHBOARD' Screen )
@@ -29157,7 +29256,7 @@
 (HMI Home screen -&gt; Settings -&gt; Privacy)</t>
         </is>
       </c>
-      <c r="J8" s="53" t="inlineStr">
+      <c r="J14" s="53" t="inlineStr">
         <is>
           <t>1. Notice that disabling 'Use Vehicle Postion' Online Services Privacy Settings option should also disable 'Share Vehicle Position' Online Services :
 Activating privacy mode = Disabled
@@ -29176,34 +29275,35 @@
 4. User can activate or deactivate 'Use Personal Data' and  'Share Vehicle Position' options under vehicle HMI Privacy screen without any issues</t>
         </is>
       </c>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="9" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="13" t="n"/>
-    </row>
-    <row r="9" ht="409.5" customHeight="1">
-      <c r="B9" s="50" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="51" t="inlineStr">
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="9" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="13" t="n"/>
+    </row>
+    <row r="15" ht="220.5" customHeight="1">
+      <c r="B15" s="50" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="51" t="inlineStr">
         <is>
           <t>EUR , NAR , CHN</t>
         </is>
       </c>
-      <c r="D9" s="51" t="inlineStr">
+      <c r="D15" s="51" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E9" s="52" t="n">
+      <c r="E15" s="52" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="79" t="inlineStr">
+      <c r="F15" s="79" t="inlineStr">
         <is>
           <t xml:space="preserve">Verify accessing of My Bentley App Services when Online Services  -&gt; Share Vehicle Position  = OFF </t>
         </is>
       </c>
-      <c r="H9" s="53" t="inlineStr">
+      <c r="G15" s="53" t="n"/>
+      <c r="H15" s="53" t="inlineStr">
         <is>
           <t>• Focus should be on Privacy screen and Privacy mode is not active (HMI Home screen -&gt; Settings -&gt; Privacy)
 Activating privacy mode = Disabled
@@ -29216,7 +29316,7 @@
 Click uncheck box to disable 'Share Vehicle Position' Online Services Privacy Settings option</t>
         </is>
       </c>
-      <c r="I9" s="16" t="inlineStr">
+      <c r="I15" s="16" t="inlineStr">
         <is>
           <t>1. Sign In to My Bentley App
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle 'DASHBOARD' Screen )
@@ -29227,7 +29327,7 @@
 (HMI Home screen -&gt; Settings -&gt; Privacy)</t>
         </is>
       </c>
-      <c r="J9" s="53" t="inlineStr">
+      <c r="J15" s="53" t="inlineStr">
         <is>
           <t>1. Notice that disabling 'Share Vehicle Postion' Online Services Privacy Settings option should not deactivate either 'Use Personal Data' and  'Share Vehicle Position' Online Services :
 Activating privacy mode = Disabled
@@ -29246,289 +29346,40 @@
 4. User can activate or deactivate 'Use Personal Data' and  'Share Vehicle Position' options under vehicle HMI Privacy screen without any issues</t>
         </is>
       </c>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="9" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="13" t="n"/>
-    </row>
-    <row r="10" ht="104.25" customHeight="1">
-      <c r="B10" s="50" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="51" t="inlineStr">
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="9" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="13" t="n"/>
+    </row>
+    <row r="16" ht="315" customHeight="1">
+      <c r="B16" s="50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" s="51" t="inlineStr">
         <is>
           <t>EUR, NAR, CHN</t>
         </is>
       </c>
-      <c r="D10" s="51" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E10" s="52" t="n">
+      <c r="D16" s="51" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E16" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Access to Remote Lock/unlock functionalities when Privacy mode is ON </t>
-        </is>
-      </c>
-      <c r="G10" s="53" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H10" s="53" t="inlineStr">
-        <is>
-          <t>• Privacy Mode is ON in HMI</t>
-        </is>
-      </c>
-      <c r="I10" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scroll up/down and check the status of the Lock and Unlock services. </t>
-        </is>
-      </c>
-      <c r="J10" s="53" t="inlineStr">
-        <is>
-          <t>1. The Remote locking service should be disabled(Greyed out).
-2. Lock and Unlock button should not be accessible.</t>
-        </is>
-      </c>
-      <c r="K10" s="51" t="n"/>
-      <c r="L10" s="54" t="n"/>
-      <c r="M10" s="71" t="n"/>
-      <c r="N10" s="72" t="n"/>
-    </row>
-    <row r="11" ht="107.25" customHeight="1">
-      <c r="B11" s="50" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="51" t="inlineStr">
-        <is>
-          <t>EUR, NAR, CHN</t>
-        </is>
-      </c>
-      <c r="D11" s="51" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E11" s="52" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" s="67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Access to Remote Lock/unlock functionalities when Privacy mode is Off </t>
-        </is>
-      </c>
-      <c r="G11" s="53" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H11" s="53" t="inlineStr">
-        <is>
-          <t>• Privacy Mode is OFF in HMI</t>
-        </is>
-      </c>
-      <c r="I11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scroll up/down and check the status of the Lock and Unlock services. </t>
-        </is>
-      </c>
-      <c r="J11" s="53" t="inlineStr">
-        <is>
-          <t>1. The Remote locking service should be enabled
-2. Lock and Unlock button should be accessible.</t>
-        </is>
-      </c>
-      <c r="K11" s="51" t="n"/>
-      <c r="L11" s="54" t="n"/>
-      <c r="M11" s="71" t="n"/>
-      <c r="N11" s="72" t="n"/>
-    </row>
-    <row r="12" ht="149.25" customHeight="1">
-      <c r="B12" s="50" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="51" t="inlineStr">
-        <is>
-          <t>EUR , NAR , CHN</t>
-        </is>
-      </c>
-      <c r="D12" s="51" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E12" s="52" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="79" t="inlineStr">
-        <is>
-          <t>Verify accessing of 'MY CABIN COMFORT' Service when max privacy is activated</t>
-        </is>
-      </c>
-      <c r="G12" s="53" t="inlineStr">
-        <is>
-          <t>• Activation of Privacy Mode ( Full Privacy Mode = ON)
-( Vehicle HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = ON :: Online Services : Use Personal Data = OFF  , Use Vehicle Position = OFF &amp; Share Vehicle Position = OFF )</t>
-        </is>
-      </c>
-      <c r="H12" s="53" t="n"/>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Sign In to My Bentley App and check for 'MY CABIN COMFORT' service in Car Remote Screen when max privacy is enabled
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle 'DASHBOARD' Screen --&gt;  Launch 'CAR REMOTE' screen(i.e. Second Tab present in Footer Screen from left) ) --&gt; MY CABIN COMFORT section )
-</t>
-        </is>
-      </c>
-      <c r="J12" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'MY CABIN COMFORT' service should not be accessible  i.e. Relevant Icons should be greyed out when max privacy is enabled)
-</t>
-        </is>
-      </c>
-      <c r="K12" s="53" t="n"/>
-      <c r="L12" s="54" t="n"/>
-      <c r="M12" s="53" t="n"/>
-      <c r="N12" s="55" t="n"/>
-    </row>
-    <row r="13" ht="143.25" customHeight="1">
-      <c r="B13" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="51" t="inlineStr">
-        <is>
-          <t>EUR , NAR , CHN</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E13" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" s="79" t="inlineStr">
-        <is>
-          <t>Verify accessing of 'MY BATTERY CHARGE' Service when max privacy is activated</t>
-        </is>
-      </c>
-      <c r="G13" s="53" t="n"/>
-      <c r="H13" s="53" t="inlineStr">
-        <is>
-          <t>• Activation of Privacy Mode ( Full Privacy Mode = ON)
-( Vehicle HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = ON :: Online Services : Use Personal Data = OFF  , Use Vehicle Position = OFF &amp; Share Vehicle Position = OFF )</t>
-        </is>
-      </c>
-      <c r="I13" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Sign In to My Bentley App and check for 'MY BATTERY CHARGE' service in Car Remote Screen when max privacy is enabled
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle 'DASHBOARD' Screen --&gt;  Launch 'CAR REMOTE' screen(i.e. Second Tab present in Footer Screen from left) --&gt; MY BATTERY CHARGE section )
-</t>
-        </is>
-      </c>
-      <c r="J13" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'MY BATTERY CHARGE' service should not be accessible  i.e. Relevant Icons should be greyed out when max privacy is enabled)
-</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="13" t="n"/>
-    </row>
-    <row r="14" ht="188.25" customHeight="1">
-      <c r="B14" s="50" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="51" t="inlineStr">
-        <is>
-          <t>EUR, NAR, CHN</t>
-        </is>
-      </c>
-      <c r="D14" s="51" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E14" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="176" t="inlineStr">
-        <is>
-          <t>Verification of Car Finder when 'Activating Privacy Mode' is enabled under vehicle HMI 'Settings Privacy' screen</t>
-        </is>
-      </c>
-      <c r="G14" s="70" t="inlineStr">
+      <c r="F16" s="176" t="inlineStr">
+        <is>
+          <t>Verification of Car Finder functionality when 'Share Vehicle Position' Online Services Privacy Settings option is deactivated via vehicle HMI</t>
+        </is>
+      </c>
+      <c r="G16" s="70" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - NAVIGATION" page
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; Click on Navigation symbol(NAVIGATION) --&gt; Click on ALLOW )</t>
         </is>
       </c>
-      <c r="H14" s="223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">• Enable 'Activating Privacy Mode' under vehicle HMI 'Settings Privacy' screen
-(HMI Home screen -&gt; Settings -&gt; Privacy)
-Activating privacy mode = Enabled
-Use personal data = Disabled
-Use vehicle position = Disabled
-Share vehicle position = Disabled
-Data collection requests from My Bentley = Disabled
-Pseudonymised data = Disabled
-Anonymised data = Disabled </t>
-        </is>
-      </c>
-      <c r="I14" s="70" t="inlineStr">
-        <is>
-          <t>Check for 'Car' icon under 'My Bentley App - NAVIGATION' screen when 'Activating Privacy Mode' is enabled in vehicle HMI 'Settings Privacy' screen</t>
-        </is>
-      </c>
-      <c r="J14" s="70" t="inlineStr">
-        <is>
-          <t>• Find My Car : In My Bentley App, The 'Car' icon under 'NAVIGATION' screen should not be displayed when Privacy mode is enabled via vehicle HMI 'Settings Privacy' screen
-(i.e. 'Car' icon and the vehicle pointer icon should not be visible in map view under 'NAVIGATION' screen )</t>
-        </is>
-      </c>
-      <c r="K14" s="53" t="n"/>
-      <c r="L14" s="54" t="n"/>
-      <c r="M14" s="54" t="n"/>
-      <c r="N14" s="72" t="n"/>
-    </row>
-    <row r="15" ht="177" customHeight="1">
-      <c r="B15" s="50" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" s="51" t="inlineStr">
-        <is>
-          <t>EUR, NAR, CHN</t>
-        </is>
-      </c>
-      <c r="D15" s="51" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E15" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="176" t="inlineStr">
-        <is>
-          <t>Verification of Car Finder functionality when 'Share Vehicle Position' Online Services Privacy Settings option is deactivated via vehicle HMI</t>
-        </is>
-      </c>
-      <c r="G15" s="70" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - NAVIGATION" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; Click on Navigation symbol(NAVIGATION) --&gt; Click on ALLOW )</t>
-        </is>
-      </c>
-      <c r="H15" s="223" t="inlineStr">
+      <c r="H16" s="221" t="inlineStr">
         <is>
           <t xml:space="preserve">• Deactivate 'Share Vehicle Position' under vehicle HMI 'Settings Privacy' screen
 (HMI Home screen -&gt; Settings -&gt; Privacy)
@@ -29541,120 +29392,106 @@
 Anonymised data = Disabled </t>
         </is>
       </c>
-      <c r="I15" s="70" t="inlineStr">
+      <c r="I16" s="70" t="inlineStr">
         <is>
           <t>Check for 'Car' icon under 'My Bentley App - NAVIGATION' screen when 'Share Vehicle Position' Online Services Privacy Settings option is deactivated in vehicle HMI 'Settings Privacy' screen</t>
         </is>
       </c>
-      <c r="J15" s="70" t="inlineStr">
+      <c r="J16" s="70" t="inlineStr">
         <is>
           <t>The below services should not share the vehicle position information when 'Share Vehicle Position' Online Services Privacy Settings option is deactivated
 • Find My Car : In My Bentley App, The 'Car' icon under 'NAVIGATION' screen should not be displayed
 (i.e. 'Car' icon and the vehicle pointer icon should not be visible in map view under 'NAVIGATION' screen )</t>
         </is>
       </c>
-      <c r="K15" s="70" t="n"/>
-      <c r="L15" s="54" t="n"/>
-      <c r="M15" s="54" t="n"/>
-      <c r="N15" s="72" t="n"/>
-    </row>
-    <row r="16" ht="315" customHeight="1">
-      <c r="B16" s="50" t="n">
-        <v>12</v>
-      </c>
-      <c r="C16" s="51" t="inlineStr">
+      <c r="K16" s="70" t="n"/>
+      <c r="L16" s="54" t="n"/>
+      <c r="M16" s="54" t="n"/>
+      <c r="N16" s="72" t="n"/>
+    </row>
+    <row r="17" ht="190.5" customHeight="1">
+      <c r="B17" s="50" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="51" t="inlineStr">
         <is>
           <t>EUR , NAR , CHN</t>
         </is>
       </c>
-      <c r="D16" s="51" t="inlineStr">
+      <c r="D17" s="51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E17" s="52" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="53" t="inlineStr">
+        <is>
+          <t>Verify whether 'MY CAR STATISTICS' Service in My Bentley App can be accessed when partial privacy is activated(i.e. Share Vehicle Position = OFF)</t>
+        </is>
+      </c>
+      <c r="G17" s="53" t="n"/>
+      <c r="H17" s="53" t="inlineStr">
+        <is>
+          <t>Activation of Privacy Mode (Activate Privacy Mode = OFF :: Use Personal Data = ON , Use Vehicle Position = ON &amp; Share Vehicle Position = OFF)
+( HU HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = OFF :: Online Services : Use Personal Data = ON  , Use Vehicle Position = ON &amp; Share Vehicle Position = OFF )</t>
+        </is>
+      </c>
+      <c r="I17" s="16" t="inlineStr">
+        <is>
+          <t>Sign In to My Bentley App and check for 'MY CAR STATISTICS' section under 'CAR REMOTE' screen when only 'Share Vehicle Position' privacy settings is set to 'OFF' from HMI
+( Launch 'My Bentley App' --&gt; Sign In  --&gt; Vehicle 'DASHBOARD' screen --&gt; Click on 'CAR REMOTE' tab(i.e. Second Tab present in Footer Screen) )</t>
+        </is>
+      </c>
+      <c r="J17" s="16" t="inlineStr">
+        <is>
+          <t>'MY CAR STATISTICS' section under 'CAR REMOTE' screen should not be disabled or greyed out when only 'Share Vehicle Position' privacy settings is set to 'OFF' from HMI</t>
+        </is>
+      </c>
+      <c r="K17" s="53" t="n"/>
+      <c r="L17" s="53" t="n"/>
+      <c r="M17" s="53" t="n"/>
+      <c r="N17" s="55" t="n"/>
+    </row>
+    <row r="18" ht="32.25" customHeight="1" thickBot="1">
+      <c r="B18" s="59" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" s="60" t="inlineStr">
+        <is>
+          <t>EUR , NAR , CHN</t>
+        </is>
+      </c>
+      <c r="D18" s="60" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E16" s="52">
-        <f>(10+10+10)/3</f>
-        <v/>
-      </c>
-      <c r="F16" s="79" t="inlineStr">
-        <is>
-          <t>Verify 'Remote Parking' feature in My Bentley App when Privacy Mode is activated</t>
-        </is>
-      </c>
-      <c r="G16" s="53" t="n"/>
-      <c r="H16" s="53" t="inlineStr">
-        <is>
-          <t>• Automatic User Identification is done
-• Bluetooth Connection with Vehicle is already established(i.e.  Bluetooth should be turned 'ON'  + Bluetooth permission must be granted)
-• Location Services should be turned 'ON' / 'Set to Always' + Precise Location permission must be granted
-• Vehicle parked in parking space
-             a) Parallel Parking Space
-             b) Angle Parking Space
-             c) Perpendicular Parking Space 
-• The distance between the GPS position of the sender and receiver must be &lt;4m 
-• One Key(Vehicle Key-1) is next to the vehicle 
-• Privacy Mode is activated ( Full Privacy Mode = ON)
-( HU HMI --&gt; Settings --&gt; Privacy --&gt; Activate Privacy Mode(Activate Privacy Mode = ON :: Online Services : Use Personal Data = OFF  , Use Vehicle Position = OFF &amp; Share Vehicle Position = OFF )</t>
-        </is>
-      </c>
-      <c r="I16" s="53" t="inlineStr">
-        <is>
-          <t>1. Check for 'REMOTE PARKING' section in 'CAR REMOTE' screen
-( My Bentley App --&gt; SIGN IN --&gt; Vehicle 'DASHBOARD' screen --&gt;Click on 'CAR REMOTE' tab)</t>
-        </is>
-      </c>
-      <c r="J16" s="53" t="inlineStr">
-        <is>
-          <t>1. 'REMOTE PARKING' section should be greyed out and should display the status as 'Function not available ' under 'CAR REMOTE' screen when max privacy mode is activated</t>
-        </is>
-      </c>
-      <c r="K16" s="53" t="n"/>
-      <c r="L16" s="54" t="n"/>
-      <c r="M16" s="53" t="n"/>
-      <c r="N16" s="55" t="n"/>
-    </row>
-    <row r="17" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B17" s="59" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" s="60" t="inlineStr">
-        <is>
-          <t>EUR , NAR , CHN</t>
-        </is>
-      </c>
-      <c r="D17" s="60" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E17" s="61" t="n">
+      <c r="E18" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="94" t="inlineStr">
+      <c r="F18" s="94" t="inlineStr">
         <is>
           <t>Verify all the screen with Bentley style guide.</t>
         </is>
       </c>
-      <c r="G17" s="62" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
-      <c r="H17" s="62" t="n"/>
-      <c r="I17" s="62" t="inlineStr">
+      <c r="G18" s="62" t="n"/>
+      <c r="H18" s="62" t="n"/>
+      <c r="I18" s="62" t="inlineStr">
         <is>
           <t>Observe all the screen's icon, font, colour</t>
         </is>
       </c>
-      <c r="J17" s="62" t="inlineStr">
+      <c r="J18" s="62" t="inlineStr">
         <is>
           <t>All the icon, font, colour should be followed as per Bentley style guide.</t>
         </is>
       </c>
-      <c r="K17" s="6" t="n"/>
-      <c r="L17" s="11" t="n"/>
-      <c r="M17" s="6" t="n"/>
-      <c r="N17" s="14" t="n"/>
+      <c r="K18" s="6" t="n"/>
+      <c r="L18" s="11" t="n"/>
+      <c r="M18" s="6" t="n"/>
+      <c r="N18" s="14" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29662,150 +29499,122 @@
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K9">
-    <cfRule type="cellIs" priority="65" operator="equal" dxfId="11">
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" priority="96" operator="equal" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="63" operator="equal" dxfId="13">
+    <cfRule type="cellIs" priority="93" operator="equal" dxfId="10">
       <formula>"Not Tested"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="64" operator="equal" dxfId="12">
+    <cfRule type="cellIs" priority="92" operator="equal" dxfId="11">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="91" operator="equal" dxfId="12">
       <formula>"Not Applicable"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="69" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="90" operator="equal" dxfId="13">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="94" operator="equal" dxfId="9">
+      <formula>"Not Applicable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="95" operator="equal" dxfId="8">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K8">
+    <cfRule type="cellIs" priority="61" operator="equal" dxfId="8">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="60" operator="equal" dxfId="9">
+      <formula>"Not Applicable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="59" operator="equal" dxfId="10">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="58" operator="equal" dxfId="11">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="68" operator="equal" dxfId="8">
+    <cfRule type="cellIs" priority="57" operator="equal" dxfId="12">
+      <formula>"Not Applicable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="56" operator="equal" dxfId="13">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K15 K17">
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="11">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="10">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="9">
+      <formula>"Not Applicable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="8">
       <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="67" operator="equal" dxfId="9">
-      <formula>"Not Applicable"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="66" operator="equal" dxfId="10">
-      <formula>"Not Tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13">
-    <cfRule type="cellIs" priority="34" operator="equal" dxfId="8">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="33" operator="equal" dxfId="9">
-      <formula>"Not Applicable"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="31" operator="equal" dxfId="11">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="30" operator="equal" dxfId="12">
-      <formula>"Not Applicable"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="29" operator="equal" dxfId="13">
-      <formula>"Not Tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="32" operator="equal" dxfId="10">
-      <formula>"Not Tested"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="13">
-      <formula>"Not Tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="12">
-      <formula>"Not Applicable"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="11">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="10">
-      <formula>"Not Tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="9">
-      <formula>"Not Applicable"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="8">
-      <formula>"Fail"</formula>
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="13">
+      <formula>"Not Tested"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="12">
+      <formula>"Not Applicable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L13">
-    <cfRule type="cellIs" priority="28" operator="equal" dxfId="0">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L11">
+  <conditionalFormatting sqref="K7:L8 L5:L6">
     <cfRule type="cellIs" priority="55" operator="equal" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L13">
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="5">
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="cellIs" priority="51" operator="equal" dxfId="4">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="50" operator="equal" dxfId="5">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="4">
+    <cfRule type="cellIs" priority="49" operator="equal" dxfId="6">
+      <formula>"Cancelled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="53" operator="equal" dxfId="2">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="54" operator="equal" dxfId="1">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="52" operator="equal" dxfId="3">
+      <formula>"In-Progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M9 L10 L12:L15 L16:M16 L18">
+    <cfRule type="cellIs" priority="41" operator="equal" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="3">
+    <cfRule type="cellIs" priority="40" operator="equal" dxfId="1">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="39" operator="equal" dxfId="2">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="38" operator="equal" dxfId="3">
       <formula>"In-Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="26" operator="equal" dxfId="2">
-      <formula>"Blocked"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="6">
-      <formula>"Cancelled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal" dxfId="1">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L17">
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="6">
-      <formula>"Cancelled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="5">
+    <cfRule type="cellIs" priority="37" operator="equal" dxfId="4">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="36" operator="equal" dxfId="5">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="0">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="1">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="2">
-      <formula>"Blocked"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="3">
-      <formula>"In-Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="4">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:M15">
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="4">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="0">
-      <formula>"Pass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="2">
-      <formula>"Blocked"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="3">
-      <formula>"In-Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="5">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="6">
+    <cfRule type="cellIs" priority="35" operator="equal" dxfId="6">
       <formula>"Cancelled"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="L5:L6 L10:L17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="L5:L10 L12 L16 L18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Pass, Fail, Blocked, NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29831,7 +29640,7 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -29854,33 +29663,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Remote Park Assist</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -29891,13 +29700,13 @@
 • Test Mobile where My Bentley App is installed is paired to Head Unit via Bluetooth</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -29916,7 +29725,7 @@
           <t>Test Priority</t>
         </is>
       </c>
-      <c r="E4" s="219" t="inlineStr">
+      <c r="E4" s="218" t="inlineStr">
         <is>
           <t>Overall Effort (in Mins)</t>
         </is>
@@ -33471,7 +33280,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -33494,33 +33303,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Add VIN</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use
@@ -33534,13 +33343,13 @@
                        3. Set 'Login Method' = 'idk(IDK - Solution)' / 'ping(PING - Solution)'   </t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -34549,8 +34358,8 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -34572,33 +34381,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Stolen Vehicle Tracking</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>1. Before starting each scenario, Please follow : 
 a. Ignition = Off
@@ -34607,13 +34416,13 @@
 d. While performing drive scenarios, Request to drive for &gt;500 m with Speed &gt;8Km/Hr on a straight road</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -34803,13 +34612,14 @@
       </c>
       <c r="G7" s="79" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed on IOS / ANDROID mobile device
-• Log In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed on IOS / ANDROID mobile device
+• Log In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H7" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated in a UK based vehicle 
 • Driver Card is activated and present in vehicle
@@ -34860,13 +34670,13 @@
       </c>
       <c r="G8" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H8" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Primary User Nomination process is successfully completed
+          <t>• Primary User Nomination process is successfully completed
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is not available</t>
         </is>
       </c>
@@ -34912,13 +34722,13 @@
       </c>
       <c r="G9" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed on IOS / Android Mobile device</t>
+          <t xml:space="preserve">• My Bentley App is installed on IOS / Android Mobile device
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H9" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled
-• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] active provisioned VIN is available 
+          <t>• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] active provisioned VIN is available 
 • Primary User Nomination process is successfully completed
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use</t>
         </is>
@@ -34974,13 +34784,13 @@
       </c>
       <c r="G10" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H10" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use</t>
@@ -35032,13 +34842,13 @@
       </c>
       <c r="G11" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H11" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed</t>
         </is>
@@ -35111,13 +34921,13 @@
       </c>
       <c r="G12" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H12" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully complted</t>
         </is>
@@ -35189,13 +34999,13 @@
       </c>
       <c r="G13" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H13" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed</t>
         </is>
@@ -35272,13 +35082,13 @@
       </c>
       <c r="G14" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H14" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed</t>
         </is>
@@ -35358,13 +35168,13 @@
       </c>
       <c r="G15" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H15" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed</t>
         </is>
@@ -35437,13 +35247,13 @@
       </c>
       <c r="G16" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H16" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed</t>
         </is>
@@ -35503,13 +35313,13 @@
       </c>
       <c r="G17" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H17" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
+          <t>• Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed</t>
         </is>
@@ -35572,14 +35382,14 @@
       </c>
       <c r="G18" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed on IOS / ANDROID mobile device
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed on IOS / ANDROID mobile device
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H18" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
-• HU is up and focus is in HMI screen
+          <t>• HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card not present in vehicle
 • Customer and Vehicle are present in the registered country and is latched to a Parent Network(i.e. Ex : Vodafone UK)
@@ -35638,10 +35448,14 @@
           <t>Examination of  'Driver card not found' message on Kombi screen</t>
         </is>
       </c>
-      <c r="G19" s="53" t="n"/>
+      <c r="G19" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• Internet Service should be enabled </t>
+        </is>
+      </c>
       <c r="H19" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card not present in vehicle
@@ -35689,10 +35503,14 @@
           <t>Check whether VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Alert or Notification received to customer when vehicle is moved while a Driver Card is out of the read range</t>
         </is>
       </c>
-      <c r="G20" s="53" t="n"/>
+      <c r="G20" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• Internet Service should be enabled </t>
+        </is>
+      </c>
       <c r="H20" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card present in vehicle
@@ -35745,10 +35563,14 @@
           <t>Examination of moving the vehicle with driver card when privacy Mode is ON.</t>
         </is>
       </c>
-      <c r="G21" s="53" t="n"/>
+      <c r="G21" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• Internet Service should be enabled </t>
+        </is>
+      </c>
       <c r="H21" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card present in vehicle
@@ -35803,10 +35625,14 @@
           <t>Examination of moving the vehicle without driver card when privacy Mode is ON.</t>
         </is>
       </c>
-      <c r="G22" s="53" t="n"/>
+      <c r="G22" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• Internet Service should be enabled </t>
+        </is>
+      </c>
       <c r="H22" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card not present in vehicle
@@ -35862,12 +35688,13 @@
       </c>
       <c r="G23" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H23" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card present in vehicle
@@ -35923,12 +35750,13 @@
       </c>
       <c r="G24" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H24" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed</t>
@@ -35990,11 +35818,12 @@
       </c>
       <c r="G25" s="53" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • My Bentley App is installed in either Apple or Android mobile devices
-• Primary User Nomination process is successfully completed</t>
+• Primary User Nomination process is successfully completed
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H25" s="79" t="n"/>
@@ -36056,12 +35885,13 @@
       </c>
       <c r="G26" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H26" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Garage Mode is enabled with set time
@@ -36119,12 +35949,13 @@
       </c>
       <c r="G27" s="53" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • My Bentley App is installed in either Apple or Android mobile devices
 • Garage Mode is enabled with set time
-• Primary User Nomination process is successfully completed</t>
+• Primary User Nomination process is successfully completed
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H27" s="79" t="n"/>
@@ -36184,12 +36015,13 @@
       </c>
       <c r="G28" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H28" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed</t>
@@ -36250,12 +36082,13 @@
       </c>
       <c r="G29" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H29" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed</t>
@@ -36319,12 +36152,13 @@
       </c>
       <c r="G30" s="53" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • My Bentley App is installed in either Apple or Android mobile devices
 • Transport Mode is enabled with set time
-• Primary User Nomination process is successfully completed</t>
+• Primary User Nomination process is successfully completed
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H30" s="79" t="n"/>
@@ -36379,12 +36213,13 @@
       </c>
       <c r="G31" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H31" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Transport Mode is enabled with set time
@@ -36447,11 +36282,12 @@
       </c>
       <c r="G32" s="53" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • My Bentley App is installed in either Apple or Android mobile devices
-• Primary User Nomination process is successfully completed</t>
+• Primary User Nomination process is successfully completed
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H32" s="79" t="n"/>
@@ -36510,12 +36346,13 @@
       </c>
       <c r="G33" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H33" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed</t>
@@ -36579,12 +36416,13 @@
       </c>
       <c r="G34" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H34" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Deactivation Mode is enabled with set time
@@ -36642,12 +36480,13 @@
       </c>
       <c r="G35" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H35" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Deactivation Mode is enabled with set time
@@ -36710,14 +36549,15 @@
       </c>
       <c r="G36" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
 • Log-In to My Bentley App with valid credentials
-• Transport Mode = On</t>
+• Transport Mode = On
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H36" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -36792,13 +36632,14 @@
       </c>
       <c r="G37" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H37" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -36852,8 +36693,9 @@
       </c>
       <c r="G38" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H38" s="79" t="inlineStr">
@@ -36908,13 +36750,14 @@
       </c>
       <c r="G39" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H39" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -36972,13 +36815,14 @@
       </c>
       <c r="G40" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H40" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -37037,13 +36881,14 @@
       </c>
       <c r="G41" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H41" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -37102,13 +36947,14 @@
       </c>
       <c r="G42" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H42" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -37167,13 +37013,14 @@
       </c>
       <c r="G43" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H43" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -37232,7 +37079,8 @@
       </c>
       <c r="G44" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H44" s="79" t="inlineStr">
@@ -37293,12 +37141,12 @@
         <is>
           <t xml:space="preserve">
 • My Bentley App is installed in either Apple or Android mobile devices
-</t>
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H45" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Customer (Tester -1 ) and Vehicle are present in the registered country and is latched to a Parent Network(i.e. Ex : Vodafone UK)
@@ -37351,12 +37199,12 @@
         <is>
           <t xml:space="preserve">
 • My Bentley App is installed in either Apple or Android mobile devices
-</t>
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H46" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card not present in vehicle
@@ -37418,12 +37266,13 @@
       <c r="G47" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-• My Bentley App is installed in either Apple or Android mobile devices</t>
+• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H47" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card not present in vehicle
@@ -37483,12 +37332,13 @@
           <t xml:space="preserve">
 • My Bentley App is installed on IOS / ANDROID mobile device
 • Log-In to My Bentley App with valid credentials
-• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use</t>
+• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H48" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Damage the Driver Card(i.e. Remove the Driver Card Battery)
@@ -37543,10 +37393,14 @@
           <t>Vehicle VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Ownership change process</t>
         </is>
       </c>
-      <c r="G49" s="53" t="n"/>
+      <c r="G49" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">• Internet Service should be enabled </t>
+        </is>
+      </c>
       <c r="H49" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card present in vehicle
@@ -37715,12 +37569,13 @@
           <t xml:space="preserve">
 • My Bentley App is installed on IOS / ANDROID mobile device
 • Log-In to My Bentley App with valid credentials
-• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use</t>
+• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H50" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service activated Driver Card not present in vehicle
@@ -37780,12 +37635,13 @@
       <c r="G51" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-• My Bentley App is installed in either Apple or Android mobile devices</t>
+• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H51" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed
@@ -37836,12 +37692,13 @@
         <is>
           <t xml:space="preserve">
 • My Bentley App is installed on IOS / ANDROID mobile device
-• Log-In to My Bentley App with valid credentials</t>
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H52" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • HU is up and focus is in HMI screen
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service deactivated Driver Card present in vehicle(i.e. Remove Battery of Driver Card)
@@ -37897,14 +37754,15 @@
       </c>
       <c r="G53" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in IOS / ANDROID device
+          <t xml:space="preserve">• My Bentley App is installed in IOS / ANDROID device
 • Log-In to My Bentley App with valid credentials
-• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use</t>
+• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H53" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available 
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -37959,12 +37817,13 @@
           <t xml:space="preserve">
 • My Bentley App is installed in IOS / ANDROID device
 • Log-In to My Bentley App with valid credentials
-• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use</t>
+• VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is active and in use
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H54" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available 
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -38016,13 +37875,14 @@
       </c>
       <c r="G55" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in IOS / ANDROID device
-• Log-In to My Bentley App with valid credentials</t>
+          <t xml:space="preserve">• My Bentley App is installed in IOS / ANDROID device
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H55" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available 
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -38076,12 +37936,13 @@
         <is>
           <t xml:space="preserve">
 • My Bentley App is installed in IOS / ANDROID device
-• Log-In to My Bentley App with valid credentials</t>
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H56" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available 
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -38137,12 +37998,13 @@
       <c r="G57" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-• My Bentley App is installed in either Apple or Android mobile devices</t>
+• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H57" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service 
 • Customer(Tester -1 ) and Vehicle are present in the registered country and is latched to a Parent Network(i.e. Ex : Vodafone UK)
@@ -38198,14 +38060,14 @@
       </c>
       <c r="G58" s="53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t>• Internet Service should be enabled 
 • My Bentley App is installed in IOS / ANDROID device
 • Log-In to My Bentley App with valid credentials</t>
         </is>
       </c>
       <c r="H58" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available 
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -38264,12 +38126,13 @@
       </c>
       <c r="G59" s="53" t="inlineStr">
         <is>
-          <t>• My Bentley App is installed in either Apple or Android mobile devices</t>
+          <t xml:space="preserve">• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H59" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed
@@ -38344,13 +38207,13 @@
       </c>
       <c r="G60" s="53" t="inlineStr">
         <is>
+          <t>• Internet Service should be enabled 
+• My Bentley App is installed in either Apple or Android mobile devices</t>
+        </is>
+      </c>
+      <c r="H60" s="79" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-• My Bentley App is installed in either Apple or Android mobile devices</t>
-        </is>
-      </c>
-      <c r="H60" s="79" t="inlineStr">
-        <is>
-          <t>• Internet Service should be enabled 
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is active
 • Primary User Nomination process is successfully completed
@@ -38429,12 +38292,12 @@
         <is>
           <t xml:space="preserve">
 • My Bentley App is installed in either Apple or Android mobile devices
-</t>
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H61" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is not active• Primary User Nomination process is successfully completed
 • Customer Name Information(i.e. First Name , Last Name) &amp; Email Information provided as a part of VIN adding process</t>
@@ -38507,12 +38370,13 @@
       <c r="G62" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-• My Bentley App is installed in either Apple or Android mobile devices</t>
+• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H62" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is not active
 • Primary User Nomination process is successfully completed
@@ -38586,12 +38450,13 @@
       <c r="G63" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">
-• My Bentley App is installed in either Apple or Android mobile devices</t>
+• My Bentley App is installed in either Apple or Android mobile devices
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H63" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service and is not active
 • Primary User Nomination process is successfully completed
@@ -38670,12 +38535,13 @@
         <is>
           <t xml:space="preserve">
 • My Bentley App is installed in IOS / ANDROID device
-• Log-In to My Bentley App with valid credentials</t>
+• Log-In to My Bentley App with valid credentials
+• Internet Service should be enabled </t>
         </is>
       </c>
       <c r="H64" s="79" t="inlineStr">
         <is>
-          <t>• Internet Service should be enabled 
+          <t xml:space="preserve">
 • Valid VTS [Vehicle Tracking System / Stolen Vehicle Tracking] License is available 
 • Vehicle is provisioned with VTS [Vehicle Tracking System / Stolen Vehicle Tracking] Service
 • Primary User Nomination process is successfully completed
@@ -38815,7 +38681,7 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -38835,39 +38701,39 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>App Registration Pages</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -38879,13 +38745,13 @@
                        3. Set 'Login Method' = 'idk(IDK - Solution)' / 'ping(PING - Solution)'  </t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1">
       <c r="A4" t="inlineStr"/>
@@ -39463,7 +39329,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -39501,46 +39367,46 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n"/>
-      <c r="B2" s="232" t="inlineStr">
+      <c r="B2" s="231" t="inlineStr">
         <is>
           <t>App Log in-Log out</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="233" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="232" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n"/>
-      <c r="B3" s="234" t="inlineStr">
+      <c r="B3" s="233" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="226" t="n"/>
-      <c r="D3" s="234" t="n"/>
+      <c r="C3" s="225" t="n"/>
+      <c r="D3" s="233" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before starting the testing of this service
 • My Bentley app should be installed in the mobile</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="inlineStr"/>
@@ -40045,8 +39911,8 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -40065,8 +39931,8 @@
     <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
     <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="46" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -40086,34 +39952,34 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="43" t="n"/>
-      <c r="B2" s="232" t="inlineStr">
+      <c r="B2" s="231" t="inlineStr">
         <is>
           <t>Nickname</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="233" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="232" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="43" t="n"/>
-      <c r="B3" s="234" t="inlineStr">
+      <c r="B3" s="233" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="226" t="n"/>
-      <c r="D3" s="234" t="n"/>
+      <c r="C3" s="225" t="n"/>
+      <c r="D3" s="233" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before starting the testing of this service
 • My Bentley app should be installed in the mobile
@@ -40121,13 +39987,13 @@
 • Primary user registration process is completed successfully</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" s="43" t="inlineStr"/>
@@ -40692,11 +40558,7 @@
           <t>Verify all the screen with Bentley style guide.</t>
         </is>
       </c>
-      <c r="G14" s="62" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
+      <c r="G14" s="62" t="n"/>
       <c r="H14" s="53" t="n"/>
       <c r="I14" s="62" t="inlineStr">
         <is>
@@ -40806,7 +40668,7 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -40826,41 +40688,41 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="43" t="n"/>
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Services and licenses</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="43" t="n"/>
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -40870,13 +40732,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" s="43" t="inlineStr"/>
@@ -41623,8 +41485,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -41643,52 +41505,52 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="227" t="inlineStr">
+      <c r="B2" s="226" t="inlineStr">
         <is>
           <t>Vehicle Status Report</t>
         </is>
       </c>
-      <c r="C2" s="228" t="n"/>
-      <c r="D2" s="228" t="n"/>
-      <c r="E2" s="228" t="n"/>
-      <c r="F2" s="228" t="n"/>
-      <c r="G2" s="228" t="n"/>
-      <c r="H2" s="228" t="n"/>
-      <c r="I2" s="228" t="n"/>
-      <c r="J2" s="228" t="n"/>
-      <c r="K2" s="228" t="n"/>
-      <c r="L2" s="228" t="n"/>
-      <c r="M2" s="229" t="n"/>
+      <c r="C2" s="227" t="n"/>
+      <c r="D2" s="227" t="n"/>
+      <c r="E2" s="227" t="n"/>
+      <c r="F2" s="227" t="n"/>
+      <c r="G2" s="227" t="n"/>
+      <c r="H2" s="227" t="n"/>
+      <c r="I2" s="227" t="n"/>
+      <c r="J2" s="227" t="n"/>
+      <c r="K2" s="227" t="n"/>
+      <c r="L2" s="227" t="n"/>
+      <c r="M2" s="228" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="230" t="inlineStr">
+      <c r="B3" s="229" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
+      <c r="C3" s="224" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="224" t="inlineStr">
+      <c r="F3" s="223" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
 • Primary user registration process is completed successfully</t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="226" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="225" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -41951,14 +41813,11 @@
         <is>
           <t xml:space="preserve">• The screen focus is in "My Bentley App - DASHBOARD" page
 ( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off
 </t>
         </is>
       </c>
-      <c r="H8" s="53" t="inlineStr">
-        <is>
-          <t>• Ignition is Off</t>
-        </is>
-      </c>
+      <c r="H8" s="53" t="n"/>
       <c r="I8" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve">Wait for 45 Seconds --&gt; Refresh the data(i.e. Swipe down the Dashboard screen) --&gt; Tap on “Update Vehicle Data” link from the notification pop up. </t>
@@ -41977,7 +41836,7 @@
       <c r="M8" s="54" t="n"/>
       <c r="N8" s="110" t="n"/>
     </row>
-    <row r="9" ht="138.75" customHeight="1">
+    <row r="9" ht="151.5" customHeight="1">
       <c r="B9" s="50" t="n">
         <v>5</v>
       </c>
@@ -42002,15 +41861,11 @@
       <c r="G9" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in Combined range section of "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H9" s="53" t="inlineStr">
-        <is>
-          <t>• Ensure vehicle has some fuel in the tank.
-•  Ignition is Off</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off</t>
+        </is>
+      </c>
+      <c r="H9" s="53" t="n"/>
       <c r="I9" s="53" t="inlineStr">
         <is>
           <t>Refresh the data(i.e. Swipe down the Dashboard screen) --&gt; Tap on “Update Vehicle Data” link from the notification pop up --&gt; Note the fuel level &amp; range values in the kombi display and compare with the values displayed under Combined range section of My Bentley App DASHBOARD page in percentage and range in miles/kms.</t>
@@ -42053,15 +41908,11 @@
       <c r="G10" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in Combined range section of "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H10" s="53" t="inlineStr">
-        <is>
-          <t>• Ensure vehicle has some fuel in the tank some charge in the PHEV/BEV traction battery.
-• Ignition off</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off</t>
+        </is>
+      </c>
+      <c r="H10" s="53" t="n"/>
       <c r="I10" s="53" t="inlineStr">
         <is>
           <t>Refresh the data(i.e. Swipe down the Dashboard screen) --&gt; Tap on “Update Vehicle Data” link from the notification pop up --&gt; Note the SOC ,Fuel level &amp; range values in the kombi display and compare with the values displayed under Combined range section of My Bentley App DASHBOARD page in percentage and range in miles/kms.</t>
@@ -42079,7 +41930,7 @@
       <c r="M10" s="54" t="n"/>
       <c r="N10" s="110" t="n"/>
     </row>
-    <row r="11" ht="123.75" customHeight="1">
+    <row r="11" ht="150.75" customHeight="1">
       <c r="B11" s="50" t="n">
         <v>9</v>
       </c>
@@ -42104,14 +41955,11 @@
       <c r="G11" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in Mileage section of "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H11" s="53" t="inlineStr">
-        <is>
-          <t>• Ignition is Off</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off</t>
+        </is>
+      </c>
+      <c r="H11" s="53" t="n"/>
       <c r="I11" s="53" t="inlineStr">
         <is>
           <t>Refresh the data(i.e. Swipe down the Dashboard screen) --&gt; Tap on “Update Vehicle Data” link from the notification pop up --&gt; Note the Mileage data under Mileage section of My Bentley App DASHBOARD page.</t>
@@ -42129,7 +41977,7 @@
       <c r="M11" s="54" t="n"/>
       <c r="N11" s="110" t="n"/>
     </row>
-    <row r="12" ht="126" customHeight="1">
+    <row r="12" ht="135.75" customHeight="1">
       <c r="B12" s="50" t="n">
         <v>10</v>
       </c>
@@ -42154,14 +42002,11 @@
       <c r="G12" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H12" s="53" t="inlineStr">
-        <is>
-          <t>• Ignition is Off</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off</t>
+        </is>
+      </c>
+      <c r="H12" s="53" t="n"/>
       <c r="I12" s="53" t="inlineStr">
         <is>
           <t>1. Change display units in MMI/Kombi to Imperial units
@@ -42179,7 +42024,7 @@
       <c r="M12" s="54" t="n"/>
       <c r="N12" s="110" t="n"/>
     </row>
-    <row r="13" ht="126" customHeight="1">
+    <row r="13" ht="145.5" customHeight="1">
       <c r="B13" s="50" t="n">
         <v>11</v>
       </c>
@@ -42204,14 +42049,11 @@
       <c r="G13" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H13" s="53" t="inlineStr">
-        <is>
-          <t>• Ignition is Off</t>
-        </is>
-      </c>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off</t>
+        </is>
+      </c>
+      <c r="H13" s="53" t="n"/>
       <c r="I13" s="53" t="inlineStr">
         <is>
           <t>1. Change display units in MMI/Kombi to Imperial units
@@ -42359,11 +42201,7 @@
       </c>
       <c r="H16" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Doors Section status : 
-• Driver Door: Closed
-• Front Co Passenger Door: Closed
-• Rear Left Passenger Door: Closed
-• Rear Right Passenger Door: Closed</t>
+          <t>Dashboard Doors Section status :|All doors closed</t>
         </is>
       </c>
       <c r="I16" s="53" t="inlineStr">
@@ -42416,11 +42254,7 @@
       </c>
       <c r="H17" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Doors Section status : 
-• Driver Door: Opened
-• Front Co Passenger Door: Closed
-• Rear Left Passenger Door: Closed
-• Rear Right Passenger Door: Closed</t>
+          <t>Dashboard Doors Section status : Driver Door: Opened | Other doors: Closed</t>
         </is>
       </c>
       <c r="I17" s="53" t="inlineStr">
@@ -42474,11 +42308,7 @@
       </c>
       <c r="H18" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Doors Section status : 
-• Driver Door: Opened
-• Front Co Passenger Door: Opened
-• Rear Left Passenger Door: Closed
-• Rear Right Passenger Door: Closed</t>
+          <t>Dashboard Doors Section status : |Driver Door: Opened|Front Co Passenger Door: Opened|Other doors: Closed</t>
         </is>
       </c>
       <c r="I18" s="53" t="inlineStr">
@@ -42532,11 +42362,7 @@
       </c>
       <c r="H19" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Doors Section status : 
-• Driver Door: Opened
-• Front Co Passenger Door: Opened
-• Rear Left Passenger Door: Opened
-• Rear Right Passenger Door: Closed</t>
+          <t>Dashboard Doors Section status :|Driver Door: Opened|Front Co Passenger Door: Opened|Rear Left Passenger Door: Opened| Rear Right Passenger Door: Closed</t>
         </is>
       </c>
       <c r="I19" s="53" t="inlineStr">
@@ -42590,11 +42416,7 @@
       </c>
       <c r="H20" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Doors Section status : 
-• Driver Door: Opened
-• Front Co Passenger Door: Opened
-• Rear Left Passenger Door: Opened
-• Rear Right Passenger Door: Opened</t>
+          <t>Dashboard Doors Section status :|All doors openend</t>
         </is>
       </c>
       <c r="I20" s="53" t="inlineStr">
@@ -42648,12 +42470,7 @@
       </c>
       <c r="H21" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Windows Section status : 
-• Driver Window: Closed
-• Front Co Passenger Window: Closed
-• Rear Left Passenger Window: Closed
-• Rear Right Passenger Window: Closed
-• Sunroof: Closed</t>
+          <t>Dashboard Windows Section status :|All windows and sunroof closed</t>
         </is>
       </c>
       <c r="I21" s="53" t="inlineStr">
@@ -42708,12 +42525,7 @@
       </c>
       <c r="H22" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Windows Section status : 
-• Driver Window: Opened
-• Front Co Passenger Window: Closed
-• Rear Left Passenger Window: Closed
-• Rear Right Passenger Window: Closed
-• Sunroof: Closed</t>
+          <t>Dashboard Windows Section status :|Driver Window: Opened|Other windows/sunroof: Closed</t>
         </is>
       </c>
       <c r="I22" s="53" t="inlineStr">
@@ -42768,12 +42580,7 @@
       </c>
       <c r="H23" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Windows Section status : 
-• Driver Window: Opened
-• Front Co Passenger Window: Opened
-• Rear Left Passenger Window: Closed
-• Rear Right Passenger Window: Closed
-• Sunroof: Closed</t>
+          <t>Dashboard Windows Section status :|Driver Window: Opened|Front Co Passenger Window: Opened|Other windows/sunroof: Closed</t>
         </is>
       </c>
       <c r="I23" s="53" t="inlineStr">
@@ -42828,12 +42635,7 @@
       </c>
       <c r="H24" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Windows Section status : 
-• Driver Window: Opened
-• Front Co Passenger Window: Opened
-• Rear Left Passenger Window: Opened
-• Rear Right Passenger Window: Closed
-• Sunroof: Closed</t>
+          <t>Dashboard Windows Section status :|Driver Window: Opened|Front Co Passenger Window: Opened|Rear Left Passenger Window: Opened|Rear Right Passenger Window: Closed|Sunroof: Closed</t>
         </is>
       </c>
       <c r="I24" s="53" t="inlineStr">
@@ -42888,12 +42690,7 @@
       </c>
       <c r="H25" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Windows Section status : 
-• Driver Window: Opened
-• Front Co Passenger Window: Opened
-• Rear Left Passenger Window: Opened
-• Rear Right Passenger Window: Opened
-• Sunroof: Closed</t>
+          <t>Dashboard Windows Section status :|Driver Window: Opened| Front Co Passenger Window: Opened|Rear Left Passenger Window: Opened|Rear Right Passenger Window: Opened|Sunroof: Closed</t>
         </is>
       </c>
       <c r="I25" s="53" t="inlineStr">
@@ -42948,12 +42745,7 @@
       </c>
       <c r="H26" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Windows Section status : 
-• Driver Window: Opened
-• Front Co Passenger Window: Opened
-• Rear Left Passenger Window: Opened
-• Rear Right Passenger Window: Opened
-• Sunroof: Opened</t>
+          <t>Dashboard Windows Section status :|All windows and sunroof opened</t>
         </is>
       </c>
       <c r="I26" s="53" t="inlineStr">
@@ -43008,9 +42800,7 @@
       </c>
       <c r="H27" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Boot &amp; Bonnet Section status : 
-• Boot: Closed
-• Bonnet: Closed</t>
+          <t>Dashboard Boot &amp; Bonnet Section status :|Closed</t>
         </is>
       </c>
       <c r="I27" s="53" t="inlineStr">
@@ -43061,9 +42851,7 @@
       </c>
       <c r="H28" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Boot &amp; Bonnet Section status : 
-• Boot: Opened
-• Bonnet: Closed</t>
+          <t>Dashboard Boot &amp; Bonnet Section status :|Boot: Opened|Bonnet: Closed</t>
         </is>
       </c>
       <c r="I28" s="53" t="inlineStr">
@@ -43114,9 +42902,7 @@
       </c>
       <c r="H29" s="53" t="inlineStr">
         <is>
-          <t>* Dashboard Boot &amp; Bonnet Section status : 
-• Boot: Opened
-• Bonnet: Opened</t>
+          <t>Dashboard Boot &amp; Bonnet Section status :|Opened</t>
         </is>
       </c>
       <c r="I29" s="53" t="inlineStr">
@@ -43137,7 +42923,7 @@
       <c r="M29" s="71" t="n"/>
       <c r="N29" s="72" t="n"/>
     </row>
-    <row r="30" ht="126" customHeight="1">
+    <row r="30" ht="156" customHeight="1">
       <c r="B30" s="50" t="n">
         <v>26</v>
       </c>
@@ -43162,14 +42948,13 @@
       <c r="G30" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in Lights section of "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off</t>
         </is>
       </c>
       <c r="H30" s="53" t="inlineStr">
         <is>
-          <t>• Ignition is Off
-* Dashboard Lights Section status : 
-• Lights: Off</t>
+          <t>Dashboard Lights Section status :|Lights: On</t>
         </is>
       </c>
       <c r="I30" s="53" t="inlineStr">
@@ -43189,7 +42974,7 @@
       <c r="M30" s="71" t="n"/>
       <c r="N30" s="72" t="n"/>
     </row>
-    <row r="31" ht="126" customHeight="1">
+    <row r="31" ht="152.25" customHeight="1">
       <c r="B31" s="50" t="n">
         <v>27</v>
       </c>
@@ -43214,13 +42999,13 @@
       <c r="G31" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in Lights section of "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is Off</t>
         </is>
       </c>
       <c r="H31" s="53" t="inlineStr">
         <is>
-          <t>• Ignition is Off
-* Dashboard Lights Section status : Lights: On</t>
+          <t>Dashboard Lights Section status :|Lights: On</t>
         </is>
       </c>
       <c r="I31" s="53" t="inlineStr">
@@ -43517,8 +43302,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -43537,39 +43322,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="45"/>
-    <col width="8.7109375" customWidth="1" style="2" min="46" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
+    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="237" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Remote Lock-Unlock</t>
         </is>
       </c>
-      <c r="C2" s="225" t="n"/>
-      <c r="D2" s="225" t="n"/>
-      <c r="E2" s="225" t="n"/>
-      <c r="F2" s="225" t="n"/>
-      <c r="G2" s="225" t="n"/>
-      <c r="H2" s="225" t="n"/>
-      <c r="I2" s="225" t="n"/>
-      <c r="J2" s="225" t="n"/>
-      <c r="K2" s="225" t="n"/>
-      <c r="L2" s="225" t="n"/>
-      <c r="M2" s="236" t="n"/>
+      <c r="C2" s="224" t="n"/>
+      <c r="D2" s="224" t="n"/>
+      <c r="E2" s="224" t="n"/>
+      <c r="F2" s="224" t="n"/>
+      <c r="G2" s="224" t="n"/>
+      <c r="H2" s="224" t="n"/>
+      <c r="I2" s="224" t="n"/>
+      <c r="J2" s="224" t="n"/>
+      <c r="K2" s="224" t="n"/>
+      <c r="L2" s="224" t="n"/>
+      <c r="M2" s="235" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="238" t="inlineStr">
+      <c r="B3" s="237" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="236" t="n"/>
+      <c r="C3" s="235" t="n"/>
       <c r="D3" s="187" t="n"/>
       <c r="E3" s="188" t="n"/>
-      <c r="F3" s="235" t="inlineStr">
+      <c r="F3" s="234" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -43580,13 +43365,13 @@
 </t>
         </is>
       </c>
-      <c r="G3" s="225" t="n"/>
-      <c r="H3" s="225" t="n"/>
-      <c r="I3" s="225" t="n"/>
-      <c r="J3" s="225" t="n"/>
-      <c r="K3" s="225" t="n"/>
-      <c r="L3" s="225" t="n"/>
-      <c r="M3" s="236" t="n"/>
+      <c r="G3" s="224" t="n"/>
+      <c r="H3" s="224" t="n"/>
+      <c r="I3" s="224" t="n"/>
+      <c r="J3" s="224" t="n"/>
+      <c r="K3" s="224" t="n"/>
+      <c r="L3" s="224" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -43725,13 +43510,13 @@
       <c r="G6" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed</t>
         </is>
       </c>
       <c r="H6" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is locked
+          <t>• Vehicle is locked
 Ignition is Off</t>
         </is>
       </c>
@@ -43778,13 +43563,13 @@
       <c r="G7" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed</t>
         </is>
       </c>
       <c r="H7" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is unlocked
+          <t>• Vehicle is unlocked
 • Ignition is ON</t>
         </is>
       </c>
@@ -43831,13 +43616,13 @@
       <c r="G8" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed</t>
         </is>
       </c>
       <c r="H8" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is unlocked
+          <t>• Vehicle is unlocked
 Ignition is Off</t>
         </is>
       </c>
@@ -43884,13 +43669,13 @@
       <c r="G9" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed</t>
         </is>
       </c>
       <c r="H9" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is locked
+          <t>• Vehicle is locked
 • Ignition is ON</t>
         </is>
       </c>
@@ -44030,14 +43815,14 @@
       <c r="G12" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H12" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is unlocked
-• Ignition is OFF</t>
+          <t>• Vehicle is unlocked</t>
         </is>
       </c>
       <c r="I12" s="53" t="inlineStr">
@@ -44055,7 +43840,7 @@
       <c r="M12" s="71" t="n"/>
       <c r="N12" s="72" t="n"/>
     </row>
-    <row r="13" ht="114" customHeight="1">
+    <row r="13" ht="147" customHeight="1">
       <c r="B13" s="50" t="n">
         <v>9</v>
       </c>
@@ -44080,14 +43865,14 @@
       <c r="G13" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H13" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is locked
-• Ignition is OFF</t>
+          <t>• Vehicle is locked</t>
         </is>
       </c>
       <c r="I13" s="53" t="inlineStr">
@@ -44106,7 +43891,7 @@
       <c r="M13" s="71" t="n"/>
       <c r="N13" s="72" t="n"/>
     </row>
-    <row r="14" ht="115.5" customHeight="1">
+    <row r="14" ht="154.5" customHeight="1">
       <c r="B14" s="50" t="n">
         <v>10</v>
       </c>
@@ -44131,14 +43916,14 @@
       <c r="G14" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H14" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is unlocked
-• Ignition is OFF</t>
+          <t>• Vehicle is unlocked</t>
         </is>
       </c>
       <c r="I14" s="53" t="inlineStr">
@@ -44157,7 +43942,7 @@
       <c r="M14" s="71" t="n"/>
       <c r="N14" s="72" t="n"/>
     </row>
-    <row r="15" ht="116.25" customHeight="1">
+    <row r="15" ht="150.75" customHeight="1">
       <c r="B15" s="50" t="n">
         <v>11</v>
       </c>
@@ -44182,14 +43967,14 @@
       <c r="G15" s="71" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• All Doors are closed
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H15" s="53" t="inlineStr">
         <is>
-          <t>• All Doors are closed
-• Vehicle is unlocked
-• Ignition is OFF</t>
+          <t>• Vehicle is unlocked</t>
         </is>
       </c>
       <c r="I15" s="53" t="inlineStr">
@@ -44209,7 +43994,7 @@
       <c r="M15" s="71" t="n"/>
       <c r="N15" s="72" t="n"/>
     </row>
-    <row r="16" ht="115.5" customHeight="1">
+    <row r="16" ht="132" customHeight="1">
       <c r="B16" s="50" t="n">
         <v>12</v>
       </c>
@@ -44234,14 +44019,14 @@
       <c r="G16" s="67" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H16" s="53" t="inlineStr">
         <is>
           <t>• Keep the Fob Key inside the vehicle
-• Vehicle is unlocked
-• Ignition is OFF</t>
+• Vehicle is unlocked</t>
         </is>
       </c>
       <c r="I16" s="53" t="inlineStr">
@@ -44262,7 +44047,7 @@
       <c r="M16" s="71" t="n"/>
       <c r="N16" s="72" t="n"/>
     </row>
-    <row r="17" ht="117.75" customHeight="1">
+    <row r="17" ht="135" customHeight="1">
       <c r="B17" s="50" t="n">
         <v>13</v>
       </c>
@@ -44287,14 +44072,14 @@
       <c r="G17" s="67" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H17" s="53" t="inlineStr">
         <is>
           <t>• Keep the Fob Key inside the vehicle
-• Vehicle is locked
-• Ignition is OFF</t>
+• Vehicle is locked</t>
         </is>
       </c>
       <c r="I17" s="53" t="inlineStr">
@@ -44339,13 +44124,13 @@
       <c r="G18" s="67" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H18" s="53" t="inlineStr">
         <is>
-          <t>• Vehicle is unlocked
-• Ignition is OFF</t>
+          <t>• Vehicle is unlocked</t>
         </is>
       </c>
       <c r="I18" s="53" t="inlineStr">
@@ -44366,7 +44151,7 @@
       <c r="M18" s="71" t="n"/>
       <c r="N18" s="72" t="n"/>
     </row>
-    <row r="19" ht="115.5" customHeight="1">
+    <row r="19" ht="134.25" customHeight="1">
       <c r="B19" s="50" t="n">
         <v>15</v>
       </c>
@@ -44391,14 +44176,14 @@
       <c r="G19" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen ) 
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H19" s="53" t="inlineStr">
         <is>
           <t>• Driver door open but other doors closed
-• Vehicle is unlocked
-• Ignition is OFF</t>
+• Vehicle is unlocked</t>
         </is>
       </c>
       <c r="I19" s="53" t="inlineStr">
@@ -44444,14 +44229,14 @@
       <c r="G20" s="53" t="inlineStr">
         <is>
           <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Ignition is OFF</t>
         </is>
       </c>
       <c r="H20" s="53" t="inlineStr">
         <is>
           <t>• A door/bonnet is open other than the driver door
-• Vehicle is unlocked
-• Ignition is OFF</t>
+• Vehicle is unlocked</t>
         </is>
       </c>
       <c r="I20" s="53" t="inlineStr">
@@ -44494,11 +44279,7 @@
           <t>Verify all the screen with Bentley style guide.</t>
         </is>
       </c>
-      <c r="G21" s="62" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
+      <c r="G21" s="62" t="n"/>
       <c r="H21" s="62" t="n"/>
       <c r="I21" s="62" t="inlineStr">
         <is>

--- a/PythonProject/gui/Remote_Services.xlsx
+++ b/PythonProject/gui/Remote_Services.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" firstSheet="19" activeTab="29" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="778" firstSheet="5" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Demo Mode" sheetId="1" state="visible" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -191,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,6 +1283,36 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1333,7 +1369,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="533">
+  <dxfs count="529">
     <dxf>
       <font>
         <b val="1"/>
@@ -4759,67 +4795,33 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2" tint="-0.749961851863155"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <strike val="0"/>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4843,17 +4845,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.249946592608417"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8078,7 +8069,7 @@
       <col>1</col>
       <colOff>554703</colOff>
       <row>1</row>
-      <rowOff>354945</rowOff>
+      <rowOff>358120</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -11054,45 +11045,45 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Demo Mode</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • My Bentley App must be installed in the mobile phone successfully.</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -11971,39 +11962,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="17.5703125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Remote Honk &amp; Flash</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -12014,13 +12005,13 @@
 • Ignition = OFF &amp; Engine = OFF</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -13098,8 +13089,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -13136,34 +13127,34 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n"/>
-      <c r="B2" s="231" t="inlineStr">
+      <c r="B2" s="241" t="inlineStr">
         <is>
           <t>My Car Statistics</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="232" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="242" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n"/>
-      <c r="B3" s="233" t="inlineStr">
+      <c r="B3" s="243" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
-      <c r="D3" s="233" t="n"/>
+      <c r="C3" s="235" t="n"/>
+      <c r="D3" s="243" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • This service applicable for only on PHEV models
@@ -13176,13 +13167,13 @@
 </t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="inlineStr"/>
@@ -13698,79 +13689,32 @@
       </c>
       <c r="C13" s="51" t="inlineStr">
         <is>
-          <t>EUR, NAR, CHN</t>
-        </is>
-      </c>
-      <c r="D13" s="51" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E13" s="52" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" s="53" t="inlineStr">
-        <is>
-          <t>Verify Single Service Activation / Deactivation of 'My Car Statistics' service in SERVICE MANAGEMENT screen</t>
-        </is>
-      </c>
-      <c r="G13" s="53" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - SERVICE MANAGEMENT" page
-(My Bentley App --&gt;SIGN IN --&gt; Vehicle "DASHBOARD" Screen --&gt;  Select "i" icon --&gt; SERVICE MANAGEMENT screen)</t>
-        </is>
-      </c>
-      <c r="H13" s="53" t="n"/>
-      <c r="I13" s="53" t="inlineStr">
-        <is>
-          <t>1. In 'SERVICE MANAGEMENT' screen,  Select 'MY CAR STATISTICS' = Activate / Deactivate
-2. Go to CAR REMOTE screen and check the 'MY CAR STATISTICS' section</t>
-        </is>
-      </c>
-      <c r="J13" s="77" t="inlineStr">
-        <is>
-          <t>In My Bentley App, Under 'CAR REMOTE' screen
-1. MY CAR STATISTICS = Deactivate --&gt; 'MY CAR STATISTICS' Service should not be accessible under CAR REMOTE Screen(i.e. Under CAR REMOTE screen , 'MY CAR STATISTICS' section should be greyed out and should display 'Function disabled' text)
-2. MY CAR STATISTICS = Activate --&gt; 'MY CAR STATISTICS' Service should be active and accessible under CAR REMOTE Screen</t>
-        </is>
-      </c>
-      <c r="K13" s="53" t="n"/>
-      <c r="L13" s="54" t="n"/>
-      <c r="M13" s="107" t="n"/>
-      <c r="N13" s="108" t="n"/>
-    </row>
-    <row r="14" ht="160.5" customHeight="1">
-      <c r="B14" s="50" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="51" t="inlineStr">
-        <is>
           <t>EUR, 
 NAR,
 CHN</t>
         </is>
       </c>
-      <c r="D14" s="51" t="inlineStr">
+      <c r="D13" s="51" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E14" s="52" t="n">
+      <c r="E13" s="52" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="190" t="inlineStr">
+      <c r="F13" s="190" t="inlineStr">
         <is>
           <t>Verifying the unit type in My Car Statistics screen by changing unit under Units screen of My Bentley App</t>
         </is>
       </c>
-      <c r="G14" s="190" t="inlineStr">
+      <c r="G13" s="190" t="inlineStr">
         <is>
           <t>The focus of the screen is on Units page. 
 (Login My Bentley App -- &gt;User Profile icon --&gt; Gear icon--&gt; Units)</t>
         </is>
       </c>
-      <c r="H14" s="53" t="n"/>
-      <c r="I14" s="190" t="inlineStr">
+      <c r="H13" s="53" t="n"/>
+      <c r="I13" s="190" t="inlineStr">
         <is>
           <t>1. Change the  metrics / imperial units in 'Units' screen for the below sections : 
 a. UNITS
@@ -13780,17 +13724,18 @@
 2. Observe in MY CAR STATISTICS graphs in ( Car Remote  -- &gt; MY CAR STATISTICS screen )</t>
         </is>
       </c>
-      <c r="J14" s="53" t="inlineStr">
+      <c r="J13" s="53" t="inlineStr">
         <is>
           <t>1. User should be able to change to metrics / imperial units successfully
 2. The selected metrics / imperial units should be visible in Graphical &amp; List view in MY CAR STATISTICS screen</t>
         </is>
       </c>
-      <c r="K14" s="191" t="n"/>
-      <c r="L14" s="54" t="n"/>
-      <c r="M14" s="192" t="n"/>
-      <c r="N14" s="134" t="n"/>
-    </row>
+      <c r="K13" s="191" t="n"/>
+      <c r="L13" s="54" t="n"/>
+      <c r="M13" s="192" t="n"/>
+      <c r="N13" s="134" t="n"/>
+    </row>
+    <row r="14" ht="160.5" customHeight="1"/>
     <row r="15" ht="157.5" customHeight="1"/>
     <row r="16" ht="126" customFormat="1" customHeight="1" s="42">
       <c r="B16" s="12" t="n"/>
@@ -13822,7 +13767,7 @@
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K14">
+  <conditionalFormatting sqref="K5:K13">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="13">
       <formula>"Not Tested"</formula>
     </cfRule>
@@ -13842,17 +13787,12 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L14">
+  <conditionalFormatting sqref="K5:L13">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="0">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L13">
-    <cfRule type="cellIs" priority="52" operator="equal" dxfId="1">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L14">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="6">
       <formula>"Cancelled"</formula>
     </cfRule>
@@ -13868,28 +13808,12 @@
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="2">
       <formula>"Blocked"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" priority="43" operator="equal" dxfId="10">
-      <formula>"Not Tested"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="44" operator="equal" dxfId="9">
-      <formula>"Not Applicable"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="45" operator="equal" dxfId="248">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="1">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation sqref="K13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>"Pass,Fail,Not Applicable,Not Tested"</formula1>
-    </dataValidation>
-    <dataValidation sqref="L5:L14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+  <dataValidations count="1">
+    <dataValidation sqref="L5:L13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Pass, Fail, Blocked, NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13953,34 +13877,34 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n"/>
-      <c r="B2" s="231" t="inlineStr">
+      <c r="B2" s="241" t="inlineStr">
         <is>
           <t>My Cabin Comfort</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="232" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="242" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n"/>
-      <c r="B3" s="233" t="inlineStr">
+      <c r="B3" s="243" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
-      <c r="D3" s="233" t="n"/>
+      <c r="C3" s="235" t="n"/>
+      <c r="D3" s="243" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before starting the testing of this service
 • This service applicable for only on PHEV models
@@ -13999,13 +13923,13 @@
 • Make sure that 'My cabin comfort' is not active </t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="inlineStr"/>
@@ -15690,39 +15614,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="239" t="inlineStr">
+      <c r="B2" s="249" t="inlineStr">
         <is>
           <t>My Battery Charge</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="232" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="242" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="240" t="inlineStr">
+      <c r="B3" s="250" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="238" t="inlineStr">
+      <c r="F3" s="248" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • This service applicable for only on PHEV models
@@ -15734,13 +15658,13 @@
 • Battery Charger connected to Mains Voltage</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -16577,8 +16501,8 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -16597,39 +16521,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="16.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Service Management</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -16641,13 +16565,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -17527,33 +17451,33 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Activate Heating</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • This service applicable for EU Non-PHEV models
@@ -17565,13 +17489,13 @@
 • Make sure at least 30% of Fuel to be present in Fuel Tank</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -18130,39 +18054,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="20.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="241" t="inlineStr">
+      <c r="B2" s="251" t="inlineStr">
         <is>
           <t>Roadside Assistance</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="240" t="inlineStr">
+      <c r="B3" s="250" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="238" t="inlineStr">
+      <c r="F3" s="248" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Primary registration process is successfully completed. 
@@ -18171,13 +18095,13 @@
 • Mobile in good network reception area</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -18501,39 +18425,39 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="16.5703125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="43" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="43" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="43" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="43" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Data Services</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -18541,13 +18465,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -18980,39 +18904,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>My Alerts</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="243" t="inlineStr">
+      <c r="B3" s="253" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="227" t="n"/>
+      <c r="C3" s="237" t="n"/>
       <c r="D3" s="178" t="n"/>
       <c r="E3" s="179" t="n"/>
-      <c r="F3" s="242" t="inlineStr">
+      <c r="F3" s="252" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -19021,13 +18945,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="227" t="n"/>
-      <c r="H3" s="227" t="n"/>
-      <c r="I3" s="227" t="n"/>
-      <c r="J3" s="227" t="n"/>
-      <c r="K3" s="227" t="n"/>
-      <c r="L3" s="227" t="n"/>
-      <c r="M3" s="232" t="n"/>
+      <c r="G3" s="237" t="n"/>
+      <c r="H3" s="237" t="n"/>
+      <c r="I3" s="237" t="n"/>
+      <c r="J3" s="237" t="n"/>
+      <c r="K3" s="237" t="n"/>
+      <c r="L3" s="237" t="n"/>
+      <c r="M3" s="242" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -20065,33 +19989,33 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Theft Alarm</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Theft Alert service is having a valid license and in use
@@ -20101,13 +20025,13 @@
 2. My Bentley mobile app -- &gt; Service Management -- &gt; 'Theft alert' should be enabled</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -20772,28 +20696,28 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="18.7109375" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="46" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Customer Enrollment</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="30.75" customHeight="1" thickBot="1">
       <c r="B3" s="98" t="inlineStr">
@@ -20804,7 +20728,7 @@
       <c r="C3" s="99" t="n"/>
       <c r="D3" s="100" t="n"/>
       <c r="E3" s="100" t="n"/>
-      <c r="F3" s="230" t="inlineStr">
+      <c r="F3" s="240" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -20816,13 +20740,13 @@
                        3. Set 'Login Method' = 'idk(IDK - Solution)' / 'ping(PING - Solution)'  </t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="30.75" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -23599,33 +23523,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Stolen Vehicle Locator</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -23634,13 +23558,13 @@
 • 'Stolen Vehicle Locator' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -23976,33 +23900,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Audials</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -24010,13 +23934,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -24287,33 +24211,33 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Car Finder</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Car Finder service is having a valid license and in use
@@ -24324,13 +24248,13 @@
  The vehicle is in stationary &amp; connected to the network.</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -24850,39 +24774,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.42578125" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="241" t="inlineStr">
+      <c r="B2" s="251" t="inlineStr">
         <is>
           <t>Nav Companion</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="240" t="inlineStr">
+      <c r="B3" s="250" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="238" t="inlineStr">
+      <c r="F3" s="248" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -24892,13 +24816,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -25739,10 +25663,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -25764,33 +25688,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Notifications</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -25799,13 +25723,13 @@
 • “My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -25966,13 +25890,13 @@
       <c r="M6" s="53" t="n"/>
       <c r="N6" s="55" t="n"/>
     </row>
-    <row r="7" ht="120" customHeight="1">
+    <row r="7" ht="112.5" customHeight="1">
       <c r="B7" s="50" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="51" t="inlineStr">
         <is>
-          <t>EUR , NAR , CHN</t>
+          <t>NAR</t>
         </is>
       </c>
       <c r="D7" s="51" t="inlineStr">
@@ -25981,11 +25905,11 @@
         </is>
       </c>
       <c r="E7" s="52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="79" t="inlineStr">
         <is>
-          <t>Verify accessing  'Actions' tab in  'Notifications'  screen</t>
+          <t>Verify accessing  'Alert' tab in  'Notifications'  screen</t>
         </is>
       </c>
       <c r="G7" s="53" t="inlineStr">
@@ -25997,14 +25921,14 @@
       <c r="H7" s="53" t="n"/>
       <c r="I7" s="16" t="inlineStr">
         <is>
-          <t>Tap on 'Actions' tab in 'NOTIFICATIONS' page</t>
+          <t>1. Tap on 'Alerts' tab in 'My Bentley App - NOTIFICATIONS' page</t>
         </is>
       </c>
       <c r="J7" s="16" t="inlineStr">
         <is>
-          <t>When there are no actions at all  -&gt;  'There are no new notifications to display' message should be displayed  along with crossed out bell icon 
+          <t>When there are no alerts at all  --&gt;  'There are no new notifications to display' message should be displayed along with crossed out bell icon 
 OTHERWISE
-Maximum 10 actions should be displayed which are sorted by time stamp from newest to oldest.</t>
+Maximum 10 alerts should be displayed which are sorted by time stamp from newest to oldest.</t>
         </is>
       </c>
       <c r="K7" s="53" t="n"/>
@@ -26012,13 +25936,13 @@
       <c r="M7" s="53" t="n"/>
       <c r="N7" s="55" t="n"/>
     </row>
-    <row r="8" ht="135" customHeight="1">
+    <row r="8" ht="174.75" customHeight="1">
       <c r="B8" s="50" t="n">
         <v>4</v>
       </c>
       <c r="C8" s="51" t="inlineStr">
         <is>
-          <t>EUR , NAR , CHN</t>
+          <t>NAR</t>
         </is>
       </c>
       <c r="D8" s="51" t="inlineStr">
@@ -26027,11 +25951,11 @@
         </is>
       </c>
       <c r="E8" s="52" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F8" s="79" t="inlineStr">
         <is>
-          <t>Verify the contents of an action in 'Actions' tab in Notification Screen</t>
+          <t>Verify 'Alerts' are listed in the notification Alert list</t>
         </is>
       </c>
       <c r="G8" s="53" t="inlineStr">
@@ -26042,20 +25966,20 @@
       </c>
       <c r="H8" s="53" t="inlineStr">
         <is>
-          <t>• At least one Action should be present  in the 'Actions' list (e.g. Perform Remote Lock / Unlock operation through App)</t>
-        </is>
-      </c>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>Tap on 'Actions' tab in 'NOTIFICATIONS' page and check the contents of any listed action</t>
-        </is>
-      </c>
-      <c r="J8" s="16" t="inlineStr">
-        <is>
-          <t>Each action should have following contents in sequence
-- Status on the actions (e.g. 'Vehicle Locked/Unlocked/Failed to Lock/Failed to unlock' etc.)
-- Time stamp(e.g. 24 January 09.37 am)
-- Summary/Reasons (e.g. Vehicle was successfully locked/unlocked or Failed Reason)</t>
+          <t>1. Perform multiple 'Alert'( Ex : Speed Alert, Curfew Alert , Valet Alert  and Perimeter Alert ) functionality in different scenario</t>
+        </is>
+      </c>
+      <c r="I8" s="53" t="inlineStr">
+        <is>
+          <t>1. Refresh the 'NOTIFICATIONS - Alertss' page and Check whether all alerts related to 'Speed , Curfew , Valet &amp; Perimeter - Alerts' listed under 'My Bentley App - NAVIGATIONS - Alerts' screen</t>
+        </is>
+      </c>
+      <c r="J8" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Multiple Alert( Ex : Speed Alert, Curfew Alert , Valet Alert  and Perimeter Alert ) functionality scenarios are performed successfully without any issues
+2. All Alerts related to 'Speed , Curfew , Valet &amp; Perimeter - Alerts' should be listed in under 'My Bentley App - NAVIGATIONS - Alerts' screen and sorted by time stamp from newest to oldest.
+[Ex :1. On event occurs -&gt; Status : xxxxxxxx,  Time Stamp : 'DD Month hh.ss am/pm', Summary: 'xxxxxx']
+</t>
         </is>
       </c>
       <c r="K8" s="53" t="n"/>
@@ -26063,202 +25987,59 @@
       <c r="M8" s="53" t="n"/>
       <c r="N8" s="55" t="n"/>
     </row>
-    <row r="9" ht="393.75" customHeight="1">
-      <c r="B9" s="50" t="n">
+    <row r="9" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B9" s="59" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="51" t="inlineStr">
+      <c r="C9" s="60" t="inlineStr">
         <is>
           <t>EUR , NAR , CHN</t>
         </is>
       </c>
-      <c r="D9" s="51" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E9" s="52" t="n">
+      <c r="D9" s="60" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E9" s="61" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="79" t="inlineStr">
-        <is>
-          <t>Verify 'Remote Lock / Unlock' actions are listed in the notification action list</t>
-        </is>
-      </c>
-      <c r="G9" s="53" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - NOTIFICATIONS" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; Click on "Bell" icon (NOTIFICATIONS) )</t>
+      <c r="F9" s="94" t="inlineStr">
+        <is>
+          <t>Verify all the screen with Bentley style guide.</t>
+        </is>
+      </c>
+      <c r="G9" s="62" t="inlineStr">
+        <is>
+          <t>• N/A</t>
         </is>
       </c>
       <c r="H9" s="53" t="n"/>
-      <c r="I9" s="53" t="inlineStr">
-        <is>
-          <t>1. Perform multiple 'Remote Lock / Unlock' functionality in different scenarios (E.g. Ignition On, Off) through 'My Bentley App - DASHBOARD' screen
-2. Refresh the 'NOTIFICATIONS - Actions' page and Check whether 'Remote Lock / Unlock' functionality actions are listed</t>
-        </is>
-      </c>
-      <c r="J9" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. 'Remote Lock / Unlock' functionality in different scenarios (E.g. Ignition On, Off) are successfully performed through 'My Bentley App - DASHBOARD' screen
-2. All performed actions related to 'Remote Lock / Unlock' functionality should be listed in under 'My Bentley App - NAVIGATIONS - Actions' screen and sorted by time stamp from newest to oldest.
-[Ex :  1. On Successful Lock/Unlock Actions --&gt; Status : 'XX (Vehicle Name) Locked/Unlocked' , Time Stamp : 'DD Month hh.ss am/pm', Summary: 'XX successfully locked/unlocked']
-[Ex :  2. On Failure to Lock/Unlock Actions -&gt; Status: 'Failed to unlock XX(Vehicle Name)', Time Stamp : 'DD Month hh.ss am/pm', Reason: 'Please Close the Driver door' Or 'Battery Drain State -Unable to reach the vehicle' etc.] 
-</t>
-        </is>
-      </c>
-      <c r="K9" s="53" t="n"/>
-      <c r="L9" s="54" t="n"/>
-      <c r="M9" s="53" t="n"/>
-      <c r="N9" s="55" t="n"/>
-    </row>
-    <row r="10" ht="120" customHeight="1">
-      <c r="B10" s="50" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="51" t="inlineStr">
-        <is>
-          <t>NAR</t>
-        </is>
-      </c>
-      <c r="D10" s="51" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E10" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="79" t="inlineStr">
-        <is>
-          <t>Verify accessing  'Alert' tab in  'Notifications'  screen</t>
-        </is>
-      </c>
-      <c r="G10" s="53" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - NOTIFICATIONS" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; Click on "Bell" icon (NOTIFICATIONS) )</t>
-        </is>
-      </c>
-      <c r="H10" s="53" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>1. Tap on 'Alerts' tab in 'My Bentley App - NOTIFICATIONS' page</t>
-        </is>
-      </c>
-      <c r="J10" s="16" t="inlineStr">
-        <is>
-          <t>When there are no alerts at all  --&gt;  'There are no new notifications to display' message should be displayed along with crossed out bell icon 
-OTHERWISE
-Maximum 10 alerts should be displayed which are sorted by time stamp from newest to oldest.</t>
-        </is>
-      </c>
-      <c r="K10" s="53" t="n"/>
-      <c r="L10" s="54" t="n"/>
-      <c r="M10" s="53" t="n"/>
-      <c r="N10" s="55" t="n"/>
-    </row>
-    <row r="11" ht="252" customHeight="1">
-      <c r="B11" s="50" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="51" t="inlineStr">
-        <is>
-          <t>NAR</t>
-        </is>
-      </c>
-      <c r="D11" s="51" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E11" s="52" t="n">
-        <v>15</v>
-      </c>
-      <c r="F11" s="79" t="inlineStr">
-        <is>
-          <t>Verify 'Alerts' are listed in the notification Alert list</t>
-        </is>
-      </c>
-      <c r="G11" s="53" t="inlineStr">
-        <is>
-          <t>• The screen focus is in "My Bentley App - NOTIFICATIONS" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen --&gt; Click on "Bell" icon (NOTIFICATIONS) )</t>
-        </is>
-      </c>
-      <c r="H11" s="53" t="inlineStr">
-        <is>
-          <t>1. Perform multiple 'Alert'( Ex : Speed Alert, Curfew Alert , Valet Alert  and Perimeter Alert ) functionality in different scenario</t>
-        </is>
-      </c>
-      <c r="I11" s="53" t="inlineStr">
-        <is>
-          <t>1. Refresh the 'NOTIFICATIONS - Alertss' page and Check whether all alerts related to 'Speed , Curfew , Valet &amp; Perimeter - Alerts' listed under 'My Bentley App - NAVIGATIONS - Alerts' screen</t>
-        </is>
-      </c>
-      <c r="J11" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Multiple Alert( Ex : Speed Alert, Curfew Alert , Valet Alert  and Perimeter Alert ) functionality scenarios are performed successfully without any issues
-2. All Alerts related to 'Speed , Curfew , Valet &amp; Perimeter - Alerts' should be listed in under 'My Bentley App - NAVIGATIONS - Alerts' screen and sorted by time stamp from newest to oldest.
-[Ex :1. On event occurs -&gt; Status : xxxxxxxx,  Time Stamp : 'DD Month hh.ss am/pm', Summary: 'xxxxxx']
-</t>
-        </is>
-      </c>
-      <c r="K11" s="53" t="n"/>
-      <c r="L11" s="54" t="n"/>
-      <c r="M11" s="53" t="n"/>
-      <c r="N11" s="55" t="n"/>
-    </row>
-    <row r="12" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B12" s="59" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="60" t="inlineStr">
-        <is>
-          <t>EUR , NAR , CHN</t>
-        </is>
-      </c>
-      <c r="D12" s="60" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E12" s="61" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="94" t="inlineStr">
-        <is>
-          <t>Verify all the screen with Bentley style guide.</t>
-        </is>
-      </c>
-      <c r="G12" s="62" t="inlineStr">
-        <is>
-          <t>• N/A</t>
-        </is>
-      </c>
-      <c r="H12" s="53" t="n"/>
-      <c r="I12" s="62" t="inlineStr">
+      <c r="I9" s="62" t="inlineStr">
         <is>
           <t>Observe all the screen's icon, font, colour</t>
         </is>
       </c>
-      <c r="J12" s="62" t="inlineStr">
+      <c r="J9" s="62" t="inlineStr">
         <is>
           <t>All the icon, font, colour should be followed as per Bentley style guide.</t>
         </is>
       </c>
-      <c r="K12" s="62" t="n"/>
-      <c r="L12" s="63" t="n"/>
-      <c r="M12" s="62" t="n"/>
-      <c r="N12" s="64" t="n"/>
-    </row>
+      <c r="K9" s="62" t="n"/>
+      <c r="L9" s="63" t="n"/>
+      <c r="M9" s="62" t="n"/>
+      <c r="N9" s="64" t="n"/>
+    </row>
+    <row r="10" ht="120" customHeight="1"/>
+    <row r="11" ht="252" customHeight="1"/>
+    <row r="12" ht="32.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K11">
+  <conditionalFormatting sqref="K5:K8">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="13">
       <formula>"Not Tested"</formula>
     </cfRule>
@@ -26281,7 +26062,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L12">
+  <conditionalFormatting sqref="L5:L9">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="6">
       <formula>"Cancelled"</formula>
     </cfRule>
@@ -26305,7 +26086,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="L5:L12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="L5:L9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Pass, Fail, Blocked, NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26354,33 +26135,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Push Notifications</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -26389,13 +26170,13 @@
 • “My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -27078,46 +26859,46 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Pre Condition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Primary user successfully  registered with vehicle
 • My Bentley mobile app should have valid credentials.</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -28280,39 +28061,39 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="14" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="46" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Localization</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -28322,13 +28103,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -28596,33 +28377,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="241" t="inlineStr">
+      <c r="B2" s="251" t="inlineStr">
         <is>
           <t>Privacy Mode</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="240" t="inlineStr">
+      <c r="B3" s="250" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="31" t="n"/>
       <c r="E3" s="33" t="n"/>
-      <c r="F3" s="238" t="inlineStr">
+      <c r="F3" s="248" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -28630,13 +28411,13 @@
 • “My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" t="inlineStr"/>
@@ -29663,33 +29444,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Remote Park Assist</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -29700,13 +29481,13 @@
 • Test Mobile where My Bentley App is installed is paired to Head Unit via Bluetooth</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -33280,8 +33061,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -33303,33 +33084,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Add VIN</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • My Bentley in Car Services' and 'My Bentley Remote Services' license is valid and in use
@@ -33343,13 +33124,13 @@
                        3. Set 'Login Method' = 'idk(IDK - Solution)' / 'ping(PING - Solution)'   </t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -33722,29 +33503,29 @@
       <c r="N10" s="88" t="n"/>
     </row>
     <row r="11" ht="169.5" customHeight="1">
-      <c r="B11" s="82" t="n">
+      <c r="B11" s="223" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="83" t="inlineStr">
+      <c r="C11" s="224" t="inlineStr">
         <is>
           <t>EUR, NAR, CHN</t>
         </is>
       </c>
-      <c r="D11" s="83" t="inlineStr">
+      <c r="D11" s="224" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="225">
         <f>(5+3+3)/3</f>
         <v/>
       </c>
-      <c r="F11" s="79" t="inlineStr">
+      <c r="F11" s="226" t="inlineStr">
         <is>
           <t>Verify validating camera when 'Open Camera' Link option selected from ADD A VEHICLE screen in My Bentley App</t>
         </is>
       </c>
-      <c r="G11" s="111" t="inlineStr">
+      <c r="G11" s="227" t="inlineStr">
         <is>
           <t>• Login to My Bentley App with valid credentials
 • The screen focus is in "My Bentley App - ADD A VEHICLE" page
@@ -33752,15 +33533,15 @@
 • Permission to access camera is already given to My Bentley App</t>
         </is>
       </c>
-      <c r="H11" s="111" t="n"/>
-      <c r="I11" s="128" t="inlineStr">
+      <c r="H11" s="227" t="n"/>
+      <c r="I11" s="228" t="inlineStr">
         <is>
           <t xml:space="preserve">Validate  'ADD A VEHICLE' Screen : 
 1. In 'ADD A VEHICLE' screen, Click on 'Open Camera' Link and observe
 </t>
         </is>
       </c>
-      <c r="J11" s="130" t="inlineStr">
+      <c r="J11" s="229" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Clicking on 'Open Camera' Link in 'ADD A VEHICLE' screen should launch camera displaying
 a. Virtual Box to centre the VIN for capturing via camera
@@ -33768,12 +33549,12 @@
 c. Flash button </t>
         </is>
       </c>
-      <c r="K11" s="79" t="n"/>
-      <c r="L11" s="86" t="n"/>
-      <c r="M11" s="87" t="n"/>
-      <c r="N11" s="88" t="n"/>
-    </row>
-    <row r="12" ht="168" customHeight="1">
+      <c r="K11" s="226" t="n"/>
+      <c r="L11" s="230" t="n"/>
+      <c r="M11" s="231" t="n"/>
+      <c r="N11" s="232" t="n"/>
+    </row>
+    <row r="12" ht="188.45" customHeight="1">
       <c r="B12" s="82" t="n">
         <v>8</v>
       </c>
@@ -33793,7 +33574,7 @@
       </c>
       <c r="F12" s="79" t="inlineStr">
         <is>
-          <t>Verify capturing VIN when via Camera [ Flash = Off ]</t>
+          <t>Verify capturing VIN when via Camera [ Flash = Off ] and validate 'Scan VIN again' option under 'ADD A VEHICLE - CONFIRM YOUR VIN' Screen</t>
         </is>
       </c>
       <c r="G12" s="111" t="inlineStr">
@@ -33811,14 +33592,17 @@
 1. In 'ADD A VEHICLE' screen, Click on 'Open Camera' Link
 2. Flash = Off
 3. Centre focus the VIN in the virtual box in Camera and capture the photo
-</t>
+4. Click on 'Scan VIN again' option and Observe
+My Bentley App : 
+( ADD A VEHICLE screen --&gt; Click on 'ADD A VEHICLE' button --&gt; Open Camera  --&gt; Mobile Camera should be launched --&gt; Centre your VIN in the box specified in camera for capturing VIN --&gt; Capture VIN Photo --&gt; VIN added to 'ADD A VEHICLE - CONFIRM YOUR VIN' screen  --&gt; Click on 'Scan VIN again' ) </t>
         </is>
       </c>
       <c r="J12" s="130" t="inlineStr">
         <is>
           <t>1. Clicking on 'Open Camera' Link in 'ADD A VEHICLE' screen should launch camera
 2. Flash is not enabled
-3. VIN should be successfully captured without flash via camera and should be successfully added to VIN field</t>
+3. VIN should be successfully captured without flash via camera and should be successfully added to VIN field
+4. The Mobile Camera should be relaunched when user clicks on 'Scan VIN again'</t>
         </is>
       </c>
       <c r="K12" s="79" t="n"/>
@@ -34084,29 +33868,29 @@
       <c r="N17" s="88" t="n"/>
     </row>
     <row r="18" ht="195" customHeight="1">
-      <c r="B18" s="82" t="n">
+      <c r="B18" s="223" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="83" t="inlineStr">
+      <c r="C18" s="224" t="inlineStr">
         <is>
           <t>EUR, NAR, CHN</t>
         </is>
       </c>
-      <c r="D18" s="83" t="inlineStr">
+      <c r="D18" s="224" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="225">
         <f>(3+2+3)/3</f>
         <v/>
       </c>
-      <c r="F18" s="79" t="inlineStr">
+      <c r="F18" s="226" t="inlineStr">
         <is>
           <t>Verify validating 'Scan VIN again' option under 'ADD A VEHICLE - CONFIRM YOUR VIN' Screen</t>
         </is>
       </c>
-      <c r="G18" s="111" t="inlineStr">
+      <c r="G18" s="227" t="inlineStr">
         <is>
           <t>• Login to My Bentley App with valid credentials
 • The screen focus is in "My Bentley App - ADD A VEHICLE" page
@@ -34114,8 +33898,8 @@
 • Permission to access camera is already given to My Bentley App</t>
         </is>
       </c>
-      <c r="H18" s="111" t="n"/>
-      <c r="I18" s="128" t="inlineStr">
+      <c r="H18" s="227" t="n"/>
+      <c r="I18" s="228" t="inlineStr">
         <is>
           <t xml:space="preserve">Add VIN - Optical Character Recognition(OCR) -  'ADD A VEHICLE' Screen - Camera Permission - Given :
 1. In 'ADD A VEHICLE -  CONFIRM YOUR VIN' screen  --&gt; Click on 'Scan VIN again' option and Observe
@@ -34124,15 +33908,15 @@
 </t>
         </is>
       </c>
-      <c r="J18" s="130" t="inlineStr">
+      <c r="J18" s="229" t="inlineStr">
         <is>
           <t xml:space="preserve">1. The Mobile Camera should be relaunched displaying a box stating Msg(Centre your VIN in the box above) when user clicks on 'Scan VIN again' option under 'ADD A VEHICLE - CONFIRM YOUR VIN' screen </t>
         </is>
       </c>
-      <c r="K18" s="79" t="n"/>
-      <c r="L18" s="86" t="n"/>
-      <c r="M18" s="87" t="n"/>
-      <c r="N18" s="88" t="n"/>
+      <c r="K18" s="226" t="n"/>
+      <c r="L18" s="230" t="n"/>
+      <c r="M18" s="231" t="n"/>
+      <c r="N18" s="232" t="n"/>
     </row>
     <row r="19" ht="165" customHeight="1">
       <c r="B19" s="82" t="n">
@@ -34358,7 +34142,7 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -34381,33 +34165,33 @@
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Stolen Vehicle Tracking</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>1. Before starting each scenario, Please follow : 
 a. Ignition = Off
@@ -34416,13 +34200,13 @@
 d. While performing drive scenarios, Request to drive for &gt;500 m with Speed &gt;8Km/Hr on a straight road</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -38701,39 +38485,39 @@
     <col width="19.42578125" customWidth="1" style="43" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="43" min="13" max="13"/>
     <col width="15.5703125" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="46" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>App Registration Pages</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -38745,13 +38529,13 @@
                        3. Set 'Login Method' = 'idk(IDK - Solution)' / 'ping(PING - Solution)'  </t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1">
       <c r="A4" t="inlineStr"/>
@@ -39367,46 +39151,46 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="n"/>
-      <c r="B2" s="231" t="inlineStr">
+      <c r="B2" s="241" t="inlineStr">
         <is>
           <t>App Log in-Log out</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="232" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="242" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="n"/>
-      <c r="B3" s="233" t="inlineStr">
+      <c r="B3" s="243" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
-      <c r="D3" s="233" t="n"/>
+      <c r="C3" s="235" t="n"/>
+      <c r="D3" s="243" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before starting the testing of this service
 • My Bentley app should be installed in the mobile</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="inlineStr"/>
@@ -39911,8 +39695,8 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -39931,8 +39715,8 @@
     <col width="19.42578125" customWidth="1" style="46" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="46" min="13" max="13"/>
     <col width="14.85546875" customWidth="1" style="46" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="46" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="46" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="46" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="46" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1">
@@ -39952,34 +39736,34 @@
     </row>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="43" t="n"/>
-      <c r="B2" s="231" t="inlineStr">
+      <c r="B2" s="241" t="inlineStr">
         <is>
           <t>Nickname</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="232" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="242" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="43" t="n"/>
-      <c r="B3" s="233" t="inlineStr">
+      <c r="B3" s="243" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="225" t="n"/>
-      <c r="D3" s="233" t="n"/>
+      <c r="C3" s="235" t="n"/>
+      <c r="D3" s="243" t="n"/>
       <c r="E3" s="48" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before starting the testing of this service
 • My Bentley app should be installed in the mobile
@@ -39987,13 +39771,13 @@
 • Primary user registration process is completed successfully</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" s="43" t="inlineStr"/>
@@ -40178,15 +39962,12 @@
       </c>
       <c r="G7" s="53" t="inlineStr">
         <is>
-          <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H7" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">• Nickname to vehicle is not added </t>
-        </is>
-      </c>
+          <t xml:space="preserve">• The screen focus is in "My Bentley App - DASHBOARD" page
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Nickname to vehicle is not added </t>
+        </is>
+      </c>
+      <c r="H7" s="53" t="n"/>
       <c r="I7" s="53" t="inlineStr">
         <is>
           <t>1. In vehicle 'DASHBOARD' screen, Click on 'i-icon' present at top right corner of screen
@@ -40288,15 +40069,12 @@
       </c>
       <c r="G9" s="53" t="inlineStr">
         <is>
-          <t>• The screen focus is in "My Bentley App - DASHBOARD" page
-( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )</t>
-        </is>
-      </c>
-      <c r="H9" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">• Nickname to vehicle already added </t>
-        </is>
-      </c>
+          <t xml:space="preserve">• The screen focus is in "My Bentley App - DASHBOARD" page
+( My Bentley App --&gt; LOGIN OR REGISTER --&gt; Email --&gt; Enter valid email id --&gt; NEXT --&gt; Enter the Password --&gt; NEXT --&gt; Vehicle "DASHBOARD" Screen )
+• Nickname to vehicle is added </t>
+        </is>
+      </c>
+      <c r="H9" s="53" t="n"/>
       <c r="I9" s="53" t="inlineStr">
         <is>
           <t>1. In vehicle 'DASHBOARD' screen, Click on 'i-icon' present at top right corner of screen
@@ -40688,41 +40466,41 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="15.85546875" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
       <c r="A2" s="43" t="n"/>
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Services and licenses</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="43" t="n"/>
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -40732,13 +40510,13 @@
 • Login to My Bentley App with valid credentials</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" s="43" t="inlineStr"/>
@@ -41485,8 +41263,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -41505,52 +41283,52 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.7109375" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="236" t="inlineStr">
         <is>
           <t>Vehicle Status Report</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="227" t="n"/>
-      <c r="L2" s="227" t="n"/>
-      <c r="M2" s="228" t="n"/>
+      <c r="C2" s="237" t="n"/>
+      <c r="D2" s="237" t="n"/>
+      <c r="E2" s="237" t="n"/>
+      <c r="F2" s="237" t="n"/>
+      <c r="G2" s="237" t="n"/>
+      <c r="H2" s="237" t="n"/>
+      <c r="I2" s="237" t="n"/>
+      <c r="J2" s="237" t="n"/>
+      <c r="K2" s="237" t="n"/>
+      <c r="L2" s="237" t="n"/>
+      <c r="M2" s="238" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="229" t="inlineStr">
+      <c r="B3" s="239" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="224" t="n"/>
+      <c r="C3" s="234" t="n"/>
       <c r="D3" s="68" t="n"/>
       <c r="E3" s="69" t="n"/>
-      <c r="F3" s="223" t="inlineStr">
+      <c r="F3" s="233" t="inlineStr">
         <is>
           <t>Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
 • Primary user registration process is completed successfully</t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="225" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="235" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
@@ -41642,11 +41420,7 @@
           <t>Access 'Vehicle Status Report(VSR)' service from Mobile App</t>
         </is>
       </c>
-      <c r="G5" s="120" t="inlineStr">
-        <is>
-          <t>• NA</t>
-        </is>
-      </c>
+      <c r="G5" s="120" t="n"/>
       <c r="H5" s="53" t="n"/>
       <c r="I5" s="120" t="inlineStr">
         <is>
@@ -41932,7 +41706,7 @@
     </row>
     <row r="11" ht="150.75" customHeight="1">
       <c r="B11" s="50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="51" t="inlineStr">
         <is>
@@ -41979,7 +41753,7 @@
     </row>
     <row r="12" ht="135.75" customHeight="1">
       <c r="B12" s="50" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="51" t="inlineStr">
         <is>
@@ -42026,7 +41800,7 @@
     </row>
     <row r="13" ht="145.5" customHeight="1">
       <c r="B13" s="50" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="51" t="inlineStr">
         <is>
@@ -42073,7 +41847,7 @@
     </row>
     <row r="14" ht="110.25" customHeight="1">
       <c r="B14" s="50" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="51" t="inlineStr">
         <is>
@@ -42125,7 +41899,7 @@
     </row>
     <row r="15" ht="110.25" customHeight="1">
       <c r="B15" s="50" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="51" t="inlineStr">
         <is>
@@ -43322,39 +43096,39 @@
     <col width="19.42578125" customWidth="1" style="2" min="12" max="12"/>
     <col width="18.85546875" customWidth="1" style="2" min="13" max="13"/>
     <col width="14.140625" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.7109375" customWidth="1" style="2" min="15" max="52"/>
-    <col width="8.7109375" customWidth="1" style="2" min="53" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="2" min="15" max="60"/>
+    <col width="8.7109375" customWidth="1" style="2" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="2" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B2" s="236" t="inlineStr">
+      <c r="B2" s="246" t="inlineStr">
         <is>
           <t>Remote Lock-Unlock</t>
         </is>
       </c>
-      <c r="C2" s="224" t="n"/>
-      <c r="D2" s="224" t="n"/>
-      <c r="E2" s="224" t="n"/>
-      <c r="F2" s="224" t="n"/>
-      <c r="G2" s="224" t="n"/>
-      <c r="H2" s="224" t="n"/>
-      <c r="I2" s="224" t="n"/>
-      <c r="J2" s="224" t="n"/>
-      <c r="K2" s="224" t="n"/>
-      <c r="L2" s="224" t="n"/>
-      <c r="M2" s="235" t="n"/>
+      <c r="C2" s="234" t="n"/>
+      <c r="D2" s="234" t="n"/>
+      <c r="E2" s="234" t="n"/>
+      <c r="F2" s="234" t="n"/>
+      <c r="G2" s="234" t="n"/>
+      <c r="H2" s="234" t="n"/>
+      <c r="I2" s="234" t="n"/>
+      <c r="J2" s="234" t="n"/>
+      <c r="K2" s="234" t="n"/>
+      <c r="L2" s="234" t="n"/>
+      <c r="M2" s="245" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="237" t="inlineStr">
+      <c r="B3" s="247" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="C3" s="235" t="n"/>
+      <c r="C3" s="245" t="n"/>
       <c r="D3" s="187" t="n"/>
       <c r="E3" s="188" t="n"/>
-      <c r="F3" s="234" t="inlineStr">
+      <c r="F3" s="244" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensure that below preconditions are met before start the testing for this service
 • Vehicle is connected to network 
@@ -43365,13 +43139,13 @@
 </t>
         </is>
       </c>
-      <c r="G3" s="224" t="n"/>
-      <c r="H3" s="224" t="n"/>
-      <c r="I3" s="224" t="n"/>
-      <c r="J3" s="224" t="n"/>
-      <c r="K3" s="224" t="n"/>
-      <c r="L3" s="224" t="n"/>
-      <c r="M3" s="235" t="n"/>
+      <c r="G3" s="234" t="n"/>
+      <c r="H3" s="234" t="n"/>
+      <c r="I3" s="234" t="n"/>
+      <c r="J3" s="234" t="n"/>
+      <c r="K3" s="234" t="n"/>
+      <c r="L3" s="234" t="n"/>
+      <c r="M3" s="245" t="n"/>
     </row>
     <row r="4" ht="48" customHeight="1" thickBot="1">
       <c r="A4" t="inlineStr"/>
